--- a/InputData/trans/FpUCD/Fare per Unit Cargo Dist.xlsx
+++ b/InputData/trans/FpUCD/Fare per Unit Cargo Dist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\trans\FpUCD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\trans\FpUCD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CBD32F-1793-4FD4-A7A3-64E1D535AA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0556168D-9724-432B-ADA0-F68E7963A89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9285" yWindow="615" windowWidth="21600" windowHeight="22305" xr2:uid="{5CB7DE5F-F8DD-4C7C-901C-BE87FF788B57}"/>
+    <workbookView xWindow="10080" yWindow="570" windowWidth="18765" windowHeight="17175" firstSheet="3" activeTab="8" xr2:uid="{5CB7DE5F-F8DD-4C7C-901C-BE87FF788B57}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="FpUCD-passenger" sheetId="2" r:id="rId8"/>
     <sheet name="FpUCD-freight" sheetId="4" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,28 +39,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3933,6 +3911,15 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3960,14 +3947,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3981,8 +3962,47 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="70" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="71" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="72" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="73" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="74" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="39" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="75" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="76" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="77" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="78" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="79" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4017,46 +4037,28 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="90" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="39" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="86" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="83" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="75" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="95" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="76" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="77" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="78" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="70" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="71" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="72" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="73" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="74" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="8" borderId="79" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4084,30 +4086,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="100" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="95" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="86" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="83" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9288,7 +9266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3168012A-7293-4AC1-A8AA-296A541E4584}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9415,45 +9393,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="235" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="232"/>
-      <c r="H1" s="232"/>
-      <c r="I1" s="232"/>
-      <c r="J1" s="232"/>
-      <c r="K1" s="232"/>
-      <c r="L1" s="232"/>
-      <c r="M1" s="232"/>
-      <c r="N1" s="232"/>
-      <c r="O1" s="232"/>
-      <c r="P1" s="232"/>
-      <c r="Q1" s="232"/>
-      <c r="R1" s="232"/>
-      <c r="S1" s="232"/>
-      <c r="T1" s="232"/>
-      <c r="U1" s="232"/>
-      <c r="V1" s="232"/>
-      <c r="W1" s="232"/>
-      <c r="X1" s="232"/>
-      <c r="Y1" s="232"/>
-      <c r="Z1" s="232"/>
-      <c r="AA1" s="232"/>
-      <c r="AB1" s="232"/>
-      <c r="AC1" s="232"/>
-      <c r="AD1" s="232"/>
-      <c r="AE1" s="232"/>
-      <c r="AF1" s="232"/>
-      <c r="AG1" s="232"/>
-      <c r="AH1" s="232"/>
-      <c r="AI1" s="232"/>
-      <c r="AJ1" s="232"/>
-      <c r="AK1" s="232"/>
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="235"/>
+      <c r="O1" s="235"/>
+      <c r="P1" s="235"/>
+      <c r="Q1" s="235"/>
+      <c r="R1" s="235"/>
+      <c r="S1" s="235"/>
+      <c r="T1" s="235"/>
+      <c r="U1" s="235"/>
+      <c r="V1" s="235"/>
+      <c r="W1" s="235"/>
+      <c r="X1" s="235"/>
+      <c r="Y1" s="235"/>
+      <c r="Z1" s="235"/>
+      <c r="AA1" s="235"/>
+      <c r="AB1" s="235"/>
+      <c r="AC1" s="235"/>
+      <c r="AD1" s="235"/>
+      <c r="AE1" s="235"/>
+      <c r="AF1" s="235"/>
+      <c r="AG1" s="235"/>
+      <c r="AH1" s="235"/>
+      <c r="AI1" s="235"/>
+      <c r="AJ1" s="235"/>
+      <c r="AK1" s="235"/>
     </row>
     <row r="2" spans="1:37" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
@@ -10358,1973 +10336,226 @@
       </c>
     </row>
     <row r="10" spans="1:37" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A10" s="233" t="s">
+      <c r="A10" s="236" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="233"/>
-      <c r="C10" s="233"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="233"/>
-      <c r="F10" s="233"/>
-      <c r="G10" s="233"/>
-      <c r="H10" s="233"/>
-      <c r="I10" s="233"/>
-      <c r="J10" s="233"/>
-      <c r="K10" s="233"/>
-      <c r="L10" s="233"/>
-      <c r="M10" s="233"/>
-      <c r="N10" s="233"/>
-      <c r="O10" s="233"/>
-      <c r="P10" s="233"/>
-      <c r="Q10" s="233"/>
-      <c r="R10" s="233"/>
-      <c r="S10" s="233"/>
-      <c r="T10" s="233"/>
-      <c r="U10" s="233"/>
-      <c r="V10" s="233"/>
-      <c r="W10" s="233"/>
-      <c r="X10" s="233"/>
-      <c r="Y10" s="233"/>
-      <c r="Z10" s="233"/>
-      <c r="AA10" s="233"/>
-      <c r="AB10" s="233"/>
-      <c r="AC10" s="233"/>
-      <c r="AD10" s="233"/>
-      <c r="AE10" s="233"/>
-      <c r="AF10" s="233"/>
-      <c r="AG10" s="233"/>
+      <c r="B10" s="236"/>
+      <c r="C10" s="236"/>
+      <c r="D10" s="236"/>
+      <c r="E10" s="236"/>
+      <c r="F10" s="236"/>
+      <c r="G10" s="236"/>
+      <c r="H10" s="236"/>
+      <c r="I10" s="236"/>
+      <c r="J10" s="236"/>
+      <c r="K10" s="236"/>
+      <c r="L10" s="236"/>
+      <c r="M10" s="236"/>
+      <c r="N10" s="236"/>
+      <c r="O10" s="236"/>
+      <c r="P10" s="236"/>
+      <c r="Q10" s="236"/>
+      <c r="R10" s="236"/>
+      <c r="S10" s="236"/>
+      <c r="T10" s="236"/>
+      <c r="U10" s="236"/>
+      <c r="V10" s="236"/>
+      <c r="W10" s="236"/>
+      <c r="X10" s="236"/>
+      <c r="Y10" s="236"/>
+      <c r="Z10" s="236"/>
+      <c r="AA10" s="236"/>
+      <c r="AB10" s="236"/>
+      <c r="AC10" s="236"/>
+      <c r="AD10" s="236"/>
+      <c r="AE10" s="236"/>
+      <c r="AF10" s="236"/>
+      <c r="AG10" s="236"/>
     </row>
     <row r="11" spans="1:37" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A11" s="234"/>
-      <c r="B11" s="234"/>
-      <c r="C11" s="234"/>
-      <c r="D11" s="234"/>
-      <c r="E11" s="234"/>
-      <c r="F11" s="234"/>
-      <c r="G11" s="234"/>
-      <c r="H11" s="234"/>
-      <c r="I11" s="234"/>
-      <c r="J11" s="234"/>
-      <c r="K11" s="234"/>
-      <c r="L11" s="234"/>
-      <c r="M11" s="234"/>
-      <c r="N11" s="234"/>
-      <c r="O11" s="234"/>
-      <c r="P11" s="234"/>
-      <c r="Q11" s="234"/>
-      <c r="R11" s="234"/>
-      <c r="S11" s="234"/>
-      <c r="T11" s="234"/>
-      <c r="U11" s="234"/>
-      <c r="V11" s="234"/>
-      <c r="W11" s="234"/>
-      <c r="X11" s="234"/>
-      <c r="Y11" s="234"/>
-      <c r="Z11" s="234"/>
-      <c r="AA11" s="234"/>
-      <c r="AB11" s="234"/>
-      <c r="AC11" s="234"/>
-      <c r="AD11" s="234"/>
-      <c r="AE11" s="234"/>
-      <c r="AF11" s="234"/>
-      <c r="AG11" s="234"/>
+      <c r="A11" s="237"/>
+      <c r="B11" s="237"/>
+      <c r="C11" s="237"/>
+      <c r="D11" s="237"/>
+      <c r="E11" s="237"/>
+      <c r="F11" s="237"/>
+      <c r="G11" s="237"/>
+      <c r="H11" s="237"/>
+      <c r="I11" s="237"/>
+      <c r="J11" s="237"/>
+      <c r="K11" s="237"/>
+      <c r="L11" s="237"/>
+      <c r="M11" s="237"/>
+      <c r="N11" s="237"/>
+      <c r="O11" s="237"/>
+      <c r="P11" s="237"/>
+      <c r="Q11" s="237"/>
+      <c r="R11" s="237"/>
+      <c r="S11" s="237"/>
+      <c r="T11" s="237"/>
+      <c r="U11" s="237"/>
+      <c r="V11" s="237"/>
+      <c r="W11" s="237"/>
+      <c r="X11" s="237"/>
+      <c r="Y11" s="237"/>
+      <c r="Z11" s="237"/>
+      <c r="AA11" s="237"/>
+      <c r="AB11" s="237"/>
+      <c r="AC11" s="237"/>
+      <c r="AD11" s="237"/>
+      <c r="AE11" s="237"/>
+      <c r="AF11" s="237"/>
+      <c r="AG11" s="237"/>
     </row>
     <row r="12" spans="1:37" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="235" t="s">
+      <c r="A12" s="238" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="235"/>
-      <c r="C12" s="235"/>
-      <c r="D12" s="235"/>
-      <c r="E12" s="235"/>
-      <c r="F12" s="235"/>
-      <c r="G12" s="235"/>
-      <c r="H12" s="235"/>
-      <c r="I12" s="235"/>
-      <c r="J12" s="235"/>
-      <c r="K12" s="235"/>
-      <c r="L12" s="235"/>
-      <c r="M12" s="235"/>
-      <c r="N12" s="235"/>
-      <c r="O12" s="235"/>
-      <c r="P12" s="235"/>
-      <c r="Q12" s="235"/>
-      <c r="R12" s="235"/>
-      <c r="S12" s="235"/>
-      <c r="T12" s="235"/>
-      <c r="U12" s="235"/>
-      <c r="V12" s="235"/>
-      <c r="W12" s="235"/>
-      <c r="X12" s="235"/>
-      <c r="Y12" s="235"/>
-      <c r="Z12" s="235"/>
-      <c r="AA12" s="235"/>
-      <c r="AB12" s="235"/>
-      <c r="AC12" s="235"/>
-      <c r="AD12" s="235"/>
-      <c r="AE12" s="235"/>
-      <c r="AF12" s="235"/>
-      <c r="AG12" s="235"/>
+      <c r="B12" s="238"/>
+      <c r="C12" s="238"/>
+      <c r="D12" s="238"/>
+      <c r="E12" s="238"/>
+      <c r="F12" s="238"/>
+      <c r="G12" s="238"/>
+      <c r="H12" s="238"/>
+      <c r="I12" s="238"/>
+      <c r="J12" s="238"/>
+      <c r="K12" s="238"/>
+      <c r="L12" s="238"/>
+      <c r="M12" s="238"/>
+      <c r="N12" s="238"/>
+      <c r="O12" s="238"/>
+      <c r="P12" s="238"/>
+      <c r="Q12" s="238"/>
+      <c r="R12" s="238"/>
+      <c r="S12" s="238"/>
+      <c r="T12" s="238"/>
+      <c r="U12" s="238"/>
+      <c r="V12" s="238"/>
+      <c r="W12" s="238"/>
+      <c r="X12" s="238"/>
+      <c r="Y12" s="238"/>
+      <c r="Z12" s="238"/>
+      <c r="AA12" s="238"/>
+      <c r="AB12" s="238"/>
+      <c r="AC12" s="238"/>
+      <c r="AD12" s="238"/>
+      <c r="AE12" s="238"/>
+      <c r="AF12" s="238"/>
+      <c r="AG12" s="238"/>
     </row>
     <row r="13" spans="1:37" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="235"/>
-      <c r="B13" s="235"/>
-      <c r="C13" s="235"/>
-      <c r="D13" s="235"/>
-      <c r="E13" s="235"/>
-      <c r="F13" s="235"/>
-      <c r="G13" s="235"/>
-      <c r="H13" s="235"/>
-      <c r="I13" s="235"/>
-      <c r="J13" s="235"/>
-      <c r="K13" s="235"/>
-      <c r="L13" s="235"/>
-      <c r="M13" s="235"/>
-      <c r="N13" s="235"/>
-      <c r="O13" s="235"/>
-      <c r="P13" s="235"/>
-      <c r="Q13" s="235"/>
-      <c r="R13" s="235"/>
-      <c r="S13" s="235"/>
-      <c r="T13" s="235"/>
-      <c r="U13" s="235"/>
-      <c r="V13" s="235"/>
-      <c r="W13" s="235"/>
-      <c r="X13" s="235"/>
-      <c r="Y13" s="235"/>
-      <c r="Z13" s="235"/>
-      <c r="AA13" s="235"/>
-      <c r="AB13" s="235"/>
-      <c r="AC13" s="235"/>
-      <c r="AD13" s="235"/>
-      <c r="AE13" s="235"/>
-      <c r="AF13" s="235"/>
-      <c r="AG13" s="235"/>
+      <c r="A13" s="238"/>
+      <c r="B13" s="238"/>
+      <c r="C13" s="238"/>
+      <c r="D13" s="238"/>
+      <c r="E13" s="238"/>
+      <c r="F13" s="238"/>
+      <c r="G13" s="238"/>
+      <c r="H13" s="238"/>
+      <c r="I13" s="238"/>
+      <c r="J13" s="238"/>
+      <c r="K13" s="238"/>
+      <c r="L13" s="238"/>
+      <c r="M13" s="238"/>
+      <c r="N13" s="238"/>
+      <c r="O13" s="238"/>
+      <c r="P13" s="238"/>
+      <c r="Q13" s="238"/>
+      <c r="R13" s="238"/>
+      <c r="S13" s="238"/>
+      <c r="T13" s="238"/>
+      <c r="U13" s="238"/>
+      <c r="V13" s="238"/>
+      <c r="W13" s="238"/>
+      <c r="X13" s="238"/>
+      <c r="Y13" s="238"/>
+      <c r="Z13" s="238"/>
+      <c r="AA13" s="238"/>
+      <c r="AB13" s="238"/>
+      <c r="AC13" s="238"/>
+      <c r="AD13" s="238"/>
+      <c r="AE13" s="238"/>
+      <c r="AF13" s="238"/>
+      <c r="AG13" s="238"/>
     </row>
     <row r="14" spans="1:37" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A14" s="236" t="s">
+      <c r="A14" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="236"/>
-      <c r="C14" s="236"/>
-      <c r="D14" s="236"/>
-      <c r="E14" s="236"/>
-      <c r="F14" s="236"/>
-      <c r="G14" s="236"/>
-      <c r="H14" s="236"/>
-      <c r="I14" s="236"/>
-      <c r="J14" s="236"/>
-      <c r="K14" s="236"/>
-      <c r="L14" s="236"/>
-      <c r="M14" s="236"/>
-      <c r="N14" s="236"/>
-      <c r="O14" s="236"/>
-      <c r="P14" s="236"/>
-      <c r="Q14" s="236"/>
-      <c r="R14" s="236"/>
-      <c r="S14" s="236"/>
-      <c r="T14" s="236"/>
-      <c r="U14" s="236"/>
-      <c r="V14" s="236"/>
-      <c r="W14" s="236"/>
-      <c r="X14" s="236"/>
-      <c r="Y14" s="236"/>
-      <c r="Z14" s="236"/>
-      <c r="AA14" s="236"/>
-      <c r="AB14" s="236"/>
-      <c r="AC14" s="236"/>
-      <c r="AD14" s="236"/>
-      <c r="AE14" s="236"/>
-      <c r="AF14" s="236"/>
-      <c r="AG14" s="236"/>
+      <c r="B14" s="239"/>
+      <c r="C14" s="239"/>
+      <c r="D14" s="239"/>
+      <c r="E14" s="239"/>
+      <c r="F14" s="239"/>
+      <c r="G14" s="239"/>
+      <c r="H14" s="239"/>
+      <c r="I14" s="239"/>
+      <c r="J14" s="239"/>
+      <c r="K14" s="239"/>
+      <c r="L14" s="239"/>
+      <c r="M14" s="239"/>
+      <c r="N14" s="239"/>
+      <c r="O14" s="239"/>
+      <c r="P14" s="239"/>
+      <c r="Q14" s="239"/>
+      <c r="R14" s="239"/>
+      <c r="S14" s="239"/>
+      <c r="T14" s="239"/>
+      <c r="U14" s="239"/>
+      <c r="V14" s="239"/>
+      <c r="W14" s="239"/>
+      <c r="X14" s="239"/>
+      <c r="Y14" s="239"/>
+      <c r="Z14" s="239"/>
+      <c r="AA14" s="239"/>
+      <c r="AB14" s="239"/>
+      <c r="AC14" s="239"/>
+      <c r="AD14" s="239"/>
+      <c r="AE14" s="239"/>
+      <c r="AF14" s="239"/>
+      <c r="AG14" s="239"/>
     </row>
     <row r="15" spans="1:37" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A15" s="237" t="s">
+      <c r="A15" s="240" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="237"/>
-      <c r="C15" s="237"/>
-      <c r="D15" s="237"/>
-      <c r="E15" s="237"/>
-      <c r="F15" s="237"/>
-      <c r="G15" s="237"/>
-      <c r="H15" s="237"/>
-      <c r="I15" s="237"/>
-      <c r="J15" s="237"/>
-      <c r="K15" s="237"/>
-      <c r="L15" s="237"/>
-      <c r="M15" s="237"/>
-      <c r="N15" s="237"/>
-      <c r="O15" s="237"/>
-      <c r="P15" s="237"/>
-      <c r="Q15" s="237"/>
-      <c r="R15" s="237"/>
-      <c r="S15" s="237"/>
-      <c r="T15" s="237"/>
-      <c r="U15" s="237"/>
-      <c r="V15" s="237"/>
-      <c r="W15" s="237"/>
-      <c r="X15" s="237"/>
-      <c r="Y15" s="237"/>
-      <c r="Z15" s="237"/>
-      <c r="AA15" s="237"/>
-      <c r="AB15" s="237"/>
-      <c r="AC15" s="237"/>
-      <c r="AD15" s="237"/>
-      <c r="AE15" s="237"/>
-      <c r="AF15" s="237"/>
-      <c r="AG15" s="237"/>
+      <c r="B15" s="240"/>
+      <c r="C15" s="240"/>
+      <c r="D15" s="240"/>
+      <c r="E15" s="240"/>
+      <c r="F15" s="240"/>
+      <c r="G15" s="240"/>
+      <c r="H15" s="240"/>
+      <c r="I15" s="240"/>
+      <c r="J15" s="240"/>
+      <c r="K15" s="240"/>
+      <c r="L15" s="240"/>
+      <c r="M15" s="240"/>
+      <c r="N15" s="240"/>
+      <c r="O15" s="240"/>
+      <c r="P15" s="240"/>
+      <c r="Q15" s="240"/>
+      <c r="R15" s="240"/>
+      <c r="S15" s="240"/>
+      <c r="T15" s="240"/>
+      <c r="U15" s="240"/>
+      <c r="V15" s="240"/>
+      <c r="W15" s="240"/>
+      <c r="X15" s="240"/>
+      <c r="Y15" s="240"/>
+      <c r="Z15" s="240"/>
+      <c r="AA15" s="240"/>
+      <c r="AB15" s="240"/>
+      <c r="AC15" s="240"/>
+      <c r="AD15" s="240"/>
+      <c r="AE15" s="240"/>
+      <c r="AF15" s="240"/>
+      <c r="AG15" s="240"/>
     </row>
     <row r="16" spans="1:37" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A16" s="237" t="s">
+      <c r="A16" s="240" t="s">
         <v>20</v>
-      </c>
-      <c r="B16" s="237"/>
-      <c r="C16" s="237"/>
-      <c r="D16" s="237"/>
-      <c r="E16" s="237"/>
-      <c r="F16" s="237"/>
-      <c r="G16" s="237"/>
-      <c r="H16" s="237"/>
-      <c r="I16" s="237"/>
-      <c r="J16" s="237"/>
-      <c r="K16" s="237"/>
-      <c r="L16" s="237"/>
-      <c r="M16" s="237"/>
-      <c r="N16" s="237"/>
-      <c r="O16" s="237"/>
-      <c r="P16" s="237"/>
-      <c r="Q16" s="237"/>
-      <c r="R16" s="237"/>
-      <c r="S16" s="237"/>
-      <c r="T16" s="237"/>
-      <c r="U16" s="237"/>
-      <c r="V16" s="237"/>
-      <c r="W16" s="237"/>
-      <c r="X16" s="237"/>
-      <c r="Y16" s="237"/>
-      <c r="Z16" s="237"/>
-      <c r="AA16" s="237"/>
-      <c r="AB16" s="237"/>
-      <c r="AC16" s="237"/>
-      <c r="AD16" s="237"/>
-      <c r="AE16" s="237"/>
-      <c r="AF16" s="237"/>
-      <c r="AG16" s="237"/>
-    </row>
-    <row r="17" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A17" s="238"/>
-      <c r="B17" s="238"/>
-      <c r="C17" s="238"/>
-      <c r="D17" s="238"/>
-      <c r="E17" s="238"/>
-      <c r="F17" s="238"/>
-      <c r="G17" s="238"/>
-      <c r="H17" s="238"/>
-      <c r="I17" s="238"/>
-      <c r="J17" s="238"/>
-      <c r="K17" s="238"/>
-      <c r="L17" s="238"/>
-      <c r="M17" s="238"/>
-      <c r="N17" s="238"/>
-      <c r="O17" s="238"/>
-      <c r="P17" s="238"/>
-      <c r="Q17" s="238"/>
-      <c r="R17" s="238"/>
-      <c r="S17" s="238"/>
-      <c r="T17" s="238"/>
-      <c r="U17" s="238"/>
-      <c r="V17" s="238"/>
-      <c r="W17" s="238"/>
-      <c r="X17" s="238"/>
-      <c r="Y17" s="238"/>
-      <c r="Z17" s="238"/>
-      <c r="AA17" s="238"/>
-      <c r="AB17" s="238"/>
-      <c r="AC17" s="238"/>
-      <c r="AD17" s="238"/>
-      <c r="AE17" s="238"/>
-      <c r="AF17" s="238"/>
-      <c r="AG17" s="238"/>
-      <c r="AH17" s="25"/>
-      <c r="AI17" s="25"/>
-    </row>
-    <row r="18" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A18" s="239" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="239"/>
-      <c r="C18" s="239"/>
-      <c r="D18" s="239"/>
-      <c r="E18" s="239"/>
-      <c r="F18" s="239"/>
-      <c r="G18" s="239"/>
-      <c r="H18" s="239"/>
-      <c r="I18" s="239"/>
-      <c r="J18" s="239"/>
-      <c r="K18" s="239"/>
-      <c r="L18" s="239"/>
-      <c r="M18" s="239"/>
-      <c r="N18" s="239"/>
-      <c r="O18" s="239"/>
-      <c r="P18" s="239"/>
-      <c r="Q18" s="239"/>
-      <c r="R18" s="239"/>
-      <c r="S18" s="239"/>
-      <c r="T18" s="239"/>
-      <c r="U18" s="239"/>
-      <c r="V18" s="239"/>
-      <c r="W18" s="239"/>
-      <c r="X18" s="239"/>
-      <c r="Y18" s="239"/>
-      <c r="Z18" s="239"/>
-      <c r="AA18" s="239"/>
-      <c r="AB18" s="239"/>
-      <c r="AC18" s="239"/>
-      <c r="AD18" s="239"/>
-      <c r="AE18" s="239"/>
-      <c r="AF18" s="239"/>
-      <c r="AG18" s="239"/>
-    </row>
-    <row r="19" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A19" s="240" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="240"/>
-      <c r="C19" s="240"/>
-      <c r="D19" s="240"/>
-      <c r="E19" s="240"/>
-      <c r="F19" s="240"/>
-      <c r="G19" s="240"/>
-      <c r="H19" s="240"/>
-      <c r="I19" s="240"/>
-      <c r="J19" s="240"/>
-      <c r="K19" s="240"/>
-      <c r="L19" s="240"/>
-      <c r="M19" s="240"/>
-      <c r="N19" s="240"/>
-      <c r="O19" s="240"/>
-      <c r="P19" s="240"/>
-      <c r="Q19" s="240"/>
-      <c r="R19" s="240"/>
-      <c r="S19" s="240"/>
-      <c r="T19" s="240"/>
-      <c r="U19" s="240"/>
-      <c r="V19" s="240"/>
-      <c r="W19" s="240"/>
-      <c r="X19" s="240"/>
-      <c r="Y19" s="240"/>
-      <c r="Z19" s="240"/>
-      <c r="AA19" s="240"/>
-      <c r="AB19" s="240"/>
-      <c r="AC19" s="240"/>
-      <c r="AD19" s="240"/>
-      <c r="AE19" s="240"/>
-      <c r="AF19" s="240"/>
-      <c r="AG19" s="240"/>
-    </row>
-    <row r="20" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A20" s="231" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="231"/>
-      <c r="C20" s="231"/>
-      <c r="D20" s="231"/>
-      <c r="E20" s="231"/>
-      <c r="F20" s="231"/>
-      <c r="G20" s="231"/>
-      <c r="H20" s="231"/>
-      <c r="I20" s="231"/>
-      <c r="J20" s="231"/>
-      <c r="K20" s="231"/>
-      <c r="L20" s="231"/>
-      <c r="M20" s="231"/>
-      <c r="N20" s="231"/>
-      <c r="O20" s="231"/>
-      <c r="P20" s="231"/>
-      <c r="Q20" s="231"/>
-      <c r="R20" s="231"/>
-      <c r="S20" s="231"/>
-      <c r="T20" s="231"/>
-      <c r="U20" s="231"/>
-      <c r="V20" s="231"/>
-      <c r="W20" s="231"/>
-      <c r="X20" s="231"/>
-      <c r="Y20" s="231"/>
-      <c r="Z20" s="231"/>
-      <c r="AA20" s="231"/>
-      <c r="AB20" s="231"/>
-      <c r="AC20" s="231"/>
-      <c r="AD20" s="231"/>
-      <c r="AE20" s="231"/>
-      <c r="AF20" s="231"/>
-      <c r="AG20" s="231"/>
-    </row>
-    <row r="21" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A21" s="242" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="242"/>
-      <c r="C21" s="242"/>
-      <c r="D21" s="242"/>
-      <c r="E21" s="242"/>
-      <c r="F21" s="242"/>
-      <c r="G21" s="242"/>
-      <c r="H21" s="242"/>
-      <c r="I21" s="242"/>
-      <c r="J21" s="242"/>
-      <c r="K21" s="242"/>
-      <c r="L21" s="242"/>
-      <c r="M21" s="242"/>
-      <c r="N21" s="242"/>
-      <c r="O21" s="242"/>
-      <c r="P21" s="242"/>
-      <c r="Q21" s="242"/>
-      <c r="R21" s="242"/>
-      <c r="S21" s="242"/>
-      <c r="T21" s="242"/>
-      <c r="U21" s="242"/>
-      <c r="V21" s="242"/>
-      <c r="W21" s="242"/>
-      <c r="X21" s="242"/>
-      <c r="Y21" s="242"/>
-      <c r="Z21" s="242"/>
-      <c r="AA21" s="242"/>
-      <c r="AB21" s="242"/>
-      <c r="AC21" s="242"/>
-      <c r="AD21" s="242"/>
-      <c r="AE21" s="242"/>
-      <c r="AF21" s="242"/>
-      <c r="AG21" s="242"/>
-    </row>
-    <row r="22" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A22" s="241" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="241"/>
-      <c r="C22" s="241"/>
-      <c r="D22" s="241"/>
-      <c r="E22" s="241"/>
-      <c r="F22" s="241"/>
-      <c r="G22" s="241"/>
-      <c r="H22" s="241"/>
-      <c r="I22" s="241"/>
-      <c r="J22" s="241"/>
-      <c r="K22" s="241"/>
-      <c r="L22" s="241"/>
-      <c r="M22" s="241"/>
-      <c r="N22" s="241"/>
-      <c r="O22" s="241"/>
-      <c r="P22" s="241"/>
-      <c r="Q22" s="241"/>
-      <c r="R22" s="241"/>
-      <c r="S22" s="241"/>
-      <c r="T22" s="241"/>
-      <c r="U22" s="241"/>
-      <c r="V22" s="241"/>
-      <c r="W22" s="241"/>
-      <c r="X22" s="241"/>
-      <c r="Y22" s="241"/>
-      <c r="Z22" s="241"/>
-      <c r="AA22" s="241"/>
-      <c r="AB22" s="241"/>
-      <c r="AC22" s="241"/>
-      <c r="AD22" s="241"/>
-      <c r="AE22" s="241"/>
-      <c r="AF22" s="241"/>
-      <c r="AG22" s="241"/>
-    </row>
-    <row r="23" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A23" s="241" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="241"/>
-      <c r="C23" s="241"/>
-      <c r="D23" s="241"/>
-      <c r="E23" s="241"/>
-      <c r="F23" s="241"/>
-      <c r="G23" s="241"/>
-      <c r="H23" s="241"/>
-      <c r="I23" s="241"/>
-      <c r="J23" s="241"/>
-      <c r="K23" s="241"/>
-      <c r="L23" s="241"/>
-      <c r="M23" s="241"/>
-      <c r="N23" s="241"/>
-      <c r="O23" s="241"/>
-      <c r="P23" s="241"/>
-      <c r="Q23" s="241"/>
-      <c r="R23" s="241"/>
-      <c r="S23" s="241"/>
-      <c r="T23" s="241"/>
-      <c r="U23" s="241"/>
-      <c r="V23" s="241"/>
-      <c r="W23" s="241"/>
-      <c r="X23" s="241"/>
-      <c r="Y23" s="241"/>
-      <c r="Z23" s="241"/>
-      <c r="AA23" s="241"/>
-      <c r="AB23" s="241"/>
-      <c r="AC23" s="241"/>
-      <c r="AD23" s="241"/>
-      <c r="AE23" s="241"/>
-      <c r="AF23" s="241"/>
-      <c r="AG23" s="241"/>
-    </row>
-    <row r="24" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A24" s="240" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="240"/>
-      <c r="C24" s="240"/>
-      <c r="D24" s="240"/>
-      <c r="E24" s="240"/>
-      <c r="F24" s="240"/>
-      <c r="G24" s="240"/>
-      <c r="H24" s="240"/>
-      <c r="I24" s="240"/>
-      <c r="J24" s="240"/>
-      <c r="K24" s="240"/>
-      <c r="L24" s="240"/>
-      <c r="M24" s="240"/>
-      <c r="N24" s="240"/>
-      <c r="O24" s="240"/>
-      <c r="P24" s="240"/>
-      <c r="Q24" s="240"/>
-      <c r="R24" s="240"/>
-      <c r="S24" s="240"/>
-      <c r="T24" s="240"/>
-      <c r="U24" s="240"/>
-      <c r="V24" s="240"/>
-      <c r="W24" s="240"/>
-      <c r="X24" s="240"/>
-      <c r="Y24" s="240"/>
-      <c r="Z24" s="240"/>
-      <c r="AA24" s="240"/>
-      <c r="AB24" s="240"/>
-      <c r="AC24" s="240"/>
-      <c r="AD24" s="240"/>
-      <c r="AE24" s="240"/>
-      <c r="AF24" s="240"/>
-      <c r="AG24" s="240"/>
-    </row>
-    <row r="25" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A25" s="241" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="241"/>
-      <c r="C25" s="241"/>
-      <c r="D25" s="241"/>
-      <c r="E25" s="241"/>
-      <c r="F25" s="241"/>
-      <c r="G25" s="241"/>
-      <c r="H25" s="241"/>
-      <c r="I25" s="241"/>
-      <c r="J25" s="241"/>
-      <c r="K25" s="241"/>
-      <c r="L25" s="241"/>
-      <c r="M25" s="241"/>
-      <c r="N25" s="241"/>
-      <c r="O25" s="241"/>
-      <c r="P25" s="241"/>
-      <c r="Q25" s="241"/>
-      <c r="R25" s="241"/>
-      <c r="S25" s="241"/>
-      <c r="T25" s="241"/>
-      <c r="U25" s="241"/>
-      <c r="V25" s="241"/>
-      <c r="W25" s="241"/>
-      <c r="X25" s="241"/>
-      <c r="Y25" s="241"/>
-      <c r="Z25" s="241"/>
-      <c r="AA25" s="241"/>
-      <c r="AB25" s="241"/>
-      <c r="AC25" s="241"/>
-      <c r="AD25" s="241"/>
-      <c r="AE25" s="241"/>
-      <c r="AF25" s="241"/>
-      <c r="AG25" s="241"/>
-    </row>
-    <row r="26" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A26" s="241" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="241"/>
-      <c r="C26" s="241"/>
-      <c r="D26" s="241"/>
-      <c r="E26" s="241"/>
-      <c r="F26" s="241"/>
-      <c r="G26" s="241"/>
-      <c r="H26" s="241"/>
-      <c r="I26" s="241"/>
-      <c r="J26" s="241"/>
-      <c r="K26" s="241"/>
-      <c r="L26" s="241"/>
-      <c r="M26" s="241"/>
-      <c r="N26" s="241"/>
-      <c r="O26" s="241"/>
-      <c r="P26" s="241"/>
-      <c r="Q26" s="241"/>
-      <c r="R26" s="241"/>
-      <c r="S26" s="241"/>
-      <c r="T26" s="241"/>
-      <c r="U26" s="241"/>
-      <c r="V26" s="241"/>
-      <c r="W26" s="241"/>
-      <c r="X26" s="241"/>
-      <c r="Y26" s="241"/>
-      <c r="Z26" s="241"/>
-      <c r="AA26" s="241"/>
-      <c r="AB26" s="241"/>
-      <c r="AC26" s="241"/>
-      <c r="AD26" s="241"/>
-      <c r="AE26" s="241"/>
-      <c r="AF26" s="241"/>
-      <c r="AG26" s="241"/>
-    </row>
-    <row r="27" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A27" s="241" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="241"/>
-      <c r="C27" s="241"/>
-      <c r="D27" s="241"/>
-      <c r="E27" s="241"/>
-      <c r="F27" s="241"/>
-      <c r="G27" s="241"/>
-      <c r="H27" s="241"/>
-      <c r="I27" s="241"/>
-      <c r="J27" s="241"/>
-      <c r="K27" s="241"/>
-      <c r="L27" s="241"/>
-      <c r="M27" s="241"/>
-      <c r="N27" s="241"/>
-      <c r="O27" s="241"/>
-      <c r="P27" s="241"/>
-      <c r="Q27" s="241"/>
-      <c r="R27" s="241"/>
-      <c r="S27" s="241"/>
-      <c r="T27" s="241"/>
-      <c r="U27" s="241"/>
-      <c r="V27" s="241"/>
-      <c r="W27" s="241"/>
-      <c r="X27" s="241"/>
-      <c r="Y27" s="241"/>
-      <c r="Z27" s="241"/>
-      <c r="AA27" s="241"/>
-      <c r="AB27" s="241"/>
-      <c r="AC27" s="241"/>
-      <c r="AD27" s="241"/>
-      <c r="AE27" s="241"/>
-      <c r="AF27" s="241"/>
-      <c r="AG27" s="241"/>
-    </row>
-    <row r="28" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A28" s="241" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="241"/>
-      <c r="C28" s="241"/>
-      <c r="D28" s="241"/>
-      <c r="E28" s="241"/>
-      <c r="F28" s="241"/>
-      <c r="G28" s="241"/>
-      <c r="H28" s="241"/>
-      <c r="I28" s="241"/>
-      <c r="J28" s="241"/>
-      <c r="K28" s="241"/>
-      <c r="L28" s="241"/>
-      <c r="M28" s="241"/>
-      <c r="N28" s="241"/>
-      <c r="O28" s="241"/>
-      <c r="P28" s="241"/>
-      <c r="Q28" s="241"/>
-      <c r="R28" s="241"/>
-      <c r="S28" s="241"/>
-      <c r="T28" s="241"/>
-      <c r="U28" s="241"/>
-      <c r="V28" s="241"/>
-      <c r="W28" s="241"/>
-      <c r="X28" s="241"/>
-      <c r="Y28" s="241"/>
-      <c r="Z28" s="241"/>
-      <c r="AA28" s="241"/>
-      <c r="AB28" s="241"/>
-      <c r="AC28" s="241"/>
-      <c r="AD28" s="241"/>
-      <c r="AE28" s="241"/>
-      <c r="AF28" s="241"/>
-      <c r="AG28" s="241"/>
-    </row>
-    <row r="29" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A29" s="240" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="240"/>
-      <c r="C29" s="240"/>
-      <c r="D29" s="240"/>
-      <c r="E29" s="240"/>
-      <c r="F29" s="240"/>
-      <c r="G29" s="240"/>
-      <c r="H29" s="240"/>
-      <c r="I29" s="240"/>
-      <c r="J29" s="240"/>
-      <c r="K29" s="240"/>
-      <c r="L29" s="240"/>
-      <c r="M29" s="240"/>
-      <c r="N29" s="240"/>
-      <c r="O29" s="240"/>
-      <c r="P29" s="240"/>
-      <c r="Q29" s="240"/>
-      <c r="R29" s="240"/>
-      <c r="S29" s="240"/>
-      <c r="T29" s="240"/>
-      <c r="U29" s="240"/>
-      <c r="V29" s="240"/>
-      <c r="W29" s="240"/>
-      <c r="X29" s="240"/>
-      <c r="Y29" s="240"/>
-      <c r="Z29" s="240"/>
-      <c r="AA29" s="240"/>
-      <c r="AB29" s="240"/>
-      <c r="AC29" s="240"/>
-      <c r="AD29" s="240"/>
-      <c r="AE29" s="240"/>
-      <c r="AF29" s="240"/>
-      <c r="AG29" s="240"/>
-    </row>
-    <row r="30" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A30" s="241" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="241"/>
-      <c r="C30" s="241"/>
-      <c r="D30" s="241"/>
-      <c r="E30" s="241"/>
-      <c r="F30" s="241"/>
-      <c r="G30" s="241"/>
-      <c r="H30" s="241"/>
-      <c r="I30" s="241"/>
-      <c r="J30" s="241"/>
-      <c r="K30" s="241"/>
-      <c r="L30" s="241"/>
-      <c r="M30" s="241"/>
-      <c r="N30" s="241"/>
-      <c r="O30" s="241"/>
-      <c r="P30" s="241"/>
-      <c r="Q30" s="241"/>
-      <c r="R30" s="241"/>
-      <c r="S30" s="241"/>
-      <c r="T30" s="241"/>
-      <c r="U30" s="241"/>
-      <c r="V30" s="241"/>
-      <c r="W30" s="241"/>
-      <c r="X30" s="241"/>
-      <c r="Y30" s="241"/>
-      <c r="Z30" s="241"/>
-      <c r="AA30" s="241"/>
-      <c r="AB30" s="241"/>
-      <c r="AC30" s="241"/>
-      <c r="AD30" s="241"/>
-      <c r="AE30" s="241"/>
-      <c r="AF30" s="241"/>
-      <c r="AG30" s="241"/>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="N31" s="26"/>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="28"/>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="30"/>
-      <c r="AA33" s="29"/>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="28"/>
-      <c r="AA34" s="28"/>
-    </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="30"/>
-      <c r="AA36" s="30"/>
-    </row>
-  </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A27:AG27"/>
-    <mergeCell ref="A28:AG28"/>
-    <mergeCell ref="A29:AG29"/>
-    <mergeCell ref="A30:AG30"/>
-    <mergeCell ref="A21:AG21"/>
-    <mergeCell ref="A22:AG22"/>
-    <mergeCell ref="A23:AG23"/>
-    <mergeCell ref="A24:AG24"/>
-    <mergeCell ref="A25:AG25"/>
-    <mergeCell ref="A26:AG26"/>
-    <mergeCell ref="A20:AG20"/>
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="A10:AG10"/>
-    <mergeCell ref="A11:AG11"/>
-    <mergeCell ref="A12:AG12"/>
-    <mergeCell ref="A13:AG13"/>
-    <mergeCell ref="A14:AG14"/>
-    <mergeCell ref="A15:AG15"/>
-    <mergeCell ref="A16:AG16"/>
-    <mergeCell ref="A17:AG17"/>
-    <mergeCell ref="A18:AG18"/>
-    <mergeCell ref="A19:AG19"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A434B60-83C1-4A6D-BC82-D6A36637EAE4}">
-  <dimension ref="A1:AL35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="32.7109375" style="26" customWidth="1"/>
-    <col min="2" max="30" width="6.7109375" style="26" customWidth="1"/>
-    <col min="31" max="36" width="9.7109375" style="26" customWidth="1"/>
-    <col min="37" max="38" width="6.7109375" style="26" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="26"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="243" t="s">
-        <v>255</v>
-      </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="243"/>
-      <c r="H1" s="243"/>
-      <c r="I1" s="243"/>
-      <c r="J1" s="243"/>
-      <c r="K1" s="243"/>
-      <c r="L1" s="243"/>
-      <c r="M1" s="243"/>
-      <c r="N1" s="243"/>
-      <c r="O1" s="243"/>
-      <c r="P1" s="243"/>
-      <c r="Q1" s="243"/>
-      <c r="R1" s="243"/>
-      <c r="S1" s="243"/>
-      <c r="T1" s="243"/>
-      <c r="U1" s="243"/>
-      <c r="V1" s="243"/>
-      <c r="W1" s="243"/>
-      <c r="X1" s="243"/>
-      <c r="Y1" s="243"/>
-      <c r="Z1" s="243"/>
-      <c r="AA1" s="243"/>
-      <c r="AB1" s="243"/>
-      <c r="AC1" s="243"/>
-      <c r="AD1" s="243"/>
-      <c r="AE1" s="243"/>
-      <c r="AF1" s="243"/>
-      <c r="AG1" s="243"/>
-      <c r="AH1" s="243"/>
-      <c r="AI1" s="243"/>
-      <c r="AJ1" s="243"/>
-      <c r="AK1" s="243"/>
-      <c r="AL1" s="243"/>
-    </row>
-    <row r="2" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="189"/>
-      <c r="B2" s="5">
-        <v>1960</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1965</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1970</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1975</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1980</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1985</v>
-      </c>
-      <c r="H2" s="5">
-        <v>1990</v>
-      </c>
-      <c r="I2" s="5">
-        <v>1991</v>
-      </c>
-      <c r="J2" s="5">
-        <v>1992</v>
-      </c>
-      <c r="K2" s="5">
-        <v>1993</v>
-      </c>
-      <c r="L2" s="5">
-        <v>1994</v>
-      </c>
-      <c r="M2" s="5">
-        <v>1995</v>
-      </c>
-      <c r="N2" s="5">
-        <v>1996</v>
-      </c>
-      <c r="O2" s="5">
-        <v>1997</v>
-      </c>
-      <c r="P2" s="5">
-        <v>1998</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>1999</v>
-      </c>
-      <c r="R2" s="5">
-        <v>2000</v>
-      </c>
-      <c r="S2" s="5">
-        <v>2001</v>
-      </c>
-      <c r="T2" s="5">
-        <v>2002</v>
-      </c>
-      <c r="U2" s="5">
-        <v>2003</v>
-      </c>
-      <c r="V2" s="5">
-        <v>2004</v>
-      </c>
-      <c r="W2" s="5">
-        <v>2005</v>
-      </c>
-      <c r="X2" s="5">
-        <v>2006</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>2007</v>
-      </c>
-      <c r="Z2" s="5">
-        <v>2008</v>
-      </c>
-      <c r="AA2" s="5">
-        <v>2009</v>
-      </c>
-      <c r="AB2" s="5">
-        <v>2010</v>
-      </c>
-      <c r="AC2" s="5">
-        <v>2011</v>
-      </c>
-      <c r="AD2" s="5">
-        <v>2012</v>
-      </c>
-      <c r="AE2" s="5">
-        <v>2013</v>
-      </c>
-      <c r="AF2" s="5">
-        <v>2014</v>
-      </c>
-      <c r="AG2" s="5">
-        <v>2015</v>
-      </c>
-      <c r="AH2" s="5">
-        <v>2016</v>
-      </c>
-      <c r="AI2" s="5">
-        <v>2017</v>
-      </c>
-      <c r="AJ2" s="5">
-        <v>2018</v>
-      </c>
-      <c r="AK2" s="5">
-        <v>2019</v>
-      </c>
-      <c r="AL2" s="5">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="190" t="s">
-        <v>256</v>
-      </c>
-      <c r="B3" s="191">
-        <v>33.01</v>
-      </c>
-      <c r="C3" s="191">
-        <v>34.130000000000003</v>
-      </c>
-      <c r="D3" s="191">
-        <v>40.65</v>
-      </c>
-      <c r="E3" s="191">
-        <v>53.64</v>
-      </c>
-      <c r="F3" s="191">
-        <v>84.6</v>
-      </c>
-      <c r="G3" s="191">
-        <v>92.53</v>
-      </c>
-      <c r="H3" s="191">
-        <v>107.95605383345789</v>
-      </c>
-      <c r="I3" s="191">
-        <v>106.82359925320584</v>
-      </c>
-      <c r="J3" s="191">
-        <v>103.96695716885564</v>
-      </c>
-      <c r="K3" s="191">
-        <v>110.30216410489288</v>
-      </c>
-      <c r="L3" s="191">
-        <v>103.71187200788872</v>
-      </c>
-      <c r="M3" s="191">
-        <v>292.18857508501458</v>
-      </c>
-      <c r="N3" s="191">
-        <v>276.6279861413596</v>
-      </c>
-      <c r="O3" s="191">
-        <v>287.22154413532138</v>
-      </c>
-      <c r="P3" s="191">
-        <v>309.17037540393335</v>
-      </c>
-      <c r="Q3" s="191">
-        <v>323.82594729367332</v>
-      </c>
-      <c r="R3" s="191">
-        <v>338.99637086858655</v>
-      </c>
-      <c r="S3" s="191">
-        <v>320.62432456238798</v>
-      </c>
-      <c r="T3" s="191">
-        <v>312.32934290453386</v>
-      </c>
-      <c r="U3" s="191">
-        <v>315.35521442000174</v>
-      </c>
-      <c r="V3" s="191">
-        <v>305.40959352583474</v>
-      </c>
-      <c r="W3" s="191">
-        <v>307.31062697583019</v>
-      </c>
-      <c r="X3" s="191">
-        <v>328.54794374827924</v>
-      </c>
-      <c r="Y3" s="191">
-        <v>325.26065137526251</v>
-      </c>
-      <c r="Z3" s="191">
-        <v>346.37773634629673</v>
-      </c>
-      <c r="AA3" s="191">
-        <v>310.34502019698289</v>
-      </c>
-      <c r="AB3" s="191">
-        <v>336.08909441198415</v>
-      </c>
-      <c r="AC3" s="191">
-        <v>363.85119844189529</v>
-      </c>
-      <c r="AD3" s="191">
-        <v>374.76958179972269</v>
-      </c>
-      <c r="AE3" s="192">
-        <v>382.00308300027064</v>
-      </c>
-      <c r="AF3" s="192">
-        <v>391.70146694796955</v>
-      </c>
-      <c r="AG3" s="192">
-        <v>376.95078761698812</v>
-      </c>
-      <c r="AH3" s="192">
-        <v>349.14614920276199</v>
-      </c>
-      <c r="AI3" s="192">
-        <v>347.62638485790745</v>
-      </c>
-      <c r="AJ3" s="192">
-        <v>349.6248953264697</v>
-      </c>
-      <c r="AK3" s="191">
-        <v>354.83334016198</v>
-      </c>
-      <c r="AL3" s="191">
-        <v>292.36611721851324</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="190" t="s">
-        <v>257</v>
-      </c>
-      <c r="B4" s="193">
-        <v>2.46</v>
-      </c>
-      <c r="C4" s="193">
-        <v>2.73</v>
-      </c>
-      <c r="D4" s="193">
-        <v>3.81</v>
-      </c>
-      <c r="E4" s="193">
-        <v>5.46</v>
-      </c>
-      <c r="F4" s="193">
-        <v>10.57</v>
-      </c>
-      <c r="G4" s="193">
-        <v>11.98</v>
-      </c>
-      <c r="H4" s="193">
-        <v>20.22</v>
-      </c>
-      <c r="I4" s="193">
-        <v>21.86</v>
-      </c>
-      <c r="J4" s="193">
-        <v>21.15</v>
-      </c>
-      <c r="K4" s="193">
-        <v>21.32</v>
-      </c>
-      <c r="L4" s="193">
-        <v>19.77</v>
-      </c>
-      <c r="M4" s="193">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="N4" s="193">
-        <v>22.85</v>
-      </c>
-      <c r="O4" s="193">
-        <v>20.83</v>
-      </c>
-      <c r="P4" s="193">
-        <v>23.14</v>
-      </c>
-      <c r="Q4" s="193">
-        <v>26.16</v>
-      </c>
-      <c r="R4" s="193">
-        <v>29.458089000000001</v>
-      </c>
-      <c r="S4" s="193">
-        <v>30.268799999999999</v>
-      </c>
-      <c r="T4" s="193">
-        <v>30.1114</v>
-      </c>
-      <c r="U4" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="V4" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="W4" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="X4" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y4" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z4" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA4" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB4" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC4" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD4" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE4" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF4" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG4" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH4" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI4" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ4" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK4" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL4" s="193" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" ht="18" x14ac:dyDescent="0.3">
-      <c r="A5" s="190" t="s">
-        <v>258</v>
-      </c>
-      <c r="B5" s="193">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C5" s="193">
-        <v>0.16</v>
-      </c>
-      <c r="D5" s="193">
-        <v>0.22</v>
-      </c>
-      <c r="E5" s="193">
-        <v>0.27</v>
-      </c>
-      <c r="F5" s="193">
-        <v>0.3</v>
-      </c>
-      <c r="G5" s="193">
-        <v>0.53</v>
-      </c>
-      <c r="H5" s="193">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="I5" s="193">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="J5" s="193">
-        <v>0.72399999999999998</v>
-      </c>
-      <c r="K5" s="193">
-        <v>0.77300000000000002</v>
-      </c>
-      <c r="L5" s="193">
-        <v>0.85</v>
-      </c>
-      <c r="M5" s="193">
-        <v>0.88</v>
-      </c>
-      <c r="N5" s="193">
-        <v>0.93300000000000005</v>
-      </c>
-      <c r="O5" s="193">
-        <v>0.9</v>
-      </c>
-      <c r="P5" s="193">
-        <v>0.91</v>
-      </c>
-      <c r="Q5" s="193">
-        <v>0.9</v>
-      </c>
-      <c r="R5" s="193">
-        <v>0.93</v>
-      </c>
-      <c r="S5" s="193">
-        <v>0.92</v>
-      </c>
-      <c r="T5" s="193">
-        <v>0.93105492300110437</v>
-      </c>
-      <c r="U5" s="193">
-        <v>0.88134169907849358</v>
-      </c>
-      <c r="V5" s="193">
-        <v>1.0305121850001198</v>
-      </c>
-      <c r="W5" s="193">
-        <v>1.0478628209221583</v>
-      </c>
-      <c r="X5" s="193">
-        <v>1.2684974308327119</v>
-      </c>
-      <c r="Y5" s="193">
-        <v>1.0703264089454896</v>
-      </c>
-      <c r="Z5" s="193">
-        <v>1.1148894548651185</v>
-      </c>
-      <c r="AA5" s="193">
-        <v>1.1708832763949892</v>
-      </c>
-      <c r="AB5" s="193">
-        <v>1.2230470662195179</v>
-      </c>
-      <c r="AC5" s="193">
-        <v>1.3088691548436273</v>
-      </c>
-      <c r="AD5" s="193">
-        <v>1.3267645915434336</v>
-      </c>
-      <c r="AE5" s="193">
-        <v>1.4032474008300455</v>
-      </c>
-      <c r="AF5" s="193">
-        <v>1.4324953485868275</v>
-      </c>
-      <c r="AG5" s="193">
-        <v>1.4905354091049987</v>
-      </c>
-      <c r="AH5" s="193">
-        <v>1.5221571653450272</v>
-      </c>
-      <c r="AI5" s="193">
-        <v>1.5733096607655503</v>
-      </c>
-      <c r="AJ5" s="193">
-        <v>1.6105285886734684</v>
-      </c>
-      <c r="AK5" s="193">
-        <v>1.6257686952473935</v>
-      </c>
-      <c r="AL5" s="193" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="190" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="193">
-        <v>0.64</v>
-      </c>
-      <c r="C6" s="193">
-        <v>0.71</v>
-      </c>
-      <c r="D6" s="193">
-        <v>0.84</v>
-      </c>
-      <c r="E6" s="193">
-        <v>1.04</v>
-      </c>
-      <c r="F6" s="193">
-        <v>1.41</v>
-      </c>
-      <c r="G6" s="193">
-        <v>2.85</v>
-      </c>
-      <c r="H6" s="193">
-        <v>2.9</v>
-      </c>
-      <c r="I6" s="193">
-        <v>3.01</v>
-      </c>
-      <c r="J6" s="193">
-        <v>3.09</v>
-      </c>
-      <c r="K6" s="193">
-        <v>3.09</v>
-      </c>
-      <c r="L6" s="193">
-        <v>3.19</v>
-      </c>
-      <c r="M6" s="193">
-        <v>3.13</v>
-      </c>
-      <c r="N6" s="193">
-        <v>3.25</v>
-      </c>
-      <c r="O6" s="193">
-        <v>3.3</v>
-      </c>
-      <c r="P6" s="193">
-        <v>3.29</v>
-      </c>
-      <c r="Q6" s="193">
-        <v>3.3</v>
-      </c>
-      <c r="R6" s="193">
-        <v>3.33</v>
-      </c>
-      <c r="S6" s="193">
-        <v>3.43</v>
-      </c>
-      <c r="T6" s="193">
-        <v>3.4981570590620956</v>
-      </c>
-      <c r="U6" s="193">
-        <v>3.6212347491388974</v>
-      </c>
-      <c r="V6" s="193">
-        <v>3.9039090811770136</v>
-      </c>
-      <c r="W6" s="193">
-        <v>4.0882556808472987</v>
-      </c>
-      <c r="X6" s="193">
-        <v>4.2213727365578846</v>
-      </c>
-      <c r="Y6" s="193">
-        <v>4.3258640600896179</v>
-      </c>
-      <c r="Z6" s="193">
-        <v>4.5845720074559528</v>
-      </c>
-      <c r="AA6" s="193">
-        <v>4.690782584808594</v>
-      </c>
-      <c r="AB6" s="193">
-        <v>4.8536695209141634</v>
-      </c>
-      <c r="AC6" s="193">
-        <v>5.2769125478220937</v>
-      </c>
-      <c r="AD6" s="193">
-        <v>5.4378591402608825</v>
-      </c>
-      <c r="AE6" s="193">
-        <v>5.6473032107099552</v>
-      </c>
-      <c r="AF6" s="193">
-        <v>5.8403652256674254</v>
-      </c>
-      <c r="AG6" s="193">
-        <v>6.0808897992884008</v>
-      </c>
-      <c r="AH6" s="193">
-        <v>6.2056060036136858</v>
-      </c>
-      <c r="AI6" s="193">
-        <v>6.4299484917367282</v>
-      </c>
-      <c r="AJ6" s="193">
-        <v>6.464293683918191</v>
-      </c>
-      <c r="AK6" s="193">
-        <v>6.5317722647971062</v>
-      </c>
-      <c r="AL6" s="193" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="194" t="s">
-        <v>259</v>
-      </c>
-      <c r="B7" s="195">
-        <v>4.22</v>
-      </c>
-      <c r="C7" s="195">
-        <v>3.92</v>
-      </c>
-      <c r="D7" s="195">
-        <v>3.19</v>
-      </c>
-      <c r="E7" s="195">
-        <v>12.96</v>
-      </c>
-      <c r="F7" s="195">
-        <v>17.72</v>
-      </c>
-      <c r="G7" s="195">
-        <v>26.153846153846153</v>
-      </c>
-      <c r="H7" s="195">
-        <v>39.590000000000003</v>
-      </c>
-      <c r="I7" s="195">
-        <v>41.19</v>
-      </c>
-      <c r="J7" s="195">
-        <v>40.78</v>
-      </c>
-      <c r="K7" s="195">
-        <v>40.11</v>
-      </c>
-      <c r="L7" s="195">
-        <v>39.1</v>
-      </c>
-      <c r="M7" s="195">
-        <v>39.92</v>
-      </c>
-      <c r="N7" s="195">
-        <v>43.31</v>
-      </c>
-      <c r="O7" s="195">
-        <v>45.26</v>
-      </c>
-      <c r="P7" s="195">
-        <v>44.75</v>
-      </c>
-      <c r="Q7" s="195">
-        <v>46.853099999999998</v>
-      </c>
-      <c r="R7" s="195">
-        <v>52.148904810459555</v>
-      </c>
-      <c r="S7" s="195">
-        <v>54.224515253465214</v>
-      </c>
-      <c r="T7" s="195">
-        <v>59.070718416230001</v>
-      </c>
-      <c r="U7" s="195">
-        <v>53.902265328985841</v>
-      </c>
-      <c r="V7" s="195">
-        <v>53.286809558934664</v>
-      </c>
-      <c r="W7" s="195">
-        <v>51.566228901880351</v>
-      </c>
-      <c r="X7" s="195">
-        <v>56.414770622329854</v>
-      </c>
-      <c r="Y7" s="195">
-        <v>58.772734734315627</v>
-      </c>
-      <c r="Z7" s="195">
-        <v>60.388795018819728</v>
-      </c>
-      <c r="AA7" s="195">
-        <v>58.87538100433121</v>
-      </c>
-      <c r="AB7" s="195">
-        <v>60.695748632937097</v>
-      </c>
-      <c r="AC7" s="195">
-        <v>62.665934302993307</v>
-      </c>
-      <c r="AD7" s="195">
-        <v>64.659674080798482</v>
-      </c>
-      <c r="AE7" s="195">
-        <v>68.222700251126682</v>
-      </c>
-      <c r="AF7" s="195">
-        <v>70.7815223266674</v>
-      </c>
-      <c r="AG7" s="195">
-        <v>70.770276330365689</v>
-      </c>
-      <c r="AH7" s="195">
-        <v>68.300996329313065</v>
-      </c>
-      <c r="AI7" s="195">
-        <v>68.711934791718519</v>
-      </c>
-      <c r="AJ7" s="195">
-        <v>69.58693006627027</v>
-      </c>
-      <c r="AK7" s="195">
-        <v>71.471848492798159</v>
-      </c>
-      <c r="AL7" s="195">
-        <v>70.772026078592035</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A8" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="B8" s="244"/>
-      <c r="C8" s="244"/>
-      <c r="D8" s="244"/>
-      <c r="E8" s="244"/>
-      <c r="F8" s="244"/>
-      <c r="G8" s="244"/>
-      <c r="H8" s="244"/>
-      <c r="I8" s="244"/>
-      <c r="J8" s="244"/>
-      <c r="K8" s="244"/>
-      <c r="L8" s="244"/>
-      <c r="M8" s="244"/>
-      <c r="N8" s="244"/>
-      <c r="O8" s="244"/>
-      <c r="P8" s="244"/>
-      <c r="Q8" s="244"/>
-      <c r="R8" s="244"/>
-      <c r="S8" s="244"/>
-      <c r="T8" s="244"/>
-      <c r="U8" s="244"/>
-      <c r="V8" s="244"/>
-      <c r="W8" s="244"/>
-      <c r="X8" s="244"/>
-      <c r="Y8" s="244"/>
-      <c r="Z8" s="244"/>
-      <c r="AA8" s="244"/>
-      <c r="AB8" s="244"/>
-      <c r="AC8" s="244"/>
-      <c r="AD8" s="244"/>
-      <c r="AE8" s="244"/>
-      <c r="AF8" s="244"/>
-      <c r="AG8" s="24"/>
-      <c r="AH8" s="24"/>
-      <c r="AI8" s="24"/>
-      <c r="AJ8" s="24"/>
-      <c r="AK8" s="24"/>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A9" s="245"/>
-      <c r="B9" s="245"/>
-      <c r="C9" s="245"/>
-      <c r="D9" s="245"/>
-      <c r="E9" s="245"/>
-      <c r="F9" s="245"/>
-      <c r="G9" s="245"/>
-      <c r="H9" s="245"/>
-      <c r="I9" s="245"/>
-      <c r="J9" s="245"/>
-      <c r="K9" s="245"/>
-      <c r="L9" s="245"/>
-      <c r="M9" s="245"/>
-      <c r="N9" s="245"/>
-      <c r="O9" s="245"/>
-      <c r="P9" s="245"/>
-      <c r="Q9" s="245"/>
-      <c r="R9" s="245"/>
-      <c r="S9" s="245"/>
-      <c r="T9" s="245"/>
-      <c r="U9" s="245"/>
-      <c r="V9" s="245"/>
-      <c r="W9" s="245"/>
-      <c r="X9" s="245"/>
-      <c r="Y9" s="245"/>
-      <c r="Z9" s="245"/>
-      <c r="AA9" s="245"/>
-      <c r="AB9" s="245"/>
-      <c r="AC9" s="245"/>
-      <c r="AD9" s="245"/>
-      <c r="AE9" s="245"/>
-      <c r="AF9" s="245"/>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="24"/>
-      <c r="AI9" s="24"/>
-      <c r="AJ9" s="24"/>
-      <c r="AK9" s="24"/>
-    </row>
-    <row r="10" spans="1:38" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="246" t="s">
-        <v>261</v>
-      </c>
-      <c r="B10" s="246"/>
-      <c r="C10" s="246"/>
-      <c r="D10" s="246"/>
-      <c r="E10" s="246"/>
-      <c r="F10" s="246"/>
-      <c r="G10" s="246"/>
-      <c r="H10" s="246"/>
-      <c r="I10" s="246"/>
-      <c r="J10" s="246"/>
-      <c r="K10" s="246"/>
-      <c r="L10" s="246"/>
-      <c r="M10" s="246"/>
-      <c r="N10" s="246"/>
-      <c r="O10" s="246"/>
-      <c r="P10" s="246"/>
-      <c r="Q10" s="246"/>
-      <c r="R10" s="246"/>
-      <c r="S10" s="246"/>
-      <c r="T10" s="246"/>
-      <c r="U10" s="246"/>
-      <c r="V10" s="246"/>
-      <c r="W10" s="246"/>
-      <c r="X10" s="246"/>
-      <c r="Y10" s="246"/>
-      <c r="Z10" s="246"/>
-      <c r="AA10" s="246"/>
-      <c r="AB10" s="246"/>
-      <c r="AC10" s="246"/>
-      <c r="AD10" s="246"/>
-      <c r="AE10" s="246"/>
-      <c r="AF10" s="246"/>
-      <c r="AG10" s="24"/>
-      <c r="AH10" s="24"/>
-      <c r="AI10" s="24"/>
-      <c r="AJ10" s="24"/>
-      <c r="AK10" s="24"/>
-    </row>
-    <row r="11" spans="1:38" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="246" t="s">
-        <v>262</v>
-      </c>
-      <c r="B11" s="246"/>
-      <c r="C11" s="246"/>
-      <c r="D11" s="246"/>
-      <c r="E11" s="246"/>
-      <c r="F11" s="246"/>
-      <c r="G11" s="246"/>
-      <c r="H11" s="246"/>
-      <c r="I11" s="246"/>
-      <c r="J11" s="246"/>
-      <c r="K11" s="246"/>
-      <c r="L11" s="246"/>
-      <c r="M11" s="246"/>
-      <c r="N11" s="246"/>
-      <c r="O11" s="246"/>
-      <c r="P11" s="246"/>
-      <c r="Q11" s="246"/>
-      <c r="R11" s="246"/>
-      <c r="S11" s="246"/>
-      <c r="T11" s="246"/>
-      <c r="U11" s="246"/>
-      <c r="V11" s="246"/>
-      <c r="W11" s="246"/>
-      <c r="X11" s="246"/>
-      <c r="Y11" s="246"/>
-      <c r="Z11" s="246"/>
-      <c r="AA11" s="246"/>
-      <c r="AB11" s="246"/>
-      <c r="AC11" s="246"/>
-      <c r="AD11" s="246"/>
-      <c r="AE11" s="246"/>
-      <c r="AF11" s="246"/>
-      <c r="AG11" s="24"/>
-      <c r="AH11" s="24"/>
-      <c r="AI11" s="24"/>
-      <c r="AJ11" s="24"/>
-      <c r="AK11" s="24"/>
-    </row>
-    <row r="12" spans="1:38" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="246" t="s">
-        <v>263</v>
-      </c>
-      <c r="B12" s="246"/>
-      <c r="C12" s="246"/>
-      <c r="D12" s="246"/>
-      <c r="E12" s="246"/>
-      <c r="F12" s="246"/>
-      <c r="G12" s="246"/>
-      <c r="H12" s="246"/>
-      <c r="I12" s="246"/>
-      <c r="J12" s="246"/>
-      <c r="K12" s="246"/>
-      <c r="L12" s="246"/>
-      <c r="M12" s="246"/>
-      <c r="N12" s="246"/>
-      <c r="O12" s="246"/>
-      <c r="P12" s="246"/>
-      <c r="Q12" s="246"/>
-      <c r="R12" s="246"/>
-      <c r="S12" s="246"/>
-      <c r="T12" s="246"/>
-      <c r="U12" s="246"/>
-      <c r="V12" s="246"/>
-      <c r="W12" s="246"/>
-      <c r="X12" s="246"/>
-      <c r="Y12" s="246"/>
-      <c r="Z12" s="246"/>
-      <c r="AA12" s="246"/>
-      <c r="AB12" s="246"/>
-      <c r="AC12" s="246"/>
-      <c r="AD12" s="246"/>
-      <c r="AE12" s="246"/>
-      <c r="AF12" s="246"/>
-      <c r="AG12" s="24"/>
-      <c r="AH12" s="24"/>
-      <c r="AI12" s="24"/>
-      <c r="AJ12" s="24"/>
-      <c r="AK12" s="24"/>
-    </row>
-    <row r="13" spans="1:38" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="246" t="s">
-        <v>264</v>
-      </c>
-      <c r="B13" s="246"/>
-      <c r="C13" s="246"/>
-      <c r="D13" s="246"/>
-      <c r="E13" s="246"/>
-      <c r="F13" s="246"/>
-      <c r="G13" s="246"/>
-      <c r="H13" s="246"/>
-      <c r="I13" s="246"/>
-      <c r="J13" s="246"/>
-      <c r="K13" s="246"/>
-      <c r="L13" s="246"/>
-      <c r="M13" s="246"/>
-      <c r="N13" s="246"/>
-      <c r="O13" s="246"/>
-      <c r="P13" s="246"/>
-      <c r="Q13" s="246"/>
-      <c r="R13" s="246"/>
-      <c r="S13" s="246"/>
-      <c r="T13" s="246"/>
-      <c r="U13" s="246"/>
-      <c r="V13" s="246"/>
-      <c r="W13" s="246"/>
-      <c r="X13" s="246"/>
-      <c r="Y13" s="246"/>
-      <c r="Z13" s="246"/>
-      <c r="AA13" s="246"/>
-      <c r="AB13" s="246"/>
-      <c r="AC13" s="246"/>
-      <c r="AD13" s="246"/>
-      <c r="AE13" s="246"/>
-      <c r="AF13" s="246"/>
-      <c r="AG13" s="24"/>
-      <c r="AH13" s="24"/>
-      <c r="AI13" s="24"/>
-      <c r="AJ13" s="24"/>
-      <c r="AK13" s="24"/>
-    </row>
-    <row r="14" spans="1:38" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="246"/>
-      <c r="B14" s="246"/>
-      <c r="C14" s="246"/>
-      <c r="D14" s="246"/>
-      <c r="E14" s="246"/>
-      <c r="F14" s="246"/>
-      <c r="G14" s="246"/>
-      <c r="H14" s="246"/>
-      <c r="I14" s="246"/>
-      <c r="J14" s="246"/>
-      <c r="K14" s="246"/>
-      <c r="L14" s="246"/>
-      <c r="M14" s="246"/>
-      <c r="N14" s="246"/>
-      <c r="O14" s="246"/>
-      <c r="P14" s="246"/>
-      <c r="Q14" s="246"/>
-      <c r="R14" s="246"/>
-      <c r="S14" s="246"/>
-      <c r="T14" s="246"/>
-      <c r="U14" s="246"/>
-      <c r="V14" s="246"/>
-      <c r="W14" s="246"/>
-      <c r="X14" s="246"/>
-      <c r="Y14" s="246"/>
-      <c r="Z14" s="246"/>
-      <c r="AA14" s="246"/>
-      <c r="AB14" s="246"/>
-      <c r="AC14" s="246"/>
-      <c r="AD14" s="246"/>
-      <c r="AE14" s="246"/>
-      <c r="AF14" s="246"/>
-      <c r="AG14" s="24"/>
-      <c r="AH14" s="24"/>
-      <c r="AI14" s="24"/>
-      <c r="AJ14" s="24"/>
-      <c r="AK14" s="24"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A15" s="245" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="245"/>
-      <c r="C15" s="245"/>
-      <c r="D15" s="245"/>
-      <c r="E15" s="245"/>
-      <c r="F15" s="245"/>
-      <c r="G15" s="245"/>
-      <c r="H15" s="245"/>
-      <c r="I15" s="245"/>
-      <c r="J15" s="245"/>
-      <c r="K15" s="245"/>
-      <c r="L15" s="245"/>
-      <c r="M15" s="245"/>
-      <c r="N15" s="245"/>
-      <c r="O15" s="245"/>
-      <c r="P15" s="245"/>
-      <c r="Q15" s="245"/>
-      <c r="R15" s="245"/>
-      <c r="S15" s="245"/>
-      <c r="T15" s="245"/>
-      <c r="U15" s="245"/>
-      <c r="V15" s="245"/>
-      <c r="W15" s="245"/>
-      <c r="X15" s="245"/>
-      <c r="Y15" s="245"/>
-      <c r="Z15" s="245"/>
-      <c r="AA15" s="245"/>
-      <c r="AB15" s="245"/>
-      <c r="AC15" s="245"/>
-      <c r="AD15" s="245"/>
-      <c r="AE15" s="245"/>
-      <c r="AF15" s="245"/>
-      <c r="AG15" s="24"/>
-      <c r="AH15" s="24"/>
-      <c r="AI15" s="24"/>
-      <c r="AJ15" s="24"/>
-      <c r="AK15" s="24"/>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A16" s="240" t="s">
-        <v>22</v>
       </c>
       <c r="B16" s="240"/>
       <c r="C16" s="240"/>
@@ -12357,16 +10588,10 @@
       <c r="AD16" s="240"/>
       <c r="AE16" s="240"/>
       <c r="AF16" s="240"/>
-      <c r="AG16" s="24"/>
-      <c r="AH16" s="24"/>
-      <c r="AI16" s="24"/>
-      <c r="AJ16" s="24"/>
-      <c r="AK16" s="24"/>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A17" s="241" t="s">
-        <v>265</v>
-      </c>
+      <c r="AG16" s="240"/>
+    </row>
+    <row r="17" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A17" s="241"/>
       <c r="B17" s="241"/>
       <c r="C17" s="241"/>
       <c r="D17" s="241"/>
@@ -12398,179 +10623,161 @@
       <c r="AD17" s="241"/>
       <c r="AE17" s="241"/>
       <c r="AF17" s="241"/>
-      <c r="AG17" s="24"/>
-      <c r="AH17" s="24"/>
-      <c r="AI17" s="24"/>
-      <c r="AJ17" s="24"/>
-      <c r="AK17" s="24"/>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A18" s="241" t="s">
-        <v>266</v>
-      </c>
-      <c r="B18" s="241"/>
-      <c r="C18" s="241"/>
-      <c r="D18" s="241"/>
-      <c r="E18" s="241"/>
-      <c r="F18" s="241"/>
-      <c r="G18" s="241"/>
-      <c r="H18" s="241"/>
-      <c r="I18" s="241"/>
-      <c r="J18" s="241"/>
-      <c r="K18" s="241"/>
-      <c r="L18" s="241"/>
-      <c r="M18" s="241"/>
-      <c r="N18" s="241"/>
-      <c r="O18" s="241"/>
-      <c r="P18" s="241"/>
-      <c r="Q18" s="241"/>
-      <c r="R18" s="241"/>
-      <c r="S18" s="241"/>
-      <c r="T18" s="241"/>
-      <c r="U18" s="241"/>
-      <c r="V18" s="241"/>
-      <c r="W18" s="241"/>
-      <c r="X18" s="241"/>
-      <c r="Y18" s="241"/>
-      <c r="Z18" s="241"/>
-      <c r="AA18" s="241"/>
-      <c r="AB18" s="241"/>
-      <c r="AC18" s="241"/>
-      <c r="AD18" s="241"/>
-      <c r="AE18" s="241"/>
-      <c r="AF18" s="241"/>
-      <c r="AG18" s="24"/>
-      <c r="AH18" s="24"/>
-      <c r="AI18" s="24"/>
-      <c r="AJ18" s="24"/>
-      <c r="AK18" s="24"/>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A19" s="231" t="s">
-        <v>267</v>
-      </c>
-      <c r="B19" s="231"/>
-      <c r="C19" s="231"/>
-      <c r="D19" s="231"/>
-      <c r="E19" s="231"/>
-      <c r="F19" s="231"/>
-      <c r="G19" s="231"/>
-      <c r="H19" s="231"/>
-      <c r="I19" s="231"/>
-      <c r="J19" s="231"/>
-      <c r="K19" s="231"/>
-      <c r="L19" s="231"/>
-      <c r="M19" s="231"/>
-      <c r="N19" s="231"/>
-      <c r="O19" s="231"/>
-      <c r="P19" s="231"/>
-      <c r="Q19" s="231"/>
-      <c r="R19" s="231"/>
-      <c r="S19" s="231"/>
-      <c r="T19" s="231"/>
-      <c r="U19" s="231"/>
-      <c r="V19" s="231"/>
-      <c r="W19" s="231"/>
-      <c r="X19" s="231"/>
-      <c r="Y19" s="231"/>
-      <c r="Z19" s="231"/>
-      <c r="AA19" s="231"/>
-      <c r="AB19" s="231"/>
-      <c r="AC19" s="231"/>
-      <c r="AD19" s="231"/>
-      <c r="AE19" s="231"/>
-      <c r="AF19" s="231"/>
-      <c r="AG19" s="24"/>
-      <c r="AH19" s="24"/>
-      <c r="AI19" s="24"/>
-      <c r="AJ19" s="24"/>
-      <c r="AK19" s="24"/>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A20" s="231" t="s">
-        <v>268</v>
-      </c>
-      <c r="B20" s="231"/>
-      <c r="C20" s="231"/>
-      <c r="D20" s="231"/>
-      <c r="E20" s="231"/>
-      <c r="F20" s="231"/>
-      <c r="G20" s="231"/>
-      <c r="H20" s="231"/>
-      <c r="I20" s="231"/>
-      <c r="J20" s="231"/>
-      <c r="K20" s="231"/>
-      <c r="L20" s="231"/>
-      <c r="M20" s="231"/>
-      <c r="N20" s="231"/>
-      <c r="O20" s="231"/>
-      <c r="P20" s="231"/>
-      <c r="Q20" s="231"/>
-      <c r="R20" s="231"/>
-      <c r="S20" s="231"/>
-      <c r="T20" s="231"/>
-      <c r="U20" s="231"/>
-      <c r="V20" s="231"/>
-      <c r="W20" s="231"/>
-      <c r="X20" s="231"/>
-      <c r="Y20" s="231"/>
-      <c r="Z20" s="231"/>
-      <c r="AA20" s="231"/>
-      <c r="AB20" s="231"/>
-      <c r="AC20" s="231"/>
-      <c r="AD20" s="231"/>
-      <c r="AE20" s="231"/>
-      <c r="AF20" s="231"/>
-      <c r="AG20" s="24"/>
-      <c r="AH20" s="24"/>
-      <c r="AI20" s="24"/>
-      <c r="AJ20" s="24"/>
-      <c r="AK20" s="24"/>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A21" s="231" t="s">
-        <v>269</v>
-      </c>
-      <c r="B21" s="231"/>
-      <c r="C21" s="231"/>
-      <c r="D21" s="231"/>
-      <c r="E21" s="231"/>
-      <c r="F21" s="231"/>
-      <c r="G21" s="231"/>
-      <c r="H21" s="231"/>
-      <c r="I21" s="231"/>
-      <c r="J21" s="231"/>
-      <c r="K21" s="231"/>
-      <c r="L21" s="231"/>
-      <c r="M21" s="231"/>
-      <c r="N21" s="231"/>
-      <c r="O21" s="231"/>
-      <c r="P21" s="231"/>
-      <c r="Q21" s="231"/>
-      <c r="R21" s="231"/>
-      <c r="S21" s="231"/>
-      <c r="T21" s="231"/>
-      <c r="U21" s="231"/>
-      <c r="V21" s="231"/>
-      <c r="W21" s="231"/>
-      <c r="X21" s="231"/>
-      <c r="Y21" s="231"/>
-      <c r="Z21" s="231"/>
-      <c r="AA21" s="231"/>
-      <c r="AB21" s="231"/>
-      <c r="AC21" s="231"/>
-      <c r="AD21" s="231"/>
-      <c r="AE21" s="231"/>
-      <c r="AF21" s="231"/>
-      <c r="AG21" s="24"/>
-      <c r="AH21" s="24"/>
-      <c r="AI21" s="24"/>
-      <c r="AJ21" s="24"/>
-      <c r="AK21" s="24"/>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AG17" s="241"/>
+      <c r="AH17" s="25"/>
+      <c r="AI17" s="25"/>
+    </row>
+    <row r="18" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A18" s="242" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="242"/>
+      <c r="C18" s="242"/>
+      <c r="D18" s="242"/>
+      <c r="E18" s="242"/>
+      <c r="F18" s="242"/>
+      <c r="G18" s="242"/>
+      <c r="H18" s="242"/>
+      <c r="I18" s="242"/>
+      <c r="J18" s="242"/>
+      <c r="K18" s="242"/>
+      <c r="L18" s="242"/>
+      <c r="M18" s="242"/>
+      <c r="N18" s="242"/>
+      <c r="O18" s="242"/>
+      <c r="P18" s="242"/>
+      <c r="Q18" s="242"/>
+      <c r="R18" s="242"/>
+      <c r="S18" s="242"/>
+      <c r="T18" s="242"/>
+      <c r="U18" s="242"/>
+      <c r="V18" s="242"/>
+      <c r="W18" s="242"/>
+      <c r="X18" s="242"/>
+      <c r="Y18" s="242"/>
+      <c r="Z18" s="242"/>
+      <c r="AA18" s="242"/>
+      <c r="AB18" s="242"/>
+      <c r="AC18" s="242"/>
+      <c r="AD18" s="242"/>
+      <c r="AE18" s="242"/>
+      <c r="AF18" s="242"/>
+      <c r="AG18" s="242"/>
+    </row>
+    <row r="19" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A19" s="232" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="232"/>
+      <c r="C19" s="232"/>
+      <c r="D19" s="232"/>
+      <c r="E19" s="232"/>
+      <c r="F19" s="232"/>
+      <c r="G19" s="232"/>
+      <c r="H19" s="232"/>
+      <c r="I19" s="232"/>
+      <c r="J19" s="232"/>
+      <c r="K19" s="232"/>
+      <c r="L19" s="232"/>
+      <c r="M19" s="232"/>
+      <c r="N19" s="232"/>
+      <c r="O19" s="232"/>
+      <c r="P19" s="232"/>
+      <c r="Q19" s="232"/>
+      <c r="R19" s="232"/>
+      <c r="S19" s="232"/>
+      <c r="T19" s="232"/>
+      <c r="U19" s="232"/>
+      <c r="V19" s="232"/>
+      <c r="W19" s="232"/>
+      <c r="X19" s="232"/>
+      <c r="Y19" s="232"/>
+      <c r="Z19" s="232"/>
+      <c r="AA19" s="232"/>
+      <c r="AB19" s="232"/>
+      <c r="AC19" s="232"/>
+      <c r="AD19" s="232"/>
+      <c r="AE19" s="232"/>
+      <c r="AF19" s="232"/>
+      <c r="AG19" s="232"/>
+    </row>
+    <row r="20" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A20" s="234" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="234"/>
+      <c r="C20" s="234"/>
+      <c r="D20" s="234"/>
+      <c r="E20" s="234"/>
+      <c r="F20" s="234"/>
+      <c r="G20" s="234"/>
+      <c r="H20" s="234"/>
+      <c r="I20" s="234"/>
+      <c r="J20" s="234"/>
+      <c r="K20" s="234"/>
+      <c r="L20" s="234"/>
+      <c r="M20" s="234"/>
+      <c r="N20" s="234"/>
+      <c r="O20" s="234"/>
+      <c r="P20" s="234"/>
+      <c r="Q20" s="234"/>
+      <c r="R20" s="234"/>
+      <c r="S20" s="234"/>
+      <c r="T20" s="234"/>
+      <c r="U20" s="234"/>
+      <c r="V20" s="234"/>
+      <c r="W20" s="234"/>
+      <c r="X20" s="234"/>
+      <c r="Y20" s="234"/>
+      <c r="Z20" s="234"/>
+      <c r="AA20" s="234"/>
+      <c r="AB20" s="234"/>
+      <c r="AC20" s="234"/>
+      <c r="AD20" s="234"/>
+      <c r="AE20" s="234"/>
+      <c r="AF20" s="234"/>
+      <c r="AG20" s="234"/>
+    </row>
+    <row r="21" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A21" s="233" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="233"/>
+      <c r="C21" s="233"/>
+      <c r="D21" s="233"/>
+      <c r="E21" s="233"/>
+      <c r="F21" s="233"/>
+      <c r="G21" s="233"/>
+      <c r="H21" s="233"/>
+      <c r="I21" s="233"/>
+      <c r="J21" s="233"/>
+      <c r="K21" s="233"/>
+      <c r="L21" s="233"/>
+      <c r="M21" s="233"/>
+      <c r="N21" s="233"/>
+      <c r="O21" s="233"/>
+      <c r="P21" s="233"/>
+      <c r="Q21" s="233"/>
+      <c r="R21" s="233"/>
+      <c r="S21" s="233"/>
+      <c r="T21" s="233"/>
+      <c r="U21" s="233"/>
+      <c r="V21" s="233"/>
+      <c r="W21" s="233"/>
+      <c r="X21" s="233"/>
+      <c r="Y21" s="233"/>
+      <c r="Z21" s="233"/>
+      <c r="AA21" s="233"/>
+      <c r="AB21" s="233"/>
+      <c r="AC21" s="233"/>
+      <c r="AD21" s="233"/>
+      <c r="AE21" s="233"/>
+      <c r="AF21" s="233"/>
+      <c r="AG21" s="233"/>
+    </row>
+    <row r="22" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A22" s="231" t="s">
-        <v>270</v>
+        <v>25</v>
       </c>
       <c r="B22" s="231"/>
       <c r="C22" s="231"/>
@@ -12603,6 +10810,1777 @@
       <c r="AD22" s="231"/>
       <c r="AE22" s="231"/>
       <c r="AF22" s="231"/>
+      <c r="AG22" s="231"/>
+    </row>
+    <row r="23" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A23" s="231" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="231"/>
+      <c r="C23" s="231"/>
+      <c r="D23" s="231"/>
+      <c r="E23" s="231"/>
+      <c r="F23" s="231"/>
+      <c r="G23" s="231"/>
+      <c r="H23" s="231"/>
+      <c r="I23" s="231"/>
+      <c r="J23" s="231"/>
+      <c r="K23" s="231"/>
+      <c r="L23" s="231"/>
+      <c r="M23" s="231"/>
+      <c r="N23" s="231"/>
+      <c r="O23" s="231"/>
+      <c r="P23" s="231"/>
+      <c r="Q23" s="231"/>
+      <c r="R23" s="231"/>
+      <c r="S23" s="231"/>
+      <c r="T23" s="231"/>
+      <c r="U23" s="231"/>
+      <c r="V23" s="231"/>
+      <c r="W23" s="231"/>
+      <c r="X23" s="231"/>
+      <c r="Y23" s="231"/>
+      <c r="Z23" s="231"/>
+      <c r="AA23" s="231"/>
+      <c r="AB23" s="231"/>
+      <c r="AC23" s="231"/>
+      <c r="AD23" s="231"/>
+      <c r="AE23" s="231"/>
+      <c r="AF23" s="231"/>
+      <c r="AG23" s="231"/>
+    </row>
+    <row r="24" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A24" s="232" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="232"/>
+      <c r="C24" s="232"/>
+      <c r="D24" s="232"/>
+      <c r="E24" s="232"/>
+      <c r="F24" s="232"/>
+      <c r="G24" s="232"/>
+      <c r="H24" s="232"/>
+      <c r="I24" s="232"/>
+      <c r="J24" s="232"/>
+      <c r="K24" s="232"/>
+      <c r="L24" s="232"/>
+      <c r="M24" s="232"/>
+      <c r="N24" s="232"/>
+      <c r="O24" s="232"/>
+      <c r="P24" s="232"/>
+      <c r="Q24" s="232"/>
+      <c r="R24" s="232"/>
+      <c r="S24" s="232"/>
+      <c r="T24" s="232"/>
+      <c r="U24" s="232"/>
+      <c r="V24" s="232"/>
+      <c r="W24" s="232"/>
+      <c r="X24" s="232"/>
+      <c r="Y24" s="232"/>
+      <c r="Z24" s="232"/>
+      <c r="AA24" s="232"/>
+      <c r="AB24" s="232"/>
+      <c r="AC24" s="232"/>
+      <c r="AD24" s="232"/>
+      <c r="AE24" s="232"/>
+      <c r="AF24" s="232"/>
+      <c r="AG24" s="232"/>
+    </row>
+    <row r="25" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A25" s="231" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="231"/>
+      <c r="C25" s="231"/>
+      <c r="D25" s="231"/>
+      <c r="E25" s="231"/>
+      <c r="F25" s="231"/>
+      <c r="G25" s="231"/>
+      <c r="H25" s="231"/>
+      <c r="I25" s="231"/>
+      <c r="J25" s="231"/>
+      <c r="K25" s="231"/>
+      <c r="L25" s="231"/>
+      <c r="M25" s="231"/>
+      <c r="N25" s="231"/>
+      <c r="O25" s="231"/>
+      <c r="P25" s="231"/>
+      <c r="Q25" s="231"/>
+      <c r="R25" s="231"/>
+      <c r="S25" s="231"/>
+      <c r="T25" s="231"/>
+      <c r="U25" s="231"/>
+      <c r="V25" s="231"/>
+      <c r="W25" s="231"/>
+      <c r="X25" s="231"/>
+      <c r="Y25" s="231"/>
+      <c r="Z25" s="231"/>
+      <c r="AA25" s="231"/>
+      <c r="AB25" s="231"/>
+      <c r="AC25" s="231"/>
+      <c r="AD25" s="231"/>
+      <c r="AE25" s="231"/>
+      <c r="AF25" s="231"/>
+      <c r="AG25" s="231"/>
+    </row>
+    <row r="26" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A26" s="231" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="231"/>
+      <c r="C26" s="231"/>
+      <c r="D26" s="231"/>
+      <c r="E26" s="231"/>
+      <c r="F26" s="231"/>
+      <c r="G26" s="231"/>
+      <c r="H26" s="231"/>
+      <c r="I26" s="231"/>
+      <c r="J26" s="231"/>
+      <c r="K26" s="231"/>
+      <c r="L26" s="231"/>
+      <c r="M26" s="231"/>
+      <c r="N26" s="231"/>
+      <c r="O26" s="231"/>
+      <c r="P26" s="231"/>
+      <c r="Q26" s="231"/>
+      <c r="R26" s="231"/>
+      <c r="S26" s="231"/>
+      <c r="T26" s="231"/>
+      <c r="U26" s="231"/>
+      <c r="V26" s="231"/>
+      <c r="W26" s="231"/>
+      <c r="X26" s="231"/>
+      <c r="Y26" s="231"/>
+      <c r="Z26" s="231"/>
+      <c r="AA26" s="231"/>
+      <c r="AB26" s="231"/>
+      <c r="AC26" s="231"/>
+      <c r="AD26" s="231"/>
+      <c r="AE26" s="231"/>
+      <c r="AF26" s="231"/>
+      <c r="AG26" s="231"/>
+    </row>
+    <row r="27" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A27" s="231" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="231"/>
+      <c r="C27" s="231"/>
+      <c r="D27" s="231"/>
+      <c r="E27" s="231"/>
+      <c r="F27" s="231"/>
+      <c r="G27" s="231"/>
+      <c r="H27" s="231"/>
+      <c r="I27" s="231"/>
+      <c r="J27" s="231"/>
+      <c r="K27" s="231"/>
+      <c r="L27" s="231"/>
+      <c r="M27" s="231"/>
+      <c r="N27" s="231"/>
+      <c r="O27" s="231"/>
+      <c r="P27" s="231"/>
+      <c r="Q27" s="231"/>
+      <c r="R27" s="231"/>
+      <c r="S27" s="231"/>
+      <c r="T27" s="231"/>
+      <c r="U27" s="231"/>
+      <c r="V27" s="231"/>
+      <c r="W27" s="231"/>
+      <c r="X27" s="231"/>
+      <c r="Y27" s="231"/>
+      <c r="Z27" s="231"/>
+      <c r="AA27" s="231"/>
+      <c r="AB27" s="231"/>
+      <c r="AC27" s="231"/>
+      <c r="AD27" s="231"/>
+      <c r="AE27" s="231"/>
+      <c r="AF27" s="231"/>
+      <c r="AG27" s="231"/>
+    </row>
+    <row r="28" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A28" s="231" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="231"/>
+      <c r="C28" s="231"/>
+      <c r="D28" s="231"/>
+      <c r="E28" s="231"/>
+      <c r="F28" s="231"/>
+      <c r="G28" s="231"/>
+      <c r="H28" s="231"/>
+      <c r="I28" s="231"/>
+      <c r="J28" s="231"/>
+      <c r="K28" s="231"/>
+      <c r="L28" s="231"/>
+      <c r="M28" s="231"/>
+      <c r="N28" s="231"/>
+      <c r="O28" s="231"/>
+      <c r="P28" s="231"/>
+      <c r="Q28" s="231"/>
+      <c r="R28" s="231"/>
+      <c r="S28" s="231"/>
+      <c r="T28" s="231"/>
+      <c r="U28" s="231"/>
+      <c r="V28" s="231"/>
+      <c r="W28" s="231"/>
+      <c r="X28" s="231"/>
+      <c r="Y28" s="231"/>
+      <c r="Z28" s="231"/>
+      <c r="AA28" s="231"/>
+      <c r="AB28" s="231"/>
+      <c r="AC28" s="231"/>
+      <c r="AD28" s="231"/>
+      <c r="AE28" s="231"/>
+      <c r="AF28" s="231"/>
+      <c r="AG28" s="231"/>
+    </row>
+    <row r="29" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A29" s="232" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="232"/>
+      <c r="C29" s="232"/>
+      <c r="D29" s="232"/>
+      <c r="E29" s="232"/>
+      <c r="F29" s="232"/>
+      <c r="G29" s="232"/>
+      <c r="H29" s="232"/>
+      <c r="I29" s="232"/>
+      <c r="J29" s="232"/>
+      <c r="K29" s="232"/>
+      <c r="L29" s="232"/>
+      <c r="M29" s="232"/>
+      <c r="N29" s="232"/>
+      <c r="O29" s="232"/>
+      <c r="P29" s="232"/>
+      <c r="Q29" s="232"/>
+      <c r="R29" s="232"/>
+      <c r="S29" s="232"/>
+      <c r="T29" s="232"/>
+      <c r="U29" s="232"/>
+      <c r="V29" s="232"/>
+      <c r="W29" s="232"/>
+      <c r="X29" s="232"/>
+      <c r="Y29" s="232"/>
+      <c r="Z29" s="232"/>
+      <c r="AA29" s="232"/>
+      <c r="AB29" s="232"/>
+      <c r="AC29" s="232"/>
+      <c r="AD29" s="232"/>
+      <c r="AE29" s="232"/>
+      <c r="AF29" s="232"/>
+      <c r="AG29" s="232"/>
+    </row>
+    <row r="30" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A30" s="231" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="231"/>
+      <c r="C30" s="231"/>
+      <c r="D30" s="231"/>
+      <c r="E30" s="231"/>
+      <c r="F30" s="231"/>
+      <c r="G30" s="231"/>
+      <c r="H30" s="231"/>
+      <c r="I30" s="231"/>
+      <c r="J30" s="231"/>
+      <c r="K30" s="231"/>
+      <c r="L30" s="231"/>
+      <c r="M30" s="231"/>
+      <c r="N30" s="231"/>
+      <c r="O30" s="231"/>
+      <c r="P30" s="231"/>
+      <c r="Q30" s="231"/>
+      <c r="R30" s="231"/>
+      <c r="S30" s="231"/>
+      <c r="T30" s="231"/>
+      <c r="U30" s="231"/>
+      <c r="V30" s="231"/>
+      <c r="W30" s="231"/>
+      <c r="X30" s="231"/>
+      <c r="Y30" s="231"/>
+      <c r="Z30" s="231"/>
+      <c r="AA30" s="231"/>
+      <c r="AB30" s="231"/>
+      <c r="AC30" s="231"/>
+      <c r="AD30" s="231"/>
+      <c r="AE30" s="231"/>
+      <c r="AF30" s="231"/>
+      <c r="AG30" s="231"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="N31" s="26"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="30"/>
+      <c r="W33" s="30"/>
+      <c r="X33" s="30"/>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="30"/>
+      <c r="AA33" s="29"/>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="28"/>
+      <c r="AA34" s="28"/>
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="30"/>
+      <c r="V36" s="30"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="30"/>
+      <c r="AA36" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A20:AG20"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A10:AG10"/>
+    <mergeCell ref="A11:AG11"/>
+    <mergeCell ref="A12:AG12"/>
+    <mergeCell ref="A13:AG13"/>
+    <mergeCell ref="A14:AG14"/>
+    <mergeCell ref="A15:AG15"/>
+    <mergeCell ref="A16:AG16"/>
+    <mergeCell ref="A17:AG17"/>
+    <mergeCell ref="A18:AG18"/>
+    <mergeCell ref="A19:AG19"/>
+    <mergeCell ref="A27:AG27"/>
+    <mergeCell ref="A28:AG28"/>
+    <mergeCell ref="A29:AG29"/>
+    <mergeCell ref="A30:AG30"/>
+    <mergeCell ref="A21:AG21"/>
+    <mergeCell ref="A22:AG22"/>
+    <mergeCell ref="A23:AG23"/>
+    <mergeCell ref="A24:AG24"/>
+    <mergeCell ref="A25:AG25"/>
+    <mergeCell ref="A26:AG26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A434B60-83C1-4A6D-BC82-D6A36637EAE4}">
+  <dimension ref="A1:AL35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" style="26" customWidth="1"/>
+    <col min="2" max="30" width="6.7109375" style="26" customWidth="1"/>
+    <col min="31" max="36" width="9.7109375" style="26" customWidth="1"/>
+    <col min="37" max="38" width="6.7109375" style="26" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="244" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
+      <c r="H1" s="244"/>
+      <c r="I1" s="244"/>
+      <c r="J1" s="244"/>
+      <c r="K1" s="244"/>
+      <c r="L1" s="244"/>
+      <c r="M1" s="244"/>
+      <c r="N1" s="244"/>
+      <c r="O1" s="244"/>
+      <c r="P1" s="244"/>
+      <c r="Q1" s="244"/>
+      <c r="R1" s="244"/>
+      <c r="S1" s="244"/>
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="244"/>
+      <c r="Y1" s="244"/>
+      <c r="Z1" s="244"/>
+      <c r="AA1" s="244"/>
+      <c r="AB1" s="244"/>
+      <c r="AC1" s="244"/>
+      <c r="AD1" s="244"/>
+      <c r="AE1" s="244"/>
+      <c r="AF1" s="244"/>
+      <c r="AG1" s="244"/>
+      <c r="AH1" s="244"/>
+      <c r="AI1" s="244"/>
+      <c r="AJ1" s="244"/>
+      <c r="AK1" s="244"/>
+      <c r="AL1" s="244"/>
+    </row>
+    <row r="2" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="189"/>
+      <c r="B2" s="5">
+        <v>1960</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1965</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1970</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1975</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1980</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1985</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1990</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1991</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1992</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1993</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1994</v>
+      </c>
+      <c r="M2" s="5">
+        <v>1995</v>
+      </c>
+      <c r="N2" s="5">
+        <v>1996</v>
+      </c>
+      <c r="O2" s="5">
+        <v>1997</v>
+      </c>
+      <c r="P2" s="5">
+        <v>1998</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>1999</v>
+      </c>
+      <c r="R2" s="5">
+        <v>2000</v>
+      </c>
+      <c r="S2" s="5">
+        <v>2001</v>
+      </c>
+      <c r="T2" s="5">
+        <v>2002</v>
+      </c>
+      <c r="U2" s="5">
+        <v>2003</v>
+      </c>
+      <c r="V2" s="5">
+        <v>2004</v>
+      </c>
+      <c r="W2" s="5">
+        <v>2005</v>
+      </c>
+      <c r="X2" s="5">
+        <v>2006</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>2007</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>2008</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>2009</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>2010</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>2011</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>2012</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>2013</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>2014</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>2015</v>
+      </c>
+      <c r="AH2" s="5">
+        <v>2016</v>
+      </c>
+      <c r="AI2" s="5">
+        <v>2017</v>
+      </c>
+      <c r="AJ2" s="5">
+        <v>2018</v>
+      </c>
+      <c r="AK2" s="5">
+        <v>2019</v>
+      </c>
+      <c r="AL2" s="5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="190" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="191">
+        <v>33.01</v>
+      </c>
+      <c r="C3" s="191">
+        <v>34.130000000000003</v>
+      </c>
+      <c r="D3" s="191">
+        <v>40.65</v>
+      </c>
+      <c r="E3" s="191">
+        <v>53.64</v>
+      </c>
+      <c r="F3" s="191">
+        <v>84.6</v>
+      </c>
+      <c r="G3" s="191">
+        <v>92.53</v>
+      </c>
+      <c r="H3" s="191">
+        <v>107.95605383345789</v>
+      </c>
+      <c r="I3" s="191">
+        <v>106.82359925320584</v>
+      </c>
+      <c r="J3" s="191">
+        <v>103.96695716885564</v>
+      </c>
+      <c r="K3" s="191">
+        <v>110.30216410489288</v>
+      </c>
+      <c r="L3" s="191">
+        <v>103.71187200788872</v>
+      </c>
+      <c r="M3" s="191">
+        <v>292.18857508501458</v>
+      </c>
+      <c r="N3" s="191">
+        <v>276.6279861413596</v>
+      </c>
+      <c r="O3" s="191">
+        <v>287.22154413532138</v>
+      </c>
+      <c r="P3" s="191">
+        <v>309.17037540393335</v>
+      </c>
+      <c r="Q3" s="191">
+        <v>323.82594729367332</v>
+      </c>
+      <c r="R3" s="191">
+        <v>338.99637086858655</v>
+      </c>
+      <c r="S3" s="191">
+        <v>320.62432456238798</v>
+      </c>
+      <c r="T3" s="191">
+        <v>312.32934290453386</v>
+      </c>
+      <c r="U3" s="191">
+        <v>315.35521442000174</v>
+      </c>
+      <c r="V3" s="191">
+        <v>305.40959352583474</v>
+      </c>
+      <c r="W3" s="191">
+        <v>307.31062697583019</v>
+      </c>
+      <c r="X3" s="191">
+        <v>328.54794374827924</v>
+      </c>
+      <c r="Y3" s="191">
+        <v>325.26065137526251</v>
+      </c>
+      <c r="Z3" s="191">
+        <v>346.37773634629673</v>
+      </c>
+      <c r="AA3" s="191">
+        <v>310.34502019698289</v>
+      </c>
+      <c r="AB3" s="191">
+        <v>336.08909441198415</v>
+      </c>
+      <c r="AC3" s="191">
+        <v>363.85119844189529</v>
+      </c>
+      <c r="AD3" s="191">
+        <v>374.76958179972269</v>
+      </c>
+      <c r="AE3" s="192">
+        <v>382.00308300027064</v>
+      </c>
+      <c r="AF3" s="192">
+        <v>391.70146694796955</v>
+      </c>
+      <c r="AG3" s="192">
+        <v>376.95078761698812</v>
+      </c>
+      <c r="AH3" s="192">
+        <v>349.14614920276199</v>
+      </c>
+      <c r="AI3" s="192">
+        <v>347.62638485790745</v>
+      </c>
+      <c r="AJ3" s="192">
+        <v>349.6248953264697</v>
+      </c>
+      <c r="AK3" s="191">
+        <v>354.83334016198</v>
+      </c>
+      <c r="AL3" s="191">
+        <v>292.36611721851324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="190" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" s="193">
+        <v>2.46</v>
+      </c>
+      <c r="C4" s="193">
+        <v>2.73</v>
+      </c>
+      <c r="D4" s="193">
+        <v>3.81</v>
+      </c>
+      <c r="E4" s="193">
+        <v>5.46</v>
+      </c>
+      <c r="F4" s="193">
+        <v>10.57</v>
+      </c>
+      <c r="G4" s="193">
+        <v>11.98</v>
+      </c>
+      <c r="H4" s="193">
+        <v>20.22</v>
+      </c>
+      <c r="I4" s="193">
+        <v>21.86</v>
+      </c>
+      <c r="J4" s="193">
+        <v>21.15</v>
+      </c>
+      <c r="K4" s="193">
+        <v>21.32</v>
+      </c>
+      <c r="L4" s="193">
+        <v>19.77</v>
+      </c>
+      <c r="M4" s="193">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="N4" s="193">
+        <v>22.85</v>
+      </c>
+      <c r="O4" s="193">
+        <v>20.83</v>
+      </c>
+      <c r="P4" s="193">
+        <v>23.14</v>
+      </c>
+      <c r="Q4" s="193">
+        <v>26.16</v>
+      </c>
+      <c r="R4" s="193">
+        <v>29.458089000000001</v>
+      </c>
+      <c r="S4" s="193">
+        <v>30.268799999999999</v>
+      </c>
+      <c r="T4" s="193">
+        <v>30.1114</v>
+      </c>
+      <c r="U4" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="W4" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="X4" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB4" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC4" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD4" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE4" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF4" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG4" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH4" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI4" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ4" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK4" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL4" s="193" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="A5" s="190" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" s="193">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C5" s="193">
+        <v>0.16</v>
+      </c>
+      <c r="D5" s="193">
+        <v>0.22</v>
+      </c>
+      <c r="E5" s="193">
+        <v>0.27</v>
+      </c>
+      <c r="F5" s="193">
+        <v>0.3</v>
+      </c>
+      <c r="G5" s="193">
+        <v>0.53</v>
+      </c>
+      <c r="H5" s="193">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="I5" s="193">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="J5" s="193">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="K5" s="193">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="L5" s="193">
+        <v>0.85</v>
+      </c>
+      <c r="M5" s="193">
+        <v>0.88</v>
+      </c>
+      <c r="N5" s="193">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="O5" s="193">
+        <v>0.9</v>
+      </c>
+      <c r="P5" s="193">
+        <v>0.91</v>
+      </c>
+      <c r="Q5" s="193">
+        <v>0.9</v>
+      </c>
+      <c r="R5" s="193">
+        <v>0.93</v>
+      </c>
+      <c r="S5" s="193">
+        <v>0.92</v>
+      </c>
+      <c r="T5" s="193">
+        <v>0.93105492300110437</v>
+      </c>
+      <c r="U5" s="193">
+        <v>0.88134169907849358</v>
+      </c>
+      <c r="V5" s="193">
+        <v>1.0305121850001198</v>
+      </c>
+      <c r="W5" s="193">
+        <v>1.0478628209221583</v>
+      </c>
+      <c r="X5" s="193">
+        <v>1.2684974308327119</v>
+      </c>
+      <c r="Y5" s="193">
+        <v>1.0703264089454896</v>
+      </c>
+      <c r="Z5" s="193">
+        <v>1.1148894548651185</v>
+      </c>
+      <c r="AA5" s="193">
+        <v>1.1708832763949892</v>
+      </c>
+      <c r="AB5" s="193">
+        <v>1.2230470662195179</v>
+      </c>
+      <c r="AC5" s="193">
+        <v>1.3088691548436273</v>
+      </c>
+      <c r="AD5" s="193">
+        <v>1.3267645915434336</v>
+      </c>
+      <c r="AE5" s="193">
+        <v>1.4032474008300455</v>
+      </c>
+      <c r="AF5" s="193">
+        <v>1.4324953485868275</v>
+      </c>
+      <c r="AG5" s="193">
+        <v>1.4905354091049987</v>
+      </c>
+      <c r="AH5" s="193">
+        <v>1.5221571653450272</v>
+      </c>
+      <c r="AI5" s="193">
+        <v>1.5733096607655503</v>
+      </c>
+      <c r="AJ5" s="193">
+        <v>1.6105285886734684</v>
+      </c>
+      <c r="AK5" s="193">
+        <v>1.6257686952473935</v>
+      </c>
+      <c r="AL5" s="193" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="190" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="193">
+        <v>0.64</v>
+      </c>
+      <c r="C6" s="193">
+        <v>0.71</v>
+      </c>
+      <c r="D6" s="193">
+        <v>0.84</v>
+      </c>
+      <c r="E6" s="193">
+        <v>1.04</v>
+      </c>
+      <c r="F6" s="193">
+        <v>1.41</v>
+      </c>
+      <c r="G6" s="193">
+        <v>2.85</v>
+      </c>
+      <c r="H6" s="193">
+        <v>2.9</v>
+      </c>
+      <c r="I6" s="193">
+        <v>3.01</v>
+      </c>
+      <c r="J6" s="193">
+        <v>3.09</v>
+      </c>
+      <c r="K6" s="193">
+        <v>3.09</v>
+      </c>
+      <c r="L6" s="193">
+        <v>3.19</v>
+      </c>
+      <c r="M6" s="193">
+        <v>3.13</v>
+      </c>
+      <c r="N6" s="193">
+        <v>3.25</v>
+      </c>
+      <c r="O6" s="193">
+        <v>3.3</v>
+      </c>
+      <c r="P6" s="193">
+        <v>3.29</v>
+      </c>
+      <c r="Q6" s="193">
+        <v>3.3</v>
+      </c>
+      <c r="R6" s="193">
+        <v>3.33</v>
+      </c>
+      <c r="S6" s="193">
+        <v>3.43</v>
+      </c>
+      <c r="T6" s="193">
+        <v>3.4981570590620956</v>
+      </c>
+      <c r="U6" s="193">
+        <v>3.6212347491388974</v>
+      </c>
+      <c r="V6" s="193">
+        <v>3.9039090811770136</v>
+      </c>
+      <c r="W6" s="193">
+        <v>4.0882556808472987</v>
+      </c>
+      <c r="X6" s="193">
+        <v>4.2213727365578846</v>
+      </c>
+      <c r="Y6" s="193">
+        <v>4.3258640600896179</v>
+      </c>
+      <c r="Z6" s="193">
+        <v>4.5845720074559528</v>
+      </c>
+      <c r="AA6" s="193">
+        <v>4.690782584808594</v>
+      </c>
+      <c r="AB6" s="193">
+        <v>4.8536695209141634</v>
+      </c>
+      <c r="AC6" s="193">
+        <v>5.2769125478220937</v>
+      </c>
+      <c r="AD6" s="193">
+        <v>5.4378591402608825</v>
+      </c>
+      <c r="AE6" s="193">
+        <v>5.6473032107099552</v>
+      </c>
+      <c r="AF6" s="193">
+        <v>5.8403652256674254</v>
+      </c>
+      <c r="AG6" s="193">
+        <v>6.0808897992884008</v>
+      </c>
+      <c r="AH6" s="193">
+        <v>6.2056060036136858</v>
+      </c>
+      <c r="AI6" s="193">
+        <v>6.4299484917367282</v>
+      </c>
+      <c r="AJ6" s="193">
+        <v>6.464293683918191</v>
+      </c>
+      <c r="AK6" s="193">
+        <v>6.5317722647971062</v>
+      </c>
+      <c r="AL6" s="193" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="194" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" s="195">
+        <v>4.22</v>
+      </c>
+      <c r="C7" s="195">
+        <v>3.92</v>
+      </c>
+      <c r="D7" s="195">
+        <v>3.19</v>
+      </c>
+      <c r="E7" s="195">
+        <v>12.96</v>
+      </c>
+      <c r="F7" s="195">
+        <v>17.72</v>
+      </c>
+      <c r="G7" s="195">
+        <v>26.153846153846153</v>
+      </c>
+      <c r="H7" s="195">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="I7" s="195">
+        <v>41.19</v>
+      </c>
+      <c r="J7" s="195">
+        <v>40.78</v>
+      </c>
+      <c r="K7" s="195">
+        <v>40.11</v>
+      </c>
+      <c r="L7" s="195">
+        <v>39.1</v>
+      </c>
+      <c r="M7" s="195">
+        <v>39.92</v>
+      </c>
+      <c r="N7" s="195">
+        <v>43.31</v>
+      </c>
+      <c r="O7" s="195">
+        <v>45.26</v>
+      </c>
+      <c r="P7" s="195">
+        <v>44.75</v>
+      </c>
+      <c r="Q7" s="195">
+        <v>46.853099999999998</v>
+      </c>
+      <c r="R7" s="195">
+        <v>52.148904810459555</v>
+      </c>
+      <c r="S7" s="195">
+        <v>54.224515253465214</v>
+      </c>
+      <c r="T7" s="195">
+        <v>59.070718416230001</v>
+      </c>
+      <c r="U7" s="195">
+        <v>53.902265328985841</v>
+      </c>
+      <c r="V7" s="195">
+        <v>53.286809558934664</v>
+      </c>
+      <c r="W7" s="195">
+        <v>51.566228901880351</v>
+      </c>
+      <c r="X7" s="195">
+        <v>56.414770622329854</v>
+      </c>
+      <c r="Y7" s="195">
+        <v>58.772734734315627</v>
+      </c>
+      <c r="Z7" s="195">
+        <v>60.388795018819728</v>
+      </c>
+      <c r="AA7" s="195">
+        <v>58.87538100433121</v>
+      </c>
+      <c r="AB7" s="195">
+        <v>60.695748632937097</v>
+      </c>
+      <c r="AC7" s="195">
+        <v>62.665934302993307</v>
+      </c>
+      <c r="AD7" s="195">
+        <v>64.659674080798482</v>
+      </c>
+      <c r="AE7" s="195">
+        <v>68.222700251126682</v>
+      </c>
+      <c r="AF7" s="195">
+        <v>70.7815223266674</v>
+      </c>
+      <c r="AG7" s="195">
+        <v>70.770276330365689</v>
+      </c>
+      <c r="AH7" s="195">
+        <v>68.300996329313065</v>
+      </c>
+      <c r="AI7" s="195">
+        <v>68.711934791718519</v>
+      </c>
+      <c r="AJ7" s="195">
+        <v>69.58693006627027</v>
+      </c>
+      <c r="AK7" s="195">
+        <v>71.471848492798159</v>
+      </c>
+      <c r="AL7" s="195">
+        <v>70.772026078592035</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A8" s="245" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" s="245"/>
+      <c r="C8" s="245"/>
+      <c r="D8" s="245"/>
+      <c r="E8" s="245"/>
+      <c r="F8" s="245"/>
+      <c r="G8" s="245"/>
+      <c r="H8" s="245"/>
+      <c r="I8" s="245"/>
+      <c r="J8" s="245"/>
+      <c r="K8" s="245"/>
+      <c r="L8" s="245"/>
+      <c r="M8" s="245"/>
+      <c r="N8" s="245"/>
+      <c r="O8" s="245"/>
+      <c r="P8" s="245"/>
+      <c r="Q8" s="245"/>
+      <c r="R8" s="245"/>
+      <c r="S8" s="245"/>
+      <c r="T8" s="245"/>
+      <c r="U8" s="245"/>
+      <c r="V8" s="245"/>
+      <c r="W8" s="245"/>
+      <c r="X8" s="245"/>
+      <c r="Y8" s="245"/>
+      <c r="Z8" s="245"/>
+      <c r="AA8" s="245"/>
+      <c r="AB8" s="245"/>
+      <c r="AC8" s="245"/>
+      <c r="AD8" s="245"/>
+      <c r="AE8" s="245"/>
+      <c r="AF8" s="245"/>
+      <c r="AG8" s="24"/>
+      <c r="AH8" s="24"/>
+      <c r="AI8" s="24"/>
+      <c r="AJ8" s="24"/>
+      <c r="AK8" s="24"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A9" s="246"/>
+      <c r="B9" s="246"/>
+      <c r="C9" s="246"/>
+      <c r="D9" s="246"/>
+      <c r="E9" s="246"/>
+      <c r="F9" s="246"/>
+      <c r="G9" s="246"/>
+      <c r="H9" s="246"/>
+      <c r="I9" s="246"/>
+      <c r="J9" s="246"/>
+      <c r="K9" s="246"/>
+      <c r="L9" s="246"/>
+      <c r="M9" s="246"/>
+      <c r="N9" s="246"/>
+      <c r="O9" s="246"/>
+      <c r="P9" s="246"/>
+      <c r="Q9" s="246"/>
+      <c r="R9" s="246"/>
+      <c r="S9" s="246"/>
+      <c r="T9" s="246"/>
+      <c r="U9" s="246"/>
+      <c r="V9" s="246"/>
+      <c r="W9" s="246"/>
+      <c r="X9" s="246"/>
+      <c r="Y9" s="246"/>
+      <c r="Z9" s="246"/>
+      <c r="AA9" s="246"/>
+      <c r="AB9" s="246"/>
+      <c r="AC9" s="246"/>
+      <c r="AD9" s="246"/>
+      <c r="AE9" s="246"/>
+      <c r="AF9" s="246"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="24"/>
+      <c r="AI9" s="24"/>
+      <c r="AJ9" s="24"/>
+      <c r="AK9" s="24"/>
+    </row>
+    <row r="10" spans="1:38" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="247" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" s="247"/>
+      <c r="C10" s="247"/>
+      <c r="D10" s="247"/>
+      <c r="E10" s="247"/>
+      <c r="F10" s="247"/>
+      <c r="G10" s="247"/>
+      <c r="H10" s="247"/>
+      <c r="I10" s="247"/>
+      <c r="J10" s="247"/>
+      <c r="K10" s="247"/>
+      <c r="L10" s="247"/>
+      <c r="M10" s="247"/>
+      <c r="N10" s="247"/>
+      <c r="O10" s="247"/>
+      <c r="P10" s="247"/>
+      <c r="Q10" s="247"/>
+      <c r="R10" s="247"/>
+      <c r="S10" s="247"/>
+      <c r="T10" s="247"/>
+      <c r="U10" s="247"/>
+      <c r="V10" s="247"/>
+      <c r="W10" s="247"/>
+      <c r="X10" s="247"/>
+      <c r="Y10" s="247"/>
+      <c r="Z10" s="247"/>
+      <c r="AA10" s="247"/>
+      <c r="AB10" s="247"/>
+      <c r="AC10" s="247"/>
+      <c r="AD10" s="247"/>
+      <c r="AE10" s="247"/>
+      <c r="AF10" s="247"/>
+      <c r="AG10" s="24"/>
+      <c r="AH10" s="24"/>
+      <c r="AI10" s="24"/>
+      <c r="AJ10" s="24"/>
+      <c r="AK10" s="24"/>
+    </row>
+    <row r="11" spans="1:38" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="247" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" s="247"/>
+      <c r="C11" s="247"/>
+      <c r="D11" s="247"/>
+      <c r="E11" s="247"/>
+      <c r="F11" s="247"/>
+      <c r="G11" s="247"/>
+      <c r="H11" s="247"/>
+      <c r="I11" s="247"/>
+      <c r="J11" s="247"/>
+      <c r="K11" s="247"/>
+      <c r="L11" s="247"/>
+      <c r="M11" s="247"/>
+      <c r="N11" s="247"/>
+      <c r="O11" s="247"/>
+      <c r="P11" s="247"/>
+      <c r="Q11" s="247"/>
+      <c r="R11" s="247"/>
+      <c r="S11" s="247"/>
+      <c r="T11" s="247"/>
+      <c r="U11" s="247"/>
+      <c r="V11" s="247"/>
+      <c r="W11" s="247"/>
+      <c r="X11" s="247"/>
+      <c r="Y11" s="247"/>
+      <c r="Z11" s="247"/>
+      <c r="AA11" s="247"/>
+      <c r="AB11" s="247"/>
+      <c r="AC11" s="247"/>
+      <c r="AD11" s="247"/>
+      <c r="AE11" s="247"/>
+      <c r="AF11" s="247"/>
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="24"/>
+      <c r="AI11" s="24"/>
+      <c r="AJ11" s="24"/>
+      <c r="AK11" s="24"/>
+    </row>
+    <row r="12" spans="1:38" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="247" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" s="247"/>
+      <c r="C12" s="247"/>
+      <c r="D12" s="247"/>
+      <c r="E12" s="247"/>
+      <c r="F12" s="247"/>
+      <c r="G12" s="247"/>
+      <c r="H12" s="247"/>
+      <c r="I12" s="247"/>
+      <c r="J12" s="247"/>
+      <c r="K12" s="247"/>
+      <c r="L12" s="247"/>
+      <c r="M12" s="247"/>
+      <c r="N12" s="247"/>
+      <c r="O12" s="247"/>
+      <c r="P12" s="247"/>
+      <c r="Q12" s="247"/>
+      <c r="R12" s="247"/>
+      <c r="S12" s="247"/>
+      <c r="T12" s="247"/>
+      <c r="U12" s="247"/>
+      <c r="V12" s="247"/>
+      <c r="W12" s="247"/>
+      <c r="X12" s="247"/>
+      <c r="Y12" s="247"/>
+      <c r="Z12" s="247"/>
+      <c r="AA12" s="247"/>
+      <c r="AB12" s="247"/>
+      <c r="AC12" s="247"/>
+      <c r="AD12" s="247"/>
+      <c r="AE12" s="247"/>
+      <c r="AF12" s="247"/>
+      <c r="AG12" s="24"/>
+      <c r="AH12" s="24"/>
+      <c r="AI12" s="24"/>
+      <c r="AJ12" s="24"/>
+      <c r="AK12" s="24"/>
+    </row>
+    <row r="13" spans="1:38" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="247" t="s">
+        <v>264</v>
+      </c>
+      <c r="B13" s="247"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="247"/>
+      <c r="M13" s="247"/>
+      <c r="N13" s="247"/>
+      <c r="O13" s="247"/>
+      <c r="P13" s="247"/>
+      <c r="Q13" s="247"/>
+      <c r="R13" s="247"/>
+      <c r="S13" s="247"/>
+      <c r="T13" s="247"/>
+      <c r="U13" s="247"/>
+      <c r="V13" s="247"/>
+      <c r="W13" s="247"/>
+      <c r="X13" s="247"/>
+      <c r="Y13" s="247"/>
+      <c r="Z13" s="247"/>
+      <c r="AA13" s="247"/>
+      <c r="AB13" s="247"/>
+      <c r="AC13" s="247"/>
+      <c r="AD13" s="247"/>
+      <c r="AE13" s="247"/>
+      <c r="AF13" s="247"/>
+      <c r="AG13" s="24"/>
+      <c r="AH13" s="24"/>
+      <c r="AI13" s="24"/>
+      <c r="AJ13" s="24"/>
+      <c r="AK13" s="24"/>
+    </row>
+    <row r="14" spans="1:38" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="247"/>
+      <c r="B14" s="247"/>
+      <c r="C14" s="247"/>
+      <c r="D14" s="247"/>
+      <c r="E14" s="247"/>
+      <c r="F14" s="247"/>
+      <c r="G14" s="247"/>
+      <c r="H14" s="247"/>
+      <c r="I14" s="247"/>
+      <c r="J14" s="247"/>
+      <c r="K14" s="247"/>
+      <c r="L14" s="247"/>
+      <c r="M14" s="247"/>
+      <c r="N14" s="247"/>
+      <c r="O14" s="247"/>
+      <c r="P14" s="247"/>
+      <c r="Q14" s="247"/>
+      <c r="R14" s="247"/>
+      <c r="S14" s="247"/>
+      <c r="T14" s="247"/>
+      <c r="U14" s="247"/>
+      <c r="V14" s="247"/>
+      <c r="W14" s="247"/>
+      <c r="X14" s="247"/>
+      <c r="Y14" s="247"/>
+      <c r="Z14" s="247"/>
+      <c r="AA14" s="247"/>
+      <c r="AB14" s="247"/>
+      <c r="AC14" s="247"/>
+      <c r="AD14" s="247"/>
+      <c r="AE14" s="247"/>
+      <c r="AF14" s="247"/>
+      <c r="AG14" s="24"/>
+      <c r="AH14" s="24"/>
+      <c r="AI14" s="24"/>
+      <c r="AJ14" s="24"/>
+      <c r="AK14" s="24"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A15" s="246" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="246"/>
+      <c r="C15" s="246"/>
+      <c r="D15" s="246"/>
+      <c r="E15" s="246"/>
+      <c r="F15" s="246"/>
+      <c r="G15" s="246"/>
+      <c r="H15" s="246"/>
+      <c r="I15" s="246"/>
+      <c r="J15" s="246"/>
+      <c r="K15" s="246"/>
+      <c r="L15" s="246"/>
+      <c r="M15" s="246"/>
+      <c r="N15" s="246"/>
+      <c r="O15" s="246"/>
+      <c r="P15" s="246"/>
+      <c r="Q15" s="246"/>
+      <c r="R15" s="246"/>
+      <c r="S15" s="246"/>
+      <c r="T15" s="246"/>
+      <c r="U15" s="246"/>
+      <c r="V15" s="246"/>
+      <c r="W15" s="246"/>
+      <c r="X15" s="246"/>
+      <c r="Y15" s="246"/>
+      <c r="Z15" s="246"/>
+      <c r="AA15" s="246"/>
+      <c r="AB15" s="246"/>
+      <c r="AC15" s="246"/>
+      <c r="AD15" s="246"/>
+      <c r="AE15" s="246"/>
+      <c r="AF15" s="246"/>
+      <c r="AG15" s="24"/>
+      <c r="AH15" s="24"/>
+      <c r="AI15" s="24"/>
+      <c r="AJ15" s="24"/>
+      <c r="AK15" s="24"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A16" s="232" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="232"/>
+      <c r="C16" s="232"/>
+      <c r="D16" s="232"/>
+      <c r="E16" s="232"/>
+      <c r="F16" s="232"/>
+      <c r="G16" s="232"/>
+      <c r="H16" s="232"/>
+      <c r="I16" s="232"/>
+      <c r="J16" s="232"/>
+      <c r="K16" s="232"/>
+      <c r="L16" s="232"/>
+      <c r="M16" s="232"/>
+      <c r="N16" s="232"/>
+      <c r="O16" s="232"/>
+      <c r="P16" s="232"/>
+      <c r="Q16" s="232"/>
+      <c r="R16" s="232"/>
+      <c r="S16" s="232"/>
+      <c r="T16" s="232"/>
+      <c r="U16" s="232"/>
+      <c r="V16" s="232"/>
+      <c r="W16" s="232"/>
+      <c r="X16" s="232"/>
+      <c r="Y16" s="232"/>
+      <c r="Z16" s="232"/>
+      <c r="AA16" s="232"/>
+      <c r="AB16" s="232"/>
+      <c r="AC16" s="232"/>
+      <c r="AD16" s="232"/>
+      <c r="AE16" s="232"/>
+      <c r="AF16" s="232"/>
+      <c r="AG16" s="24"/>
+      <c r="AH16" s="24"/>
+      <c r="AI16" s="24"/>
+      <c r="AJ16" s="24"/>
+      <c r="AK16" s="24"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A17" s="231" t="s">
+        <v>265</v>
+      </c>
+      <c r="B17" s="231"/>
+      <c r="C17" s="231"/>
+      <c r="D17" s="231"/>
+      <c r="E17" s="231"/>
+      <c r="F17" s="231"/>
+      <c r="G17" s="231"/>
+      <c r="H17" s="231"/>
+      <c r="I17" s="231"/>
+      <c r="J17" s="231"/>
+      <c r="K17" s="231"/>
+      <c r="L17" s="231"/>
+      <c r="M17" s="231"/>
+      <c r="N17" s="231"/>
+      <c r="O17" s="231"/>
+      <c r="P17" s="231"/>
+      <c r="Q17" s="231"/>
+      <c r="R17" s="231"/>
+      <c r="S17" s="231"/>
+      <c r="T17" s="231"/>
+      <c r="U17" s="231"/>
+      <c r="V17" s="231"/>
+      <c r="W17" s="231"/>
+      <c r="X17" s="231"/>
+      <c r="Y17" s="231"/>
+      <c r="Z17" s="231"/>
+      <c r="AA17" s="231"/>
+      <c r="AB17" s="231"/>
+      <c r="AC17" s="231"/>
+      <c r="AD17" s="231"/>
+      <c r="AE17" s="231"/>
+      <c r="AF17" s="231"/>
+      <c r="AG17" s="24"/>
+      <c r="AH17" s="24"/>
+      <c r="AI17" s="24"/>
+      <c r="AJ17" s="24"/>
+      <c r="AK17" s="24"/>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A18" s="231" t="s">
+        <v>266</v>
+      </c>
+      <c r="B18" s="231"/>
+      <c r="C18" s="231"/>
+      <c r="D18" s="231"/>
+      <c r="E18" s="231"/>
+      <c r="F18" s="231"/>
+      <c r="G18" s="231"/>
+      <c r="H18" s="231"/>
+      <c r="I18" s="231"/>
+      <c r="J18" s="231"/>
+      <c r="K18" s="231"/>
+      <c r="L18" s="231"/>
+      <c r="M18" s="231"/>
+      <c r="N18" s="231"/>
+      <c r="O18" s="231"/>
+      <c r="P18" s="231"/>
+      <c r="Q18" s="231"/>
+      <c r="R18" s="231"/>
+      <c r="S18" s="231"/>
+      <c r="T18" s="231"/>
+      <c r="U18" s="231"/>
+      <c r="V18" s="231"/>
+      <c r="W18" s="231"/>
+      <c r="X18" s="231"/>
+      <c r="Y18" s="231"/>
+      <c r="Z18" s="231"/>
+      <c r="AA18" s="231"/>
+      <c r="AB18" s="231"/>
+      <c r="AC18" s="231"/>
+      <c r="AD18" s="231"/>
+      <c r="AE18" s="231"/>
+      <c r="AF18" s="231"/>
+      <c r="AG18" s="24"/>
+      <c r="AH18" s="24"/>
+      <c r="AI18" s="24"/>
+      <c r="AJ18" s="24"/>
+      <c r="AK18" s="24"/>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A19" s="234" t="s">
+        <v>267</v>
+      </c>
+      <c r="B19" s="234"/>
+      <c r="C19" s="234"/>
+      <c r="D19" s="234"/>
+      <c r="E19" s="234"/>
+      <c r="F19" s="234"/>
+      <c r="G19" s="234"/>
+      <c r="H19" s="234"/>
+      <c r="I19" s="234"/>
+      <c r="J19" s="234"/>
+      <c r="K19" s="234"/>
+      <c r="L19" s="234"/>
+      <c r="M19" s="234"/>
+      <c r="N19" s="234"/>
+      <c r="O19" s="234"/>
+      <c r="P19" s="234"/>
+      <c r="Q19" s="234"/>
+      <c r="R19" s="234"/>
+      <c r="S19" s="234"/>
+      <c r="T19" s="234"/>
+      <c r="U19" s="234"/>
+      <c r="V19" s="234"/>
+      <c r="W19" s="234"/>
+      <c r="X19" s="234"/>
+      <c r="Y19" s="234"/>
+      <c r="Z19" s="234"/>
+      <c r="AA19" s="234"/>
+      <c r="AB19" s="234"/>
+      <c r="AC19" s="234"/>
+      <c r="AD19" s="234"/>
+      <c r="AE19" s="234"/>
+      <c r="AF19" s="234"/>
+      <c r="AG19" s="24"/>
+      <c r="AH19" s="24"/>
+      <c r="AI19" s="24"/>
+      <c r="AJ19" s="24"/>
+      <c r="AK19" s="24"/>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A20" s="234" t="s">
+        <v>268</v>
+      </c>
+      <c r="B20" s="234"/>
+      <c r="C20" s="234"/>
+      <c r="D20" s="234"/>
+      <c r="E20" s="234"/>
+      <c r="F20" s="234"/>
+      <c r="G20" s="234"/>
+      <c r="H20" s="234"/>
+      <c r="I20" s="234"/>
+      <c r="J20" s="234"/>
+      <c r="K20" s="234"/>
+      <c r="L20" s="234"/>
+      <c r="M20" s="234"/>
+      <c r="N20" s="234"/>
+      <c r="O20" s="234"/>
+      <c r="P20" s="234"/>
+      <c r="Q20" s="234"/>
+      <c r="R20" s="234"/>
+      <c r="S20" s="234"/>
+      <c r="T20" s="234"/>
+      <c r="U20" s="234"/>
+      <c r="V20" s="234"/>
+      <c r="W20" s="234"/>
+      <c r="X20" s="234"/>
+      <c r="Y20" s="234"/>
+      <c r="Z20" s="234"/>
+      <c r="AA20" s="234"/>
+      <c r="AB20" s="234"/>
+      <c r="AC20" s="234"/>
+      <c r="AD20" s="234"/>
+      <c r="AE20" s="234"/>
+      <c r="AF20" s="234"/>
+      <c r="AG20" s="24"/>
+      <c r="AH20" s="24"/>
+      <c r="AI20" s="24"/>
+      <c r="AJ20" s="24"/>
+      <c r="AK20" s="24"/>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A21" s="234" t="s">
+        <v>269</v>
+      </c>
+      <c r="B21" s="234"/>
+      <c r="C21" s="234"/>
+      <c r="D21" s="234"/>
+      <c r="E21" s="234"/>
+      <c r="F21" s="234"/>
+      <c r="G21" s="234"/>
+      <c r="H21" s="234"/>
+      <c r="I21" s="234"/>
+      <c r="J21" s="234"/>
+      <c r="K21" s="234"/>
+      <c r="L21" s="234"/>
+      <c r="M21" s="234"/>
+      <c r="N21" s="234"/>
+      <c r="O21" s="234"/>
+      <c r="P21" s="234"/>
+      <c r="Q21" s="234"/>
+      <c r="R21" s="234"/>
+      <c r="S21" s="234"/>
+      <c r="T21" s="234"/>
+      <c r="U21" s="234"/>
+      <c r="V21" s="234"/>
+      <c r="W21" s="234"/>
+      <c r="X21" s="234"/>
+      <c r="Y21" s="234"/>
+      <c r="Z21" s="234"/>
+      <c r="AA21" s="234"/>
+      <c r="AB21" s="234"/>
+      <c r="AC21" s="234"/>
+      <c r="AD21" s="234"/>
+      <c r="AE21" s="234"/>
+      <c r="AF21" s="234"/>
+      <c r="AG21" s="24"/>
+      <c r="AH21" s="24"/>
+      <c r="AI21" s="24"/>
+      <c r="AJ21" s="24"/>
+      <c r="AK21" s="24"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A22" s="234" t="s">
+        <v>270</v>
+      </c>
+      <c r="B22" s="234"/>
+      <c r="C22" s="234"/>
+      <c r="D22" s="234"/>
+      <c r="E22" s="234"/>
+      <c r="F22" s="234"/>
+      <c r="G22" s="234"/>
+      <c r="H22" s="234"/>
+      <c r="I22" s="234"/>
+      <c r="J22" s="234"/>
+      <c r="K22" s="234"/>
+      <c r="L22" s="234"/>
+      <c r="M22" s="234"/>
+      <c r="N22" s="234"/>
+      <c r="O22" s="234"/>
+      <c r="P22" s="234"/>
+      <c r="Q22" s="234"/>
+      <c r="R22" s="234"/>
+      <c r="S22" s="234"/>
+      <c r="T22" s="234"/>
+      <c r="U22" s="234"/>
+      <c r="V22" s="234"/>
+      <c r="W22" s="234"/>
+      <c r="X22" s="234"/>
+      <c r="Y22" s="234"/>
+      <c r="Z22" s="234"/>
+      <c r="AA22" s="234"/>
+      <c r="AB22" s="234"/>
+      <c r="AC22" s="234"/>
+      <c r="AD22" s="234"/>
+      <c r="AE22" s="234"/>
+      <c r="AF22" s="234"/>
       <c r="AG22" s="24"/>
       <c r="AH22" s="24"/>
       <c r="AI22" s="24"/>
@@ -12610,40 +12588,40 @@
       <c r="AK22" s="24"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A23" s="242" t="s">
+      <c r="A23" s="233" t="s">
         <v>271</v>
       </c>
-      <c r="B23" s="242"/>
-      <c r="C23" s="242"/>
-      <c r="D23" s="242"/>
-      <c r="E23" s="242"/>
-      <c r="F23" s="242"/>
-      <c r="G23" s="242"/>
-      <c r="H23" s="242"/>
-      <c r="I23" s="242"/>
-      <c r="J23" s="242"/>
-      <c r="K23" s="242"/>
-      <c r="L23" s="242"/>
-      <c r="M23" s="242"/>
-      <c r="N23" s="242"/>
-      <c r="O23" s="242"/>
-      <c r="P23" s="242"/>
-      <c r="Q23" s="242"/>
-      <c r="R23" s="242"/>
-      <c r="S23" s="242"/>
-      <c r="T23" s="242"/>
-      <c r="U23" s="242"/>
-      <c r="V23" s="242"/>
-      <c r="W23" s="242"/>
-      <c r="X23" s="242"/>
-      <c r="Y23" s="242"/>
-      <c r="Z23" s="242"/>
-      <c r="AA23" s="242"/>
-      <c r="AB23" s="242"/>
-      <c r="AC23" s="242"/>
-      <c r="AD23" s="242"/>
-      <c r="AE23" s="242"/>
-      <c r="AF23" s="242"/>
+      <c r="B23" s="233"/>
+      <c r="C23" s="233"/>
+      <c r="D23" s="233"/>
+      <c r="E23" s="233"/>
+      <c r="F23" s="233"/>
+      <c r="G23" s="233"/>
+      <c r="H23" s="233"/>
+      <c r="I23" s="233"/>
+      <c r="J23" s="233"/>
+      <c r="K23" s="233"/>
+      <c r="L23" s="233"/>
+      <c r="M23" s="233"/>
+      <c r="N23" s="233"/>
+      <c r="O23" s="233"/>
+      <c r="P23" s="233"/>
+      <c r="Q23" s="233"/>
+      <c r="R23" s="233"/>
+      <c r="S23" s="233"/>
+      <c r="T23" s="233"/>
+      <c r="U23" s="233"/>
+      <c r="V23" s="233"/>
+      <c r="W23" s="233"/>
+      <c r="X23" s="233"/>
+      <c r="Y23" s="233"/>
+      <c r="Z23" s="233"/>
+      <c r="AA23" s="233"/>
+      <c r="AB23" s="233"/>
+      <c r="AC23" s="233"/>
+      <c r="AD23" s="233"/>
+      <c r="AE23" s="233"/>
+      <c r="AF23" s="233"/>
       <c r="AG23" s="24"/>
       <c r="AH23" s="24"/>
       <c r="AI23" s="24"/>
@@ -12651,40 +12629,40 @@
       <c r="AK23" s="24"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A24" s="241" t="s">
+      <c r="A24" s="231" t="s">
         <v>272</v>
       </c>
-      <c r="B24" s="241"/>
-      <c r="C24" s="241"/>
-      <c r="D24" s="241"/>
-      <c r="E24" s="241"/>
-      <c r="F24" s="241"/>
-      <c r="G24" s="241"/>
-      <c r="H24" s="241"/>
-      <c r="I24" s="241"/>
-      <c r="J24" s="241"/>
-      <c r="K24" s="241"/>
-      <c r="L24" s="241"/>
-      <c r="M24" s="241"/>
-      <c r="N24" s="241"/>
-      <c r="O24" s="241"/>
-      <c r="P24" s="241"/>
-      <c r="Q24" s="241"/>
-      <c r="R24" s="241"/>
-      <c r="S24" s="241"/>
-      <c r="T24" s="241"/>
-      <c r="U24" s="241"/>
-      <c r="V24" s="241"/>
-      <c r="W24" s="241"/>
-      <c r="X24" s="241"/>
-      <c r="Y24" s="241"/>
-      <c r="Z24" s="241"/>
-      <c r="AA24" s="241"/>
-      <c r="AB24" s="241"/>
-      <c r="AC24" s="241"/>
-      <c r="AD24" s="241"/>
-      <c r="AE24" s="241"/>
-      <c r="AF24" s="241"/>
+      <c r="B24" s="231"/>
+      <c r="C24" s="231"/>
+      <c r="D24" s="231"/>
+      <c r="E24" s="231"/>
+      <c r="F24" s="231"/>
+      <c r="G24" s="231"/>
+      <c r="H24" s="231"/>
+      <c r="I24" s="231"/>
+      <c r="J24" s="231"/>
+      <c r="K24" s="231"/>
+      <c r="L24" s="231"/>
+      <c r="M24" s="231"/>
+      <c r="N24" s="231"/>
+      <c r="O24" s="231"/>
+      <c r="P24" s="231"/>
+      <c r="Q24" s="231"/>
+      <c r="R24" s="231"/>
+      <c r="S24" s="231"/>
+      <c r="T24" s="231"/>
+      <c r="U24" s="231"/>
+      <c r="V24" s="231"/>
+      <c r="W24" s="231"/>
+      <c r="X24" s="231"/>
+      <c r="Y24" s="231"/>
+      <c r="Z24" s="231"/>
+      <c r="AA24" s="231"/>
+      <c r="AB24" s="231"/>
+      <c r="AC24" s="231"/>
+      <c r="AD24" s="231"/>
+      <c r="AE24" s="231"/>
+      <c r="AF24" s="231"/>
       <c r="AG24" s="24"/>
       <c r="AH24" s="24"/>
       <c r="AI24" s="24"/>
@@ -12692,40 +12670,40 @@
       <c r="AK24" s="24"/>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A25" s="241" t="s">
+      <c r="A25" s="231" t="s">
         <v>273</v>
       </c>
-      <c r="B25" s="241"/>
-      <c r="C25" s="241"/>
-      <c r="D25" s="241"/>
-      <c r="E25" s="241"/>
-      <c r="F25" s="241"/>
-      <c r="G25" s="241"/>
-      <c r="H25" s="241"/>
-      <c r="I25" s="241"/>
-      <c r="J25" s="241"/>
-      <c r="K25" s="241"/>
-      <c r="L25" s="241"/>
-      <c r="M25" s="241"/>
-      <c r="N25" s="241"/>
-      <c r="O25" s="241"/>
-      <c r="P25" s="241"/>
-      <c r="Q25" s="241"/>
-      <c r="R25" s="241"/>
-      <c r="S25" s="241"/>
-      <c r="T25" s="241"/>
-      <c r="U25" s="241"/>
-      <c r="V25" s="241"/>
-      <c r="W25" s="241"/>
-      <c r="X25" s="241"/>
-      <c r="Y25" s="241"/>
-      <c r="Z25" s="241"/>
-      <c r="AA25" s="241"/>
-      <c r="AB25" s="241"/>
-      <c r="AC25" s="241"/>
-      <c r="AD25" s="241"/>
-      <c r="AE25" s="241"/>
-      <c r="AF25" s="241"/>
+      <c r="B25" s="231"/>
+      <c r="C25" s="231"/>
+      <c r="D25" s="231"/>
+      <c r="E25" s="231"/>
+      <c r="F25" s="231"/>
+      <c r="G25" s="231"/>
+      <c r="H25" s="231"/>
+      <c r="I25" s="231"/>
+      <c r="J25" s="231"/>
+      <c r="K25" s="231"/>
+      <c r="L25" s="231"/>
+      <c r="M25" s="231"/>
+      <c r="N25" s="231"/>
+      <c r="O25" s="231"/>
+      <c r="P25" s="231"/>
+      <c r="Q25" s="231"/>
+      <c r="R25" s="231"/>
+      <c r="S25" s="231"/>
+      <c r="T25" s="231"/>
+      <c r="U25" s="231"/>
+      <c r="V25" s="231"/>
+      <c r="W25" s="231"/>
+      <c r="X25" s="231"/>
+      <c r="Y25" s="231"/>
+      <c r="Z25" s="231"/>
+      <c r="AA25" s="231"/>
+      <c r="AB25" s="231"/>
+      <c r="AC25" s="231"/>
+      <c r="AD25" s="231"/>
+      <c r="AE25" s="231"/>
+      <c r="AF25" s="231"/>
       <c r="AG25" s="24"/>
       <c r="AH25" s="24"/>
       <c r="AI25" s="24"/>
@@ -12733,40 +12711,40 @@
       <c r="AK25" s="24"/>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A26" s="242" t="s">
+      <c r="A26" s="233" t="s">
         <v>274</v>
       </c>
-      <c r="B26" s="242"/>
-      <c r="C26" s="242"/>
-      <c r="D26" s="242"/>
-      <c r="E26" s="242"/>
-      <c r="F26" s="242"/>
-      <c r="G26" s="242"/>
-      <c r="H26" s="242"/>
-      <c r="I26" s="242"/>
-      <c r="J26" s="242"/>
-      <c r="K26" s="242"/>
-      <c r="L26" s="242"/>
-      <c r="M26" s="242"/>
-      <c r="N26" s="242"/>
-      <c r="O26" s="242"/>
-      <c r="P26" s="242"/>
-      <c r="Q26" s="242"/>
-      <c r="R26" s="242"/>
-      <c r="S26" s="242"/>
-      <c r="T26" s="242"/>
-      <c r="U26" s="242"/>
-      <c r="V26" s="242"/>
-      <c r="W26" s="242"/>
-      <c r="X26" s="242"/>
-      <c r="Y26" s="242"/>
-      <c r="Z26" s="242"/>
-      <c r="AA26" s="242"/>
-      <c r="AB26" s="242"/>
-      <c r="AC26" s="242"/>
-      <c r="AD26" s="242"/>
-      <c r="AE26" s="242"/>
-      <c r="AF26" s="242"/>
+      <c r="B26" s="233"/>
+      <c r="C26" s="233"/>
+      <c r="D26" s="233"/>
+      <c r="E26" s="233"/>
+      <c r="F26" s="233"/>
+      <c r="G26" s="233"/>
+      <c r="H26" s="233"/>
+      <c r="I26" s="233"/>
+      <c r="J26" s="233"/>
+      <c r="K26" s="233"/>
+      <c r="L26" s="233"/>
+      <c r="M26" s="233"/>
+      <c r="N26" s="233"/>
+      <c r="O26" s="233"/>
+      <c r="P26" s="233"/>
+      <c r="Q26" s="233"/>
+      <c r="R26" s="233"/>
+      <c r="S26" s="233"/>
+      <c r="T26" s="233"/>
+      <c r="U26" s="233"/>
+      <c r="V26" s="233"/>
+      <c r="W26" s="233"/>
+      <c r="X26" s="233"/>
+      <c r="Y26" s="233"/>
+      <c r="Z26" s="233"/>
+      <c r="AA26" s="233"/>
+      <c r="AB26" s="233"/>
+      <c r="AC26" s="233"/>
+      <c r="AD26" s="233"/>
+      <c r="AE26" s="233"/>
+      <c r="AF26" s="233"/>
       <c r="AG26" s="24"/>
       <c r="AH26" s="24"/>
       <c r="AI26" s="24"/>
@@ -12774,40 +12752,40 @@
       <c r="AK26" s="24"/>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A27" s="241" t="s">
+      <c r="A27" s="231" t="s">
         <v>275</v>
       </c>
-      <c r="B27" s="241"/>
-      <c r="C27" s="241"/>
-      <c r="D27" s="241"/>
-      <c r="E27" s="241"/>
-      <c r="F27" s="241"/>
-      <c r="G27" s="241"/>
-      <c r="H27" s="241"/>
-      <c r="I27" s="241"/>
-      <c r="J27" s="241"/>
-      <c r="K27" s="241"/>
-      <c r="L27" s="241"/>
-      <c r="M27" s="241"/>
-      <c r="N27" s="241"/>
-      <c r="O27" s="241"/>
-      <c r="P27" s="241"/>
-      <c r="Q27" s="241"/>
-      <c r="R27" s="241"/>
-      <c r="S27" s="241"/>
-      <c r="T27" s="241"/>
-      <c r="U27" s="241"/>
-      <c r="V27" s="241"/>
-      <c r="W27" s="241"/>
-      <c r="X27" s="241"/>
-      <c r="Y27" s="241"/>
-      <c r="Z27" s="241"/>
-      <c r="AA27" s="241"/>
-      <c r="AB27" s="241"/>
-      <c r="AC27" s="241"/>
-      <c r="AD27" s="241"/>
-      <c r="AE27" s="241"/>
-      <c r="AF27" s="241"/>
+      <c r="B27" s="231"/>
+      <c r="C27" s="231"/>
+      <c r="D27" s="231"/>
+      <c r="E27" s="231"/>
+      <c r="F27" s="231"/>
+      <c r="G27" s="231"/>
+      <c r="H27" s="231"/>
+      <c r="I27" s="231"/>
+      <c r="J27" s="231"/>
+      <c r="K27" s="231"/>
+      <c r="L27" s="231"/>
+      <c r="M27" s="231"/>
+      <c r="N27" s="231"/>
+      <c r="O27" s="231"/>
+      <c r="P27" s="231"/>
+      <c r="Q27" s="231"/>
+      <c r="R27" s="231"/>
+      <c r="S27" s="231"/>
+      <c r="T27" s="231"/>
+      <c r="U27" s="231"/>
+      <c r="V27" s="231"/>
+      <c r="W27" s="231"/>
+      <c r="X27" s="231"/>
+      <c r="Y27" s="231"/>
+      <c r="Z27" s="231"/>
+      <c r="AA27" s="231"/>
+      <c r="AB27" s="231"/>
+      <c r="AC27" s="231"/>
+      <c r="AD27" s="231"/>
+      <c r="AE27" s="231"/>
+      <c r="AF27" s="231"/>
       <c r="AG27" s="24"/>
       <c r="AH27" s="24"/>
       <c r="AI27" s="24"/>
@@ -12815,40 +12793,40 @@
       <c r="AK27" s="24"/>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A28" s="241" t="s">
+      <c r="A28" s="231" t="s">
         <v>276</v>
       </c>
-      <c r="B28" s="241"/>
-      <c r="C28" s="241"/>
-      <c r="D28" s="241"/>
-      <c r="E28" s="241"/>
-      <c r="F28" s="241"/>
-      <c r="G28" s="241"/>
-      <c r="H28" s="241"/>
-      <c r="I28" s="241"/>
-      <c r="J28" s="241"/>
-      <c r="K28" s="241"/>
-      <c r="L28" s="241"/>
-      <c r="M28" s="241"/>
-      <c r="N28" s="241"/>
-      <c r="O28" s="241"/>
-      <c r="P28" s="241"/>
-      <c r="Q28" s="241"/>
-      <c r="R28" s="241"/>
-      <c r="S28" s="241"/>
-      <c r="T28" s="241"/>
-      <c r="U28" s="241"/>
-      <c r="V28" s="241"/>
-      <c r="W28" s="241"/>
-      <c r="X28" s="241"/>
-      <c r="Y28" s="241"/>
-      <c r="Z28" s="241"/>
-      <c r="AA28" s="241"/>
-      <c r="AB28" s="241"/>
-      <c r="AC28" s="241"/>
-      <c r="AD28" s="241"/>
-      <c r="AE28" s="241"/>
-      <c r="AF28" s="241"/>
+      <c r="B28" s="231"/>
+      <c r="C28" s="231"/>
+      <c r="D28" s="231"/>
+      <c r="E28" s="231"/>
+      <c r="F28" s="231"/>
+      <c r="G28" s="231"/>
+      <c r="H28" s="231"/>
+      <c r="I28" s="231"/>
+      <c r="J28" s="231"/>
+      <c r="K28" s="231"/>
+      <c r="L28" s="231"/>
+      <c r="M28" s="231"/>
+      <c r="N28" s="231"/>
+      <c r="O28" s="231"/>
+      <c r="P28" s="231"/>
+      <c r="Q28" s="231"/>
+      <c r="R28" s="231"/>
+      <c r="S28" s="231"/>
+      <c r="T28" s="231"/>
+      <c r="U28" s="231"/>
+      <c r="V28" s="231"/>
+      <c r="W28" s="231"/>
+      <c r="X28" s="231"/>
+      <c r="Y28" s="231"/>
+      <c r="Z28" s="231"/>
+      <c r="AA28" s="231"/>
+      <c r="AB28" s="231"/>
+      <c r="AC28" s="231"/>
+      <c r="AD28" s="231"/>
+      <c r="AE28" s="231"/>
+      <c r="AF28" s="231"/>
       <c r="AG28" s="24"/>
       <c r="AH28" s="24"/>
       <c r="AI28" s="24"/>
@@ -12856,40 +12834,40 @@
       <c r="AK28" s="24"/>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A29" s="242" t="s">
+      <c r="A29" s="233" t="s">
         <v>277</v>
       </c>
-      <c r="B29" s="242"/>
-      <c r="C29" s="242"/>
-      <c r="D29" s="242"/>
-      <c r="E29" s="242"/>
-      <c r="F29" s="242"/>
-      <c r="G29" s="242"/>
-      <c r="H29" s="242"/>
-      <c r="I29" s="242"/>
-      <c r="J29" s="242"/>
-      <c r="K29" s="242"/>
-      <c r="L29" s="242"/>
-      <c r="M29" s="242"/>
-      <c r="N29" s="242"/>
-      <c r="O29" s="242"/>
-      <c r="P29" s="242"/>
-      <c r="Q29" s="242"/>
-      <c r="R29" s="242"/>
-      <c r="S29" s="242"/>
-      <c r="T29" s="242"/>
-      <c r="U29" s="242"/>
-      <c r="V29" s="242"/>
-      <c r="W29" s="242"/>
-      <c r="X29" s="242"/>
-      <c r="Y29" s="242"/>
-      <c r="Z29" s="242"/>
-      <c r="AA29" s="242"/>
-      <c r="AB29" s="242"/>
-      <c r="AC29" s="242"/>
-      <c r="AD29" s="242"/>
-      <c r="AE29" s="242"/>
-      <c r="AF29" s="242"/>
+      <c r="B29" s="233"/>
+      <c r="C29" s="233"/>
+      <c r="D29" s="233"/>
+      <c r="E29" s="233"/>
+      <c r="F29" s="233"/>
+      <c r="G29" s="233"/>
+      <c r="H29" s="233"/>
+      <c r="I29" s="233"/>
+      <c r="J29" s="233"/>
+      <c r="K29" s="233"/>
+      <c r="L29" s="233"/>
+      <c r="M29" s="233"/>
+      <c r="N29" s="233"/>
+      <c r="O29" s="233"/>
+      <c r="P29" s="233"/>
+      <c r="Q29" s="233"/>
+      <c r="R29" s="233"/>
+      <c r="S29" s="233"/>
+      <c r="T29" s="233"/>
+      <c r="U29" s="233"/>
+      <c r="V29" s="233"/>
+      <c r="W29" s="233"/>
+      <c r="X29" s="233"/>
+      <c r="Y29" s="233"/>
+      <c r="Z29" s="233"/>
+      <c r="AA29" s="233"/>
+      <c r="AB29" s="233"/>
+      <c r="AC29" s="233"/>
+      <c r="AD29" s="233"/>
+      <c r="AE29" s="233"/>
+      <c r="AF29" s="233"/>
       <c r="AG29" s="24"/>
       <c r="AH29" s="24"/>
       <c r="AI29" s="24"/>
@@ -12897,40 +12875,40 @@
       <c r="AK29" s="24"/>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A30" s="241" t="s">
+      <c r="A30" s="231" t="s">
         <v>278</v>
       </c>
-      <c r="B30" s="241"/>
-      <c r="C30" s="241"/>
-      <c r="D30" s="241"/>
-      <c r="E30" s="241"/>
-      <c r="F30" s="241"/>
-      <c r="G30" s="241"/>
-      <c r="H30" s="241"/>
-      <c r="I30" s="241"/>
-      <c r="J30" s="241"/>
-      <c r="K30" s="241"/>
-      <c r="L30" s="241"/>
-      <c r="M30" s="241"/>
-      <c r="N30" s="241"/>
-      <c r="O30" s="241"/>
-      <c r="P30" s="241"/>
-      <c r="Q30" s="241"/>
-      <c r="R30" s="241"/>
-      <c r="S30" s="241"/>
-      <c r="T30" s="241"/>
-      <c r="U30" s="241"/>
-      <c r="V30" s="241"/>
-      <c r="W30" s="241"/>
-      <c r="X30" s="241"/>
-      <c r="Y30" s="241"/>
-      <c r="Z30" s="241"/>
-      <c r="AA30" s="241"/>
-      <c r="AB30" s="241"/>
-      <c r="AC30" s="241"/>
-      <c r="AD30" s="241"/>
-      <c r="AE30" s="241"/>
-      <c r="AF30" s="241"/>
+      <c r="B30" s="231"/>
+      <c r="C30" s="231"/>
+      <c r="D30" s="231"/>
+      <c r="E30" s="231"/>
+      <c r="F30" s="231"/>
+      <c r="G30" s="231"/>
+      <c r="H30" s="231"/>
+      <c r="I30" s="231"/>
+      <c r="J30" s="231"/>
+      <c r="K30" s="231"/>
+      <c r="L30" s="231"/>
+      <c r="M30" s="231"/>
+      <c r="N30" s="231"/>
+      <c r="O30" s="231"/>
+      <c r="P30" s="231"/>
+      <c r="Q30" s="231"/>
+      <c r="R30" s="231"/>
+      <c r="S30" s="231"/>
+      <c r="T30" s="231"/>
+      <c r="U30" s="231"/>
+      <c r="V30" s="231"/>
+      <c r="W30" s="231"/>
+      <c r="X30" s="231"/>
+      <c r="Y30" s="231"/>
+      <c r="Z30" s="231"/>
+      <c r="AA30" s="231"/>
+      <c r="AB30" s="231"/>
+      <c r="AC30" s="231"/>
+      <c r="AD30" s="231"/>
+      <c r="AE30" s="231"/>
+      <c r="AF30" s="231"/>
       <c r="AG30" s="24"/>
       <c r="AH30" s="24"/>
       <c r="AI30" s="24"/>
@@ -12938,40 +12916,40 @@
       <c r="AK30" s="24"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A31" s="241" t="s">
+      <c r="A31" s="231" t="s">
         <v>279</v>
       </c>
-      <c r="B31" s="241"/>
-      <c r="C31" s="241"/>
-      <c r="D31" s="241"/>
-      <c r="E31" s="241"/>
-      <c r="F31" s="241"/>
-      <c r="G31" s="241"/>
-      <c r="H31" s="241"/>
-      <c r="I31" s="241"/>
-      <c r="J31" s="241"/>
-      <c r="K31" s="241"/>
-      <c r="L31" s="241"/>
-      <c r="M31" s="241"/>
-      <c r="N31" s="241"/>
-      <c r="O31" s="241"/>
-      <c r="P31" s="241"/>
-      <c r="Q31" s="241"/>
-      <c r="R31" s="241"/>
-      <c r="S31" s="241"/>
-      <c r="T31" s="241"/>
-      <c r="U31" s="241"/>
-      <c r="V31" s="241"/>
-      <c r="W31" s="241"/>
-      <c r="X31" s="241"/>
-      <c r="Y31" s="241"/>
-      <c r="Z31" s="241"/>
-      <c r="AA31" s="241"/>
-      <c r="AB31" s="241"/>
-      <c r="AC31" s="241"/>
-      <c r="AD31" s="241"/>
-      <c r="AE31" s="241"/>
-      <c r="AF31" s="241"/>
+      <c r="B31" s="231"/>
+      <c r="C31" s="231"/>
+      <c r="D31" s="231"/>
+      <c r="E31" s="231"/>
+      <c r="F31" s="231"/>
+      <c r="G31" s="231"/>
+      <c r="H31" s="231"/>
+      <c r="I31" s="231"/>
+      <c r="J31" s="231"/>
+      <c r="K31" s="231"/>
+      <c r="L31" s="231"/>
+      <c r="M31" s="231"/>
+      <c r="N31" s="231"/>
+      <c r="O31" s="231"/>
+      <c r="P31" s="231"/>
+      <c r="Q31" s="231"/>
+      <c r="R31" s="231"/>
+      <c r="S31" s="231"/>
+      <c r="T31" s="231"/>
+      <c r="U31" s="231"/>
+      <c r="V31" s="231"/>
+      <c r="W31" s="231"/>
+      <c r="X31" s="231"/>
+      <c r="Y31" s="231"/>
+      <c r="Z31" s="231"/>
+      <c r="AA31" s="231"/>
+      <c r="AB31" s="231"/>
+      <c r="AC31" s="231"/>
+      <c r="AD31" s="231"/>
+      <c r="AE31" s="231"/>
+      <c r="AF31" s="231"/>
       <c r="AG31" s="24"/>
       <c r="AH31" s="24"/>
       <c r="AI31" s="24"/>
@@ -12979,40 +12957,40 @@
       <c r="AK31" s="24"/>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A32" s="241" t="s">
+      <c r="A32" s="231" t="s">
         <v>280</v>
       </c>
-      <c r="B32" s="241"/>
-      <c r="C32" s="241"/>
-      <c r="D32" s="241"/>
-      <c r="E32" s="241"/>
-      <c r="F32" s="241"/>
-      <c r="G32" s="241"/>
-      <c r="H32" s="241"/>
-      <c r="I32" s="241"/>
-      <c r="J32" s="241"/>
-      <c r="K32" s="241"/>
-      <c r="L32" s="241"/>
-      <c r="M32" s="241"/>
-      <c r="N32" s="241"/>
-      <c r="O32" s="241"/>
-      <c r="P32" s="241"/>
-      <c r="Q32" s="241"/>
-      <c r="R32" s="241"/>
-      <c r="S32" s="241"/>
-      <c r="T32" s="241"/>
-      <c r="U32" s="241"/>
-      <c r="V32" s="241"/>
-      <c r="W32" s="241"/>
-      <c r="X32" s="241"/>
-      <c r="Y32" s="241"/>
-      <c r="Z32" s="241"/>
-      <c r="AA32" s="241"/>
-      <c r="AB32" s="241"/>
-      <c r="AC32" s="241"/>
-      <c r="AD32" s="241"/>
-      <c r="AE32" s="241"/>
-      <c r="AF32" s="241"/>
+      <c r="B32" s="231"/>
+      <c r="C32" s="231"/>
+      <c r="D32" s="231"/>
+      <c r="E32" s="231"/>
+      <c r="F32" s="231"/>
+      <c r="G32" s="231"/>
+      <c r="H32" s="231"/>
+      <c r="I32" s="231"/>
+      <c r="J32" s="231"/>
+      <c r="K32" s="231"/>
+      <c r="L32" s="231"/>
+      <c r="M32" s="231"/>
+      <c r="N32" s="231"/>
+      <c r="O32" s="231"/>
+      <c r="P32" s="231"/>
+      <c r="Q32" s="231"/>
+      <c r="R32" s="231"/>
+      <c r="S32" s="231"/>
+      <c r="T32" s="231"/>
+      <c r="U32" s="231"/>
+      <c r="V32" s="231"/>
+      <c r="W32" s="231"/>
+      <c r="X32" s="231"/>
+      <c r="Y32" s="231"/>
+      <c r="Z32" s="231"/>
+      <c r="AA32" s="231"/>
+      <c r="AB32" s="231"/>
+      <c r="AC32" s="231"/>
+      <c r="AD32" s="231"/>
+      <c r="AE32" s="231"/>
+      <c r="AF32" s="231"/>
       <c r="AG32" s="24"/>
       <c r="AH32" s="24"/>
       <c r="AI32" s="24"/>
@@ -13020,40 +12998,40 @@
       <c r="AK32" s="24"/>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A33" s="247" t="s">
+      <c r="A33" s="243" t="s">
         <v>281</v>
       </c>
-      <c r="B33" s="247"/>
-      <c r="C33" s="247"/>
-      <c r="D33" s="247"/>
-      <c r="E33" s="247"/>
-      <c r="F33" s="247"/>
-      <c r="G33" s="247"/>
-      <c r="H33" s="247"/>
-      <c r="I33" s="247"/>
-      <c r="J33" s="247"/>
-      <c r="K33" s="247"/>
-      <c r="L33" s="247"/>
-      <c r="M33" s="247"/>
-      <c r="N33" s="247"/>
-      <c r="O33" s="247"/>
-      <c r="P33" s="247"/>
-      <c r="Q33" s="247"/>
-      <c r="R33" s="247"/>
-      <c r="S33" s="247"/>
-      <c r="T33" s="247"/>
-      <c r="U33" s="247"/>
-      <c r="V33" s="247"/>
-      <c r="W33" s="247"/>
-      <c r="X33" s="247"/>
-      <c r="Y33" s="247"/>
-      <c r="Z33" s="247"/>
-      <c r="AA33" s="247"/>
-      <c r="AB33" s="247"/>
-      <c r="AC33" s="247"/>
-      <c r="AD33" s="247"/>
-      <c r="AE33" s="247"/>
-      <c r="AF33" s="247"/>
+      <c r="B33" s="243"/>
+      <c r="C33" s="243"/>
+      <c r="D33" s="243"/>
+      <c r="E33" s="243"/>
+      <c r="F33" s="243"/>
+      <c r="G33" s="243"/>
+      <c r="H33" s="243"/>
+      <c r="I33" s="243"/>
+      <c r="J33" s="243"/>
+      <c r="K33" s="243"/>
+      <c r="L33" s="243"/>
+      <c r="M33" s="243"/>
+      <c r="N33" s="243"/>
+      <c r="O33" s="243"/>
+      <c r="P33" s="243"/>
+      <c r="Q33" s="243"/>
+      <c r="R33" s="243"/>
+      <c r="S33" s="243"/>
+      <c r="T33" s="243"/>
+      <c r="U33" s="243"/>
+      <c r="V33" s="243"/>
+      <c r="W33" s="243"/>
+      <c r="X33" s="243"/>
+      <c r="Y33" s="243"/>
+      <c r="Z33" s="243"/>
+      <c r="AA33" s="243"/>
+      <c r="AB33" s="243"/>
+      <c r="AC33" s="243"/>
+      <c r="AD33" s="243"/>
+      <c r="AE33" s="243"/>
+      <c r="AF33" s="243"/>
       <c r="AG33" s="196"/>
       <c r="AH33" s="196"/>
       <c r="AI33" s="196"/>
@@ -13061,40 +13039,40 @@
       <c r="AK33" s="196"/>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A34" s="231" t="s">
+      <c r="A34" s="234" t="s">
         <v>282</v>
       </c>
-      <c r="B34" s="231"/>
-      <c r="C34" s="231"/>
-      <c r="D34" s="231"/>
-      <c r="E34" s="231"/>
-      <c r="F34" s="231"/>
-      <c r="G34" s="231"/>
-      <c r="H34" s="231"/>
-      <c r="I34" s="231"/>
-      <c r="J34" s="231"/>
-      <c r="K34" s="231"/>
-      <c r="L34" s="231"/>
-      <c r="M34" s="231"/>
-      <c r="N34" s="231"/>
-      <c r="O34" s="231"/>
-      <c r="P34" s="231"/>
-      <c r="Q34" s="231"/>
-      <c r="R34" s="231"/>
-      <c r="S34" s="231"/>
-      <c r="T34" s="231"/>
-      <c r="U34" s="231"/>
-      <c r="V34" s="231"/>
-      <c r="W34" s="231"/>
-      <c r="X34" s="231"/>
-      <c r="Y34" s="231"/>
-      <c r="Z34" s="231"/>
-      <c r="AA34" s="231"/>
-      <c r="AB34" s="231"/>
-      <c r="AC34" s="231"/>
-      <c r="AD34" s="231"/>
-      <c r="AE34" s="231"/>
-      <c r="AF34" s="231"/>
+      <c r="B34" s="234"/>
+      <c r="C34" s="234"/>
+      <c r="D34" s="234"/>
+      <c r="E34" s="234"/>
+      <c r="F34" s="234"/>
+      <c r="G34" s="234"/>
+      <c r="H34" s="234"/>
+      <c r="I34" s="234"/>
+      <c r="J34" s="234"/>
+      <c r="K34" s="234"/>
+      <c r="L34" s="234"/>
+      <c r="M34" s="234"/>
+      <c r="N34" s="234"/>
+      <c r="O34" s="234"/>
+      <c r="P34" s="234"/>
+      <c r="Q34" s="234"/>
+      <c r="R34" s="234"/>
+      <c r="S34" s="234"/>
+      <c r="T34" s="234"/>
+      <c r="U34" s="234"/>
+      <c r="V34" s="234"/>
+      <c r="W34" s="234"/>
+      <c r="X34" s="234"/>
+      <c r="Y34" s="234"/>
+      <c r="Z34" s="234"/>
+      <c r="AA34" s="234"/>
+      <c r="AB34" s="234"/>
+      <c r="AC34" s="234"/>
+      <c r="AD34" s="234"/>
+      <c r="AE34" s="234"/>
+      <c r="AF34" s="234"/>
       <c r="AG34" s="24"/>
       <c r="AH34" s="24"/>
       <c r="AI34" s="24"/>
@@ -13102,40 +13080,40 @@
       <c r="AK34" s="24"/>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A35" s="231" t="s">
+      <c r="A35" s="234" t="s">
         <v>283</v>
       </c>
-      <c r="B35" s="231"/>
-      <c r="C35" s="231"/>
-      <c r="D35" s="231"/>
-      <c r="E35" s="231"/>
-      <c r="F35" s="231"/>
-      <c r="G35" s="231"/>
-      <c r="H35" s="231"/>
-      <c r="I35" s="231"/>
-      <c r="J35" s="231"/>
-      <c r="K35" s="231"/>
-      <c r="L35" s="231"/>
-      <c r="M35" s="231"/>
-      <c r="N35" s="231"/>
-      <c r="O35" s="231"/>
-      <c r="P35" s="231"/>
-      <c r="Q35" s="231"/>
-      <c r="R35" s="231"/>
-      <c r="S35" s="231"/>
-      <c r="T35" s="231"/>
-      <c r="U35" s="231"/>
-      <c r="V35" s="231"/>
-      <c r="W35" s="231"/>
-      <c r="X35" s="231"/>
-      <c r="Y35" s="231"/>
-      <c r="Z35" s="231"/>
-      <c r="AA35" s="231"/>
-      <c r="AB35" s="231"/>
-      <c r="AC35" s="231"/>
-      <c r="AD35" s="231"/>
-      <c r="AE35" s="231"/>
-      <c r="AF35" s="231"/>
+      <c r="B35" s="234"/>
+      <c r="C35" s="234"/>
+      <c r="D35" s="234"/>
+      <c r="E35" s="234"/>
+      <c r="F35" s="234"/>
+      <c r="G35" s="234"/>
+      <c r="H35" s="234"/>
+      <c r="I35" s="234"/>
+      <c r="J35" s="234"/>
+      <c r="K35" s="234"/>
+      <c r="L35" s="234"/>
+      <c r="M35" s="234"/>
+      <c r="N35" s="234"/>
+      <c r="O35" s="234"/>
+      <c r="P35" s="234"/>
+      <c r="Q35" s="234"/>
+      <c r="R35" s="234"/>
+      <c r="S35" s="234"/>
+      <c r="T35" s="234"/>
+      <c r="U35" s="234"/>
+      <c r="V35" s="234"/>
+      <c r="W35" s="234"/>
+      <c r="X35" s="234"/>
+      <c r="Y35" s="234"/>
+      <c r="Z35" s="234"/>
+      <c r="AA35" s="234"/>
+      <c r="AB35" s="234"/>
+      <c r="AC35" s="234"/>
+      <c r="AD35" s="234"/>
+      <c r="AE35" s="234"/>
+      <c r="AF35" s="234"/>
       <c r="AG35" s="24"/>
       <c r="AH35" s="24"/>
       <c r="AI35" s="24"/>
@@ -13144,11 +13122,18 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A31:AF31"/>
-    <mergeCell ref="A32:AF32"/>
-    <mergeCell ref="A33:AF33"/>
-    <mergeCell ref="A34:AF34"/>
-    <mergeCell ref="A35:AF35"/>
+    <mergeCell ref="A18:AF18"/>
+    <mergeCell ref="A1:AL1"/>
+    <mergeCell ref="A8:AF8"/>
+    <mergeCell ref="A9:AF9"/>
+    <mergeCell ref="A10:AF10"/>
+    <mergeCell ref="A11:AF11"/>
+    <mergeCell ref="A12:AF12"/>
+    <mergeCell ref="A13:AF13"/>
+    <mergeCell ref="A14:AF14"/>
+    <mergeCell ref="A15:AF15"/>
+    <mergeCell ref="A16:AF16"/>
+    <mergeCell ref="A17:AF17"/>
     <mergeCell ref="A30:AF30"/>
     <mergeCell ref="A19:AF19"/>
     <mergeCell ref="A20:AF20"/>
@@ -13161,18 +13146,11 @@
     <mergeCell ref="A27:AF27"/>
     <mergeCell ref="A28:AF28"/>
     <mergeCell ref="A29:AF29"/>
-    <mergeCell ref="A18:AF18"/>
-    <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="A8:AF8"/>
-    <mergeCell ref="A9:AF9"/>
-    <mergeCell ref="A10:AF10"/>
-    <mergeCell ref="A11:AF11"/>
-    <mergeCell ref="A12:AF12"/>
-    <mergeCell ref="A13:AF13"/>
-    <mergeCell ref="A14:AF14"/>
-    <mergeCell ref="A15:AF15"/>
-    <mergeCell ref="A16:AF16"/>
-    <mergeCell ref="A17:AF17"/>
+    <mergeCell ref="A31:AF31"/>
+    <mergeCell ref="A32:AF32"/>
+    <mergeCell ref="A33:AF33"/>
+    <mergeCell ref="A34:AF34"/>
+    <mergeCell ref="A35:AF35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24271,173 +24249,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="265" t="s">
+      <c r="A1" s="248" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="265"/>
-      <c r="C1" s="265"/>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
-      <c r="F1" s="265"/>
-      <c r="G1" s="265"/>
-      <c r="H1" s="265"/>
-      <c r="I1" s="265"/>
-      <c r="J1" s="265"/>
-      <c r="K1" s="265" t="s">
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="248"/>
+      <c r="E1" s="248"/>
+      <c r="F1" s="248"/>
+      <c r="G1" s="248"/>
+      <c r="H1" s="248"/>
+      <c r="I1" s="248"/>
+      <c r="J1" s="248"/>
+      <c r="K1" s="248" t="s">
         <v>288</v>
       </c>
-      <c r="L1" s="265"/>
-      <c r="M1" s="265"/>
-      <c r="N1" s="265"/>
-      <c r="O1" s="265"/>
-      <c r="P1" s="265"/>
-      <c r="Q1" s="265"/>
-      <c r="R1" s="265"/>
-      <c r="S1" s="265"/>
-      <c r="T1" s="265"/>
-      <c r="U1" s="265"/>
-      <c r="V1" s="265"/>
+      <c r="L1" s="248"/>
+      <c r="M1" s="248"/>
+      <c r="N1" s="248"/>
+      <c r="O1" s="248"/>
+      <c r="P1" s="248"/>
+      <c r="Q1" s="248"/>
+      <c r="R1" s="248"/>
+      <c r="S1" s="248"/>
+      <c r="T1" s="248"/>
+      <c r="U1" s="248"/>
+      <c r="V1" s="248"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="266" t="s">
+      <c r="A2" s="249" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="266"/>
-      <c r="C2" s="266"/>
-      <c r="D2" s="266"/>
-      <c r="E2" s="266"/>
-      <c r="F2" s="266"/>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="266"/>
-      <c r="J2" s="266"/>
-      <c r="K2" s="266" t="s">
+      <c r="B2" s="249"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="249"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="249"/>
+      <c r="J2" s="249"/>
+      <c r="K2" s="249" t="s">
         <v>289</v>
       </c>
-      <c r="L2" s="266"/>
-      <c r="M2" s="266"/>
-      <c r="N2" s="266"/>
-      <c r="O2" s="266"/>
-      <c r="P2" s="266"/>
-      <c r="Q2" s="266"/>
-      <c r="R2" s="266"/>
-      <c r="S2" s="266"/>
-      <c r="T2" s="266"/>
-      <c r="U2" s="266"/>
-      <c r="V2" s="266"/>
+      <c r="L2" s="249"/>
+      <c r="M2" s="249"/>
+      <c r="N2" s="249"/>
+      <c r="O2" s="249"/>
+      <c r="P2" s="249"/>
+      <c r="Q2" s="249"/>
+      <c r="R2" s="249"/>
+      <c r="S2" s="249"/>
+      <c r="T2" s="249"/>
+      <c r="U2" s="249"/>
+      <c r="V2" s="249"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="267" t="s">
+      <c r="A3" s="250" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="268"/>
-      <c r="C3" s="268"/>
-      <c r="D3" s="268"/>
-      <c r="E3" s="268"/>
-      <c r="F3" s="268"/>
-      <c r="G3" s="268"/>
-      <c r="H3" s="268"/>
-      <c r="I3" s="268"/>
-      <c r="J3" s="269"/>
-      <c r="K3" s="270" t="s">
+      <c r="B3" s="251"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="251"/>
+      <c r="G3" s="251"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="251"/>
+      <c r="J3" s="252"/>
+      <c r="K3" s="253" t="s">
         <v>290</v>
       </c>
-      <c r="L3" s="271"/>
-      <c r="M3" s="271"/>
-      <c r="N3" s="271"/>
-      <c r="O3" s="271"/>
-      <c r="P3" s="271"/>
-      <c r="Q3" s="271"/>
-      <c r="R3" s="271"/>
-      <c r="S3" s="271"/>
-      <c r="T3" s="271"/>
-      <c r="U3" s="271"/>
-      <c r="V3" s="272"/>
+      <c r="L3" s="254"/>
+      <c r="M3" s="254"/>
+      <c r="N3" s="254"/>
+      <c r="O3" s="254"/>
+      <c r="P3" s="254"/>
+      <c r="Q3" s="254"/>
+      <c r="R3" s="254"/>
+      <c r="S3" s="254"/>
+      <c r="T3" s="254"/>
+      <c r="U3" s="254"/>
+      <c r="V3" s="255"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="259" t="s">
+      <c r="A4" s="256" t="s">
         <v>291</v>
       </c>
-      <c r="B4" s="260"/>
-      <c r="C4" s="260"/>
-      <c r="D4" s="260"/>
-      <c r="E4" s="260"/>
-      <c r="F4" s="260"/>
-      <c r="G4" s="260"/>
-      <c r="H4" s="260"/>
-      <c r="I4" s="260"/>
-      <c r="J4" s="261"/>
-      <c r="K4" s="262" t="s">
+      <c r="B4" s="257"/>
+      <c r="C4" s="257"/>
+      <c r="D4" s="257"/>
+      <c r="E4" s="257"/>
+      <c r="F4" s="257"/>
+      <c r="G4" s="257"/>
+      <c r="H4" s="257"/>
+      <c r="I4" s="257"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="259" t="s">
         <v>292</v>
       </c>
-      <c r="L4" s="263"/>
-      <c r="M4" s="263"/>
-      <c r="N4" s="263"/>
-      <c r="O4" s="263"/>
-      <c r="P4" s="263"/>
-      <c r="Q4" s="263"/>
-      <c r="R4" s="263"/>
-      <c r="S4" s="263"/>
-      <c r="T4" s="263"/>
-      <c r="U4" s="263"/>
-      <c r="V4" s="264"/>
+      <c r="L4" s="260"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="260"/>
+      <c r="S4" s="260"/>
+      <c r="T4" s="260"/>
+      <c r="U4" s="260"/>
+      <c r="V4" s="261"/>
     </row>
     <row r="5" spans="1:23" s="199" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="248" t="s">
+      <c r="A5" s="262" t="s">
         <v>293</v>
       </c>
-      <c r="B5" s="250" t="s">
+      <c r="B5" s="264" t="s">
         <v>294</v>
       </c>
-      <c r="C5" s="251"/>
-      <c r="D5" s="251"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="248" t="s">
+      <c r="C5" s="265"/>
+      <c r="D5" s="265"/>
+      <c r="E5" s="266"/>
+      <c r="F5" s="262" t="s">
         <v>295</v>
       </c>
-      <c r="G5" s="248" t="s">
+      <c r="G5" s="262" t="s">
         <v>296</v>
       </c>
-      <c r="H5" s="248" t="s">
+      <c r="H5" s="262" t="s">
         <v>297</v>
       </c>
-      <c r="I5" s="248" t="s">
+      <c r="I5" s="262" t="s">
         <v>298</v>
       </c>
-      <c r="J5" s="248" t="s">
+      <c r="J5" s="262" t="s">
         <v>299</v>
       </c>
-      <c r="K5" s="248" t="s">
+      <c r="K5" s="262" t="s">
         <v>293</v>
       </c>
-      <c r="L5" s="250" t="s">
+      <c r="L5" s="264" t="s">
         <v>300</v>
       </c>
-      <c r="M5" s="251"/>
-      <c r="N5" s="252"/>
-      <c r="O5" s="253" t="s">
+      <c r="M5" s="265"/>
+      <c r="N5" s="266"/>
+      <c r="O5" s="267" t="s">
         <v>301</v>
       </c>
-      <c r="P5" s="255" t="s">
+      <c r="P5" s="269" t="s">
         <v>302</v>
       </c>
-      <c r="Q5" s="251"/>
-      <c r="R5" s="256"/>
-      <c r="S5" s="257" t="s">
+      <c r="Q5" s="265"/>
+      <c r="R5" s="270"/>
+      <c r="S5" s="271" t="s">
         <v>303</v>
       </c>
-      <c r="T5" s="248" t="s">
+      <c r="T5" s="262" t="s">
         <v>304</v>
       </c>
-      <c r="U5" s="248" t="s">
+      <c r="U5" s="262" t="s">
         <v>305</v>
       </c>
-      <c r="V5" s="248" t="s">
+      <c r="V5" s="262" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="249"/>
+      <c r="A6" s="263"/>
       <c r="B6" s="200" t="s">
         <v>307</v>
       </c>
@@ -24450,12 +24428,12 @@
       <c r="E6" s="200" t="s">
         <v>310</v>
       </c>
-      <c r="F6" s="249"/>
-      <c r="G6" s="249"/>
-      <c r="H6" s="249"/>
-      <c r="I6" s="249"/>
-      <c r="J6" s="249"/>
-      <c r="K6" s="249"/>
+      <c r="F6" s="263"/>
+      <c r="G6" s="263"/>
+      <c r="H6" s="263"/>
+      <c r="I6" s="263"/>
+      <c r="J6" s="263"/>
+      <c r="K6" s="263"/>
       <c r="L6" s="200" t="s">
         <v>311</v>
       </c>
@@ -24465,7 +24443,7 @@
       <c r="N6" s="200" t="s">
         <v>313</v>
       </c>
-      <c r="O6" s="254"/>
+      <c r="O6" s="268"/>
       <c r="P6" s="200" t="s">
         <v>314</v>
       </c>
@@ -24475,10 +24453,10 @@
       <c r="R6" s="200" t="s">
         <v>316</v>
       </c>
-      <c r="S6" s="258"/>
-      <c r="T6" s="249"/>
-      <c r="U6" s="249"/>
-      <c r="V6" s="249"/>
+      <c r="S6" s="272"/>
+      <c r="T6" s="263"/>
+      <c r="U6" s="263"/>
+      <c r="V6" s="263"/>
       <c r="W6" s="201" t="s">
         <v>317</v>
       </c>
@@ -28599,12 +28577,7 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K1:V1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="K2:V2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="K3:V3"/>
+    <mergeCell ref="U5:U6"/>
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="K4:V4"/>
     <mergeCell ref="A5:A6"/>
@@ -28621,7 +28594,12 @@
     <mergeCell ref="P5:R5"/>
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K1:V1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="K2:V2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="K3:V3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="W6" location="TOC!A1" display="RETURN TO TABLE OF CONTENTS" xr:uid="{15849D88-5BED-4E10-A2CF-89F1D9F52D67}"/>
@@ -28644,201 +28622,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="273" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="286"/>
-      <c r="C1" s="286"/>
-      <c r="D1" s="286"/>
-      <c r="E1" s="286"/>
-      <c r="F1" s="286"/>
-      <c r="G1" s="286"/>
-      <c r="H1" s="286"/>
-      <c r="I1" s="286"/>
-      <c r="J1" s="286"/>
-      <c r="K1" s="287" t="s">
+      <c r="B1" s="273"/>
+      <c r="C1" s="273"/>
+      <c r="D1" s="273"/>
+      <c r="E1" s="273"/>
+      <c r="F1" s="273"/>
+      <c r="G1" s="273"/>
+      <c r="H1" s="273"/>
+      <c r="I1" s="273"/>
+      <c r="J1" s="273"/>
+      <c r="K1" s="274" t="s">
         <v>334</v>
       </c>
-      <c r="L1" s="287"/>
-      <c r="M1" s="287"/>
-      <c r="N1" s="287"/>
-      <c r="O1" s="287"/>
-      <c r="P1" s="287"/>
-      <c r="Q1" s="287"/>
-      <c r="R1" s="287"/>
-      <c r="S1" s="287"/>
-      <c r="T1" s="287"/>
-      <c r="U1" s="287"/>
-      <c r="V1" s="287"/>
+      <c r="L1" s="274"/>
+      <c r="M1" s="274"/>
+      <c r="N1" s="274"/>
+      <c r="O1" s="274"/>
+      <c r="P1" s="274"/>
+      <c r="Q1" s="274"/>
+      <c r="R1" s="274"/>
+      <c r="S1" s="274"/>
+      <c r="T1" s="274"/>
+      <c r="U1" s="274"/>
+      <c r="V1" s="274"/>
     </row>
     <row r="2" spans="1:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="266" t="s">
+      <c r="A2" s="249" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="266"/>
-      <c r="C2" s="266"/>
-      <c r="D2" s="266"/>
-      <c r="E2" s="266"/>
-      <c r="F2" s="266"/>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="266"/>
-      <c r="J2" s="266"/>
-      <c r="K2" s="266" t="s">
+      <c r="B2" s="249"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="249"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="249"/>
+      <c r="J2" s="249"/>
+      <c r="K2" s="249" t="s">
         <v>289</v>
       </c>
-      <c r="L2" s="266"/>
-      <c r="M2" s="266"/>
-      <c r="N2" s="266"/>
-      <c r="O2" s="266"/>
-      <c r="P2" s="266"/>
-      <c r="Q2" s="266"/>
-      <c r="R2" s="266"/>
-      <c r="S2" s="266"/>
-      <c r="T2" s="266"/>
-      <c r="U2" s="266"/>
-      <c r="V2" s="266"/>
+      <c r="L2" s="249"/>
+      <c r="M2" s="249"/>
+      <c r="N2" s="249"/>
+      <c r="O2" s="249"/>
+      <c r="P2" s="249"/>
+      <c r="Q2" s="249"/>
+      <c r="R2" s="249"/>
+      <c r="S2" s="249"/>
+      <c r="T2" s="249"/>
+      <c r="U2" s="249"/>
+      <c r="V2" s="249"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="270" t="s">
+      <c r="A3" s="253" t="s">
         <v>335</v>
       </c>
-      <c r="B3" s="271"/>
-      <c r="C3" s="271"/>
-      <c r="D3" s="271"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="271"/>
-      <c r="G3" s="271"/>
-      <c r="H3" s="271"/>
-      <c r="I3" s="271"/>
-      <c r="J3" s="288"/>
-      <c r="K3" s="289" t="s">
+      <c r="B3" s="254"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="275"/>
+      <c r="K3" s="276" t="s">
         <v>335</v>
       </c>
-      <c r="L3" s="271"/>
-      <c r="M3" s="271"/>
-      <c r="N3" s="271"/>
-      <c r="O3" s="271"/>
-      <c r="P3" s="271"/>
-      <c r="Q3" s="271"/>
-      <c r="R3" s="271"/>
-      <c r="S3" s="271"/>
-      <c r="T3" s="271"/>
-      <c r="U3" s="271"/>
-      <c r="V3" s="288"/>
+      <c r="L3" s="254"/>
+      <c r="M3" s="254"/>
+      <c r="N3" s="254"/>
+      <c r="O3" s="254"/>
+      <c r="P3" s="254"/>
+      <c r="Q3" s="254"/>
+      <c r="R3" s="254"/>
+      <c r="S3" s="254"/>
+      <c r="T3" s="254"/>
+      <c r="U3" s="254"/>
+      <c r="V3" s="275"/>
     </row>
     <row r="4" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="259" t="s">
+      <c r="A4" s="256" t="s">
         <v>336</v>
       </c>
-      <c r="B4" s="260"/>
-      <c r="C4" s="260"/>
-      <c r="D4" s="260"/>
-      <c r="E4" s="260"/>
-      <c r="F4" s="260"/>
-      <c r="G4" s="260"/>
-      <c r="H4" s="260"/>
-      <c r="I4" s="260"/>
-      <c r="J4" s="261"/>
-      <c r="K4" s="282" t="s">
+      <c r="B4" s="257"/>
+      <c r="C4" s="257"/>
+      <c r="D4" s="257"/>
+      <c r="E4" s="257"/>
+      <c r="F4" s="257"/>
+      <c r="G4" s="257"/>
+      <c r="H4" s="257"/>
+      <c r="I4" s="257"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="277" t="s">
         <v>336</v>
       </c>
-      <c r="L4" s="260"/>
-      <c r="M4" s="260"/>
-      <c r="N4" s="260"/>
-      <c r="O4" s="260"/>
-      <c r="P4" s="260"/>
-      <c r="Q4" s="260"/>
-      <c r="R4" s="260"/>
-      <c r="S4" s="260"/>
-      <c r="T4" s="260"/>
-      <c r="U4" s="260"/>
-      <c r="V4" s="261"/>
+      <c r="L4" s="257"/>
+      <c r="M4" s="257"/>
+      <c r="N4" s="257"/>
+      <c r="O4" s="257"/>
+      <c r="P4" s="257"/>
+      <c r="Q4" s="257"/>
+      <c r="R4" s="257"/>
+      <c r="S4" s="257"/>
+      <c r="T4" s="257"/>
+      <c r="U4" s="257"/>
+      <c r="V4" s="258"/>
     </row>
     <row r="5" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="283" t="s">
+      <c r="A5" s="278" t="s">
         <v>291</v>
       </c>
-      <c r="B5" s="284"/>
-      <c r="C5" s="284"/>
-      <c r="D5" s="284"/>
-      <c r="E5" s="284"/>
-      <c r="F5" s="284"/>
-      <c r="G5" s="284"/>
-      <c r="H5" s="284"/>
-      <c r="I5" s="284"/>
-      <c r="J5" s="285"/>
-      <c r="K5" s="283" t="s">
+      <c r="B5" s="279"/>
+      <c r="C5" s="279"/>
+      <c r="D5" s="279"/>
+      <c r="E5" s="279"/>
+      <c r="F5" s="279"/>
+      <c r="G5" s="279"/>
+      <c r="H5" s="279"/>
+      <c r="I5" s="279"/>
+      <c r="J5" s="280"/>
+      <c r="K5" s="278" t="s">
         <v>337</v>
       </c>
-      <c r="L5" s="284"/>
-      <c r="M5" s="284"/>
-      <c r="N5" s="284"/>
-      <c r="O5" s="284"/>
-      <c r="P5" s="284"/>
-      <c r="Q5" s="284"/>
-      <c r="R5" s="284"/>
-      <c r="S5" s="284"/>
-      <c r="T5" s="284"/>
-      <c r="U5" s="284"/>
-      <c r="V5" s="285"/>
+      <c r="L5" s="279"/>
+      <c r="M5" s="279"/>
+      <c r="N5" s="279"/>
+      <c r="O5" s="279"/>
+      <c r="P5" s="279"/>
+      <c r="Q5" s="279"/>
+      <c r="R5" s="279"/>
+      <c r="S5" s="279"/>
+      <c r="T5" s="279"/>
+      <c r="U5" s="279"/>
+      <c r="V5" s="280"/>
     </row>
     <row r="6" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="248" t="s">
+      <c r="A6" s="262" t="s">
         <v>293</v>
       </c>
-      <c r="B6" s="250" t="s">
+      <c r="B6" s="264" t="s">
         <v>294</v>
       </c>
-      <c r="C6" s="251"/>
-      <c r="D6" s="251"/>
-      <c r="E6" s="252"/>
-      <c r="F6" s="248" t="s">
+      <c r="C6" s="265"/>
+      <c r="D6" s="265"/>
+      <c r="E6" s="266"/>
+      <c r="F6" s="262" t="s">
         <v>295</v>
       </c>
-      <c r="G6" s="248" t="s">
+      <c r="G6" s="262" t="s">
         <v>296</v>
       </c>
-      <c r="H6" s="248" t="s">
+      <c r="H6" s="262" t="s">
         <v>297</v>
       </c>
-      <c r="I6" s="248" t="s">
+      <c r="I6" s="262" t="s">
         <v>298</v>
       </c>
-      <c r="J6" s="248" t="s">
+      <c r="J6" s="262" t="s">
         <v>299</v>
       </c>
-      <c r="K6" s="248" t="s">
+      <c r="K6" s="262" t="s">
         <v>293</v>
       </c>
-      <c r="L6" s="250" t="s">
+      <c r="L6" s="264" t="s">
         <v>300</v>
       </c>
-      <c r="M6" s="251"/>
-      <c r="N6" s="252"/>
-      <c r="O6" s="275" t="s">
+      <c r="M6" s="265"/>
+      <c r="N6" s="266"/>
+      <c r="O6" s="283" t="s">
         <v>301</v>
       </c>
-      <c r="P6" s="277" t="s">
+      <c r="P6" s="285" t="s">
         <v>302</v>
       </c>
-      <c r="Q6" s="278"/>
-      <c r="R6" s="279"/>
-      <c r="S6" s="280" t="s">
+      <c r="Q6" s="286"/>
+      <c r="R6" s="287"/>
+      <c r="S6" s="288" t="s">
         <v>303</v>
       </c>
-      <c r="T6" s="248" t="s">
+      <c r="T6" s="262" t="s">
         <v>304</v>
       </c>
-      <c r="U6" s="248" t="s">
+      <c r="U6" s="262" t="s">
         <v>305</v>
       </c>
-      <c r="V6" s="273" t="s">
+      <c r="V6" s="281" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249"/>
+      <c r="A7" s="263"/>
       <c r="B7" s="200" t="s">
         <v>307</v>
       </c>
@@ -28851,12 +28829,12 @@
       <c r="E7" s="200" t="s">
         <v>310</v>
       </c>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="249"/>
-      <c r="J7" s="249"/>
-      <c r="K7" s="249"/>
+      <c r="F7" s="263"/>
+      <c r="G7" s="263"/>
+      <c r="H7" s="263"/>
+      <c r="I7" s="263"/>
+      <c r="J7" s="263"/>
+      <c r="K7" s="263"/>
       <c r="L7" s="200" t="s">
         <v>311</v>
       </c>
@@ -28866,7 +28844,7 @@
       <c r="N7" s="200" t="s">
         <v>313</v>
       </c>
-      <c r="O7" s="276"/>
+      <c r="O7" s="284"/>
       <c r="P7" s="223" t="s">
         <v>314</v>
       </c>
@@ -28876,10 +28854,10 @@
       <c r="R7" s="223" t="s">
         <v>316</v>
       </c>
-      <c r="S7" s="281"/>
-      <c r="T7" s="249"/>
-      <c r="U7" s="249"/>
-      <c r="V7" s="274"/>
+      <c r="S7" s="289"/>
+      <c r="T7" s="263"/>
+      <c r="U7" s="263"/>
+      <c r="V7" s="282"/>
       <c r="X7" s="201" t="s">
         <v>317</v>
       </c>
@@ -30903,12 +30881,9 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K1:V1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="K2:V2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="K3:V3"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:S7"/>
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="K4:V4"/>
     <mergeCell ref="A5:J5"/>
@@ -30925,9 +30900,12 @@
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K1:V1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="K2:V2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="K3:V3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="X7" location="TOC!A1" display="RETURN TO TABLE OF CONTENTS" xr:uid="{FECAC6BC-AB2B-43DA-BBC9-66BD70E07738}"/>
@@ -31028,115 +31006,120 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AF7"/>
+  <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AG7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="1" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>286</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1">
+        <v>2019</v>
+      </c>
+      <c r="C1" s="2">
         <v>2020</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>2021</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>2022</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>2023</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>2024</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>2025</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>2026</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>2027</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>2028</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>2029</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>2030</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>2031</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>2032</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>2033</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>2034</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>2035</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>2036</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>2037</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>2038</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="2">
         <v>2039</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="2">
         <v>2040</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X1" s="2">
         <v>2041</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Y1" s="2">
         <v>2042</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Z1" s="2">
         <v>2043</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="AA1" s="2">
         <v>2044</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AB1" s="2">
         <v>2045</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AC1" s="2">
         <v>2046</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AD1" s="2">
         <v>2047</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AE1" s="2">
         <v>2048</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AF1" s="2">
         <v>2049</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AG1" s="2">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -31233,395 +31216,314 @@
       <c r="AF2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="33">
-        <f>Calcs!D10</f>
-        <v>0.28685936361428227</v>
-      </c>
-      <c r="C3" s="33">
-        <f>$B3</f>
-        <v>0.28685936361428227</v>
-      </c>
-      <c r="D3" s="33">
-        <f t="shared" ref="D3:AF5" si="0">$B3</f>
-        <v>0.28685936361428227</v>
-      </c>
-      <c r="E3" s="33">
-        <f t="shared" si="0"/>
-        <v>0.28685936361428227</v>
-      </c>
-      <c r="F3" s="33">
-        <f t="shared" si="0"/>
-        <v>0.28685936361428227</v>
-      </c>
-      <c r="G3" s="33">
-        <f t="shared" si="0"/>
-        <v>0.28685936361428227</v>
-      </c>
-      <c r="H3" s="33">
-        <f t="shared" si="0"/>
-        <v>0.28685936361428227</v>
-      </c>
-      <c r="I3" s="33">
-        <f t="shared" si="0"/>
-        <v>0.28685936361428227</v>
-      </c>
-      <c r="J3" s="33">
-        <f t="shared" si="0"/>
-        <v>0.28685936361428227</v>
-      </c>
-      <c r="K3" s="33">
-        <f t="shared" si="0"/>
-        <v>0.28685936361428227</v>
-      </c>
-      <c r="L3" s="33">
-        <f t="shared" si="0"/>
-        <v>0.28685936361428227</v>
-      </c>
-      <c r="M3" s="33">
-        <f t="shared" si="0"/>
-        <v>0.28685936361428227</v>
-      </c>
-      <c r="N3" s="33">
-        <f t="shared" si="0"/>
-        <v>0.28685936361428227</v>
-      </c>
-      <c r="O3" s="33">
-        <f t="shared" si="0"/>
-        <v>0.28685936361428227</v>
-      </c>
-      <c r="P3" s="33">
-        <f t="shared" si="0"/>
-        <v>0.28685936361428227</v>
-      </c>
-      <c r="Q3" s="33">
-        <f t="shared" si="0"/>
-        <v>0.28685936361428227</v>
-      </c>
-      <c r="R3" s="33">
-        <f t="shared" si="0"/>
-        <v>0.28685936361428227</v>
-      </c>
-      <c r="S3" s="33">
-        <f t="shared" si="0"/>
-        <v>0.28685936361428227</v>
-      </c>
-      <c r="T3" s="33">
-        <f t="shared" si="0"/>
-        <v>0.28685936361428227</v>
-      </c>
-      <c r="U3" s="33">
-        <f t="shared" si="0"/>
-        <v>0.28685936361428227</v>
-      </c>
-      <c r="V3" s="33">
-        <f t="shared" si="0"/>
-        <v>0.28685936361428227</v>
-      </c>
-      <c r="W3" s="33">
-        <f t="shared" si="0"/>
-        <v>0.28685936361428227</v>
-      </c>
-      <c r="X3" s="33">
-        <f t="shared" si="0"/>
-        <v>0.28685936361428227</v>
-      </c>
-      <c r="Y3" s="33">
-        <f t="shared" si="0"/>
-        <v>0.28685936361428227</v>
-      </c>
-      <c r="Z3" s="33">
-        <f t="shared" si="0"/>
-        <v>0.28685936361428227</v>
-      </c>
-      <c r="AA3" s="33">
-        <f t="shared" si="0"/>
-        <v>0.28685936361428227</v>
-      </c>
-      <c r="AB3" s="33">
-        <f t="shared" si="0"/>
-        <v>0.28685936361428227</v>
-      </c>
-      <c r="AC3" s="33">
-        <f t="shared" si="0"/>
-        <v>0.28685936361428227</v>
-      </c>
-      <c r="AD3" s="33">
-        <f t="shared" si="0"/>
-        <v>0.28685936361428227</v>
-      </c>
-      <c r="AE3" s="33">
-        <f t="shared" si="0"/>
-        <v>0.28685936361428227</v>
-      </c>
-      <c r="AF3" s="33">
-        <f t="shared" si="0"/>
-        <v>0.28685936361428227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="33" cm="1">
-        <f t="array" ref="B4">TREND('BTS NTS Table 3-20'!$K$3:$AK$3,'BTS NTS Table 3-20'!$K$2:$AK$2,B1)/100</f>
-        <v>0.18670767604320332</v>
-      </c>
-      <c r="C4" s="33">
-        <f t="shared" ref="C4:R5" si="1">$B4</f>
-        <v>0.18670767604320332</v>
-      </c>
-      <c r="D4" s="33">
-        <f t="shared" si="1"/>
-        <v>0.18670767604320332</v>
-      </c>
-      <c r="E4" s="33">
-        <f t="shared" si="1"/>
-        <v>0.18670767604320332</v>
-      </c>
-      <c r="F4" s="33">
-        <f t="shared" si="1"/>
-        <v>0.18670767604320332</v>
-      </c>
-      <c r="G4" s="33">
-        <f t="shared" si="1"/>
-        <v>0.18670767604320332</v>
-      </c>
-      <c r="H4" s="33">
-        <f t="shared" si="1"/>
-        <v>0.18670767604320332</v>
-      </c>
-      <c r="I4" s="33">
-        <f t="shared" si="1"/>
-        <v>0.18670767604320332</v>
-      </c>
-      <c r="J4" s="33">
-        <f t="shared" si="1"/>
-        <v>0.18670767604320332</v>
-      </c>
-      <c r="K4" s="33">
-        <f t="shared" si="1"/>
-        <v>0.18670767604320332</v>
-      </c>
-      <c r="L4" s="33">
-        <f t="shared" si="1"/>
-        <v>0.18670767604320332</v>
-      </c>
-      <c r="M4" s="33">
-        <f t="shared" si="1"/>
-        <v>0.18670767604320332</v>
-      </c>
-      <c r="N4" s="33">
-        <f t="shared" si="1"/>
-        <v>0.18670767604320332</v>
-      </c>
-      <c r="O4" s="33">
-        <f t="shared" si="1"/>
-        <v>0.18670767604320332</v>
-      </c>
-      <c r="P4" s="33">
-        <f t="shared" si="1"/>
-        <v>0.18670767604320332</v>
-      </c>
-      <c r="Q4" s="33">
-        <f t="shared" si="1"/>
-        <v>0.18670767604320332</v>
-      </c>
-      <c r="R4" s="33">
-        <f t="shared" si="1"/>
-        <v>0.18670767604320332</v>
-      </c>
-      <c r="S4" s="33">
-        <f t="shared" si="0"/>
-        <v>0.18670767604320332</v>
-      </c>
-      <c r="T4" s="33">
-        <f t="shared" si="0"/>
-        <v>0.18670767604320332</v>
-      </c>
-      <c r="U4" s="33">
-        <f t="shared" si="0"/>
-        <v>0.18670767604320332</v>
-      </c>
-      <c r="V4" s="33">
-        <f t="shared" si="0"/>
-        <v>0.18670767604320332</v>
-      </c>
-      <c r="W4" s="33">
-        <f t="shared" si="0"/>
-        <v>0.18670767604320332</v>
-      </c>
-      <c r="X4" s="33">
-        <f t="shared" si="0"/>
-        <v>0.18670767604320332</v>
-      </c>
-      <c r="Y4" s="33">
-        <f t="shared" si="0"/>
-        <v>0.18670767604320332</v>
-      </c>
-      <c r="Z4" s="33">
-        <f t="shared" si="0"/>
-        <v>0.18670767604320332</v>
-      </c>
-      <c r="AA4" s="33">
-        <f t="shared" si="0"/>
-        <v>0.18670767604320332</v>
-      </c>
-      <c r="AB4" s="33">
-        <f t="shared" si="0"/>
-        <v>0.18670767604320332</v>
-      </c>
-      <c r="AC4" s="33">
-        <f t="shared" si="0"/>
-        <v>0.18670767604320332</v>
-      </c>
-      <c r="AD4" s="33">
-        <f t="shared" si="0"/>
-        <v>0.18670767604320332</v>
-      </c>
-      <c r="AE4" s="33">
-        <f t="shared" si="0"/>
-        <v>0.18670767604320332</v>
-      </c>
-      <c r="AF4" s="33">
-        <f t="shared" si="0"/>
-        <v>0.18670767604320332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="33" cm="1">
-        <f t="array" ref="B5">TREND('BTS NTS Table 3-20'!$H$5:$AK$5,'BTS NTS Table 3-20'!$H$2:$AK$2,B1)/100</f>
-        <v>0.26296126987195634</v>
-      </c>
-      <c r="C5" s="33">
-        <f t="shared" si="1"/>
-        <v>0.26296126987195634</v>
-      </c>
-      <c r="D5" s="33">
-        <f t="shared" si="0"/>
-        <v>0.26296126987195634</v>
-      </c>
-      <c r="E5" s="33">
-        <f t="shared" si="0"/>
-        <v>0.26296126987195634</v>
-      </c>
-      <c r="F5" s="33">
-        <f t="shared" si="0"/>
-        <v>0.26296126987195634</v>
-      </c>
-      <c r="G5" s="33">
-        <f t="shared" si="0"/>
-        <v>0.26296126987195634</v>
-      </c>
-      <c r="H5" s="33">
-        <f t="shared" si="0"/>
-        <v>0.26296126987195634</v>
-      </c>
-      <c r="I5" s="33">
-        <f t="shared" si="0"/>
-        <v>0.26296126987195634</v>
-      </c>
-      <c r="J5" s="33">
-        <f t="shared" si="0"/>
-        <v>0.26296126987195634</v>
-      </c>
-      <c r="K5" s="33">
-        <f t="shared" si="0"/>
-        <v>0.26296126987195634</v>
-      </c>
-      <c r="L5" s="33">
-        <f t="shared" si="0"/>
-        <v>0.26296126987195634</v>
-      </c>
-      <c r="M5" s="33">
-        <f t="shared" si="0"/>
-        <v>0.26296126987195634</v>
-      </c>
-      <c r="N5" s="33">
-        <f t="shared" si="0"/>
-        <v>0.26296126987195634</v>
-      </c>
-      <c r="O5" s="33">
-        <f t="shared" si="0"/>
-        <v>0.26296126987195634</v>
-      </c>
-      <c r="P5" s="33">
-        <f t="shared" si="0"/>
-        <v>0.26296126987195634</v>
-      </c>
-      <c r="Q5" s="33">
-        <f t="shared" si="0"/>
-        <v>0.26296126987195634</v>
-      </c>
-      <c r="R5" s="33">
-        <f t="shared" si="0"/>
-        <v>0.26296126987195634</v>
-      </c>
-      <c r="S5" s="33">
-        <f t="shared" si="0"/>
-        <v>0.26296126987195634</v>
-      </c>
-      <c r="T5" s="33">
-        <f t="shared" si="0"/>
-        <v>0.26296126987195634</v>
-      </c>
-      <c r="U5" s="33">
-        <f t="shared" si="0"/>
-        <v>0.26296126987195634</v>
-      </c>
-      <c r="V5" s="33">
-        <f t="shared" si="0"/>
-        <v>0.26296126987195634</v>
-      </c>
-      <c r="W5" s="33">
-        <f t="shared" si="0"/>
-        <v>0.26296126987195634</v>
-      </c>
-      <c r="X5" s="33">
-        <f t="shared" si="0"/>
-        <v>0.26296126987195634</v>
-      </c>
-      <c r="Y5" s="33">
-        <f t="shared" si="0"/>
-        <v>0.26296126987195634</v>
-      </c>
-      <c r="Z5" s="33">
-        <f t="shared" si="0"/>
-        <v>0.26296126987195634</v>
-      </c>
-      <c r="AA5" s="33">
-        <f t="shared" si="0"/>
-        <v>0.26296126987195634</v>
-      </c>
-      <c r="AB5" s="33">
-        <f t="shared" si="0"/>
-        <v>0.26296126987195634</v>
-      </c>
-      <c r="AC5" s="33">
-        <f t="shared" si="0"/>
-        <v>0.26296126987195634</v>
-      </c>
-      <c r="AD5" s="33">
-        <f t="shared" si="0"/>
-        <v>0.26296126987195634</v>
-      </c>
-      <c r="AE5" s="33">
-        <f t="shared" si="0"/>
-        <v>0.26296126987195634</v>
-      </c>
-      <c r="AF5" s="33">
-        <f t="shared" si="0"/>
-        <v>0.26296126987195634</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -31718,8 +31620,11 @@
       <c r="AF6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -31814,6 +31719,9 @@
         <v>0</v>
       </c>
       <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
         <v>0</v>
       </c>
     </row>
@@ -31827,9 +31735,11 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AF7"/>
+  <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AG7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -31837,105 +31747,108 @@
     <col min="2" max="3" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1">
+        <v>2019</v>
+      </c>
+      <c r="C1" s="2">
         <v>2020</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>2021</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>2022</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>2023</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>2024</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>2025</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>2026</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>2027</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>2028</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>2029</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>2030</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>2031</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>2032</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>2033</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>2034</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>2035</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>2036</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>2037</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>2038</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="2">
         <v>2039</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="2">
         <v>2040</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X1" s="2">
         <v>2041</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Y1" s="2">
         <v>2042</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Z1" s="2">
         <v>2043</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="AA1" s="2">
         <v>2044</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AB1" s="2">
         <v>2045</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AC1" s="2">
         <v>2046</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AD1" s="2">
         <v>2047</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AE1" s="2">
         <v>2048</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AF1" s="2">
         <v>2049</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AG1" s="2">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -32032,8 +31945,11 @@
       <c r="AF2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -32130,8 +32046,11 @@
       <c r="AF3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -32228,8 +32147,11 @@
       <c r="AF4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -32326,8 +32248,11 @@
       <c r="AF5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -32424,8 +32349,11 @@
       <c r="AF6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -32520,6 +32448,9 @@
         <v>0</v>
       </c>
       <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
         <v>0</v>
       </c>
     </row>

--- a/InputData/trans/FpUCD/Fare per Unit Cargo Dist.xlsx
+++ b/InputData/trans/FpUCD/Fare per Unit Cargo Dist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\trans\FpUCD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0556168D-9724-432B-ADA0-F68E7963A89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C04199-1C8B-455B-8316-D126048FDEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="570" windowWidth="18765" windowHeight="17175" firstSheet="3" activeTab="8" xr2:uid="{5CB7DE5F-F8DD-4C7C-901C-BE87FF788B57}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="3" activeTab="8" xr2:uid="{5CB7DE5F-F8DD-4C7C-901C-BE87FF788B57}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -3911,15 +3911,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3947,8 +3938,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3962,28 +3959,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="70" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="79" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="71" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="72" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="73" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="74" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="87" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="39" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4002,12 +3984,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="78" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="79" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="87" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="80" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4037,34 +4013,28 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="90" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="86" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="70" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="83" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="71" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="95" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="72" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="73" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="79" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="87" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="74" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="96" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4086,6 +4056,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="100" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="95" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="79" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="87" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="86" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="83" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9393,45 +9393,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
-      <c r="N1" s="235"/>
-      <c r="O1" s="235"/>
-      <c r="P1" s="235"/>
-      <c r="Q1" s="235"/>
-      <c r="R1" s="235"/>
-      <c r="S1" s="235"/>
-      <c r="T1" s="235"/>
-      <c r="U1" s="235"/>
-      <c r="V1" s="235"/>
-      <c r="W1" s="235"/>
-      <c r="X1" s="235"/>
-      <c r="Y1" s="235"/>
-      <c r="Z1" s="235"/>
-      <c r="AA1" s="235"/>
-      <c r="AB1" s="235"/>
-      <c r="AC1" s="235"/>
-      <c r="AD1" s="235"/>
-      <c r="AE1" s="235"/>
-      <c r="AF1" s="235"/>
-      <c r="AG1" s="235"/>
-      <c r="AH1" s="235"/>
-      <c r="AI1" s="235"/>
-      <c r="AJ1" s="235"/>
-      <c r="AK1" s="235"/>
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="232"/>
+      <c r="L1" s="232"/>
+      <c r="M1" s="232"/>
+      <c r="N1" s="232"/>
+      <c r="O1" s="232"/>
+      <c r="P1" s="232"/>
+      <c r="Q1" s="232"/>
+      <c r="R1" s="232"/>
+      <c r="S1" s="232"/>
+      <c r="T1" s="232"/>
+      <c r="U1" s="232"/>
+      <c r="V1" s="232"/>
+      <c r="W1" s="232"/>
+      <c r="X1" s="232"/>
+      <c r="Y1" s="232"/>
+      <c r="Z1" s="232"/>
+      <c r="AA1" s="232"/>
+      <c r="AB1" s="232"/>
+      <c r="AC1" s="232"/>
+      <c r="AD1" s="232"/>
+      <c r="AE1" s="232"/>
+      <c r="AF1" s="232"/>
+      <c r="AG1" s="232"/>
+      <c r="AH1" s="232"/>
+      <c r="AI1" s="232"/>
+      <c r="AJ1" s="232"/>
+      <c r="AK1" s="232"/>
     </row>
     <row r="2" spans="1:37" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
@@ -10336,226 +10336,1973 @@
       </c>
     </row>
     <row r="10" spans="1:37" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A10" s="236" t="s">
+      <c r="A10" s="233" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="236"/>
-      <c r="C10" s="236"/>
-      <c r="D10" s="236"/>
-      <c r="E10" s="236"/>
-      <c r="F10" s="236"/>
-      <c r="G10" s="236"/>
-      <c r="H10" s="236"/>
-      <c r="I10" s="236"/>
-      <c r="J10" s="236"/>
-      <c r="K10" s="236"/>
-      <c r="L10" s="236"/>
-      <c r="M10" s="236"/>
-      <c r="N10" s="236"/>
-      <c r="O10" s="236"/>
-      <c r="P10" s="236"/>
-      <c r="Q10" s="236"/>
-      <c r="R10" s="236"/>
-      <c r="S10" s="236"/>
-      <c r="T10" s="236"/>
-      <c r="U10" s="236"/>
-      <c r="V10" s="236"/>
-      <c r="W10" s="236"/>
-      <c r="X10" s="236"/>
-      <c r="Y10" s="236"/>
-      <c r="Z10" s="236"/>
-      <c r="AA10" s="236"/>
-      <c r="AB10" s="236"/>
-      <c r="AC10" s="236"/>
-      <c r="AD10" s="236"/>
-      <c r="AE10" s="236"/>
-      <c r="AF10" s="236"/>
-      <c r="AG10" s="236"/>
+      <c r="B10" s="233"/>
+      <c r="C10" s="233"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="233"/>
+      <c r="F10" s="233"/>
+      <c r="G10" s="233"/>
+      <c r="H10" s="233"/>
+      <c r="I10" s="233"/>
+      <c r="J10" s="233"/>
+      <c r="K10" s="233"/>
+      <c r="L10" s="233"/>
+      <c r="M10" s="233"/>
+      <c r="N10" s="233"/>
+      <c r="O10" s="233"/>
+      <c r="P10" s="233"/>
+      <c r="Q10" s="233"/>
+      <c r="R10" s="233"/>
+      <c r="S10" s="233"/>
+      <c r="T10" s="233"/>
+      <c r="U10" s="233"/>
+      <c r="V10" s="233"/>
+      <c r="W10" s="233"/>
+      <c r="X10" s="233"/>
+      <c r="Y10" s="233"/>
+      <c r="Z10" s="233"/>
+      <c r="AA10" s="233"/>
+      <c r="AB10" s="233"/>
+      <c r="AC10" s="233"/>
+      <c r="AD10" s="233"/>
+      <c r="AE10" s="233"/>
+      <c r="AF10" s="233"/>
+      <c r="AG10" s="233"/>
     </row>
     <row r="11" spans="1:37" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A11" s="237"/>
-      <c r="B11" s="237"/>
-      <c r="C11" s="237"/>
-      <c r="D11" s="237"/>
-      <c r="E11" s="237"/>
-      <c r="F11" s="237"/>
-      <c r="G11" s="237"/>
-      <c r="H11" s="237"/>
-      <c r="I11" s="237"/>
-      <c r="J11" s="237"/>
-      <c r="K11" s="237"/>
-      <c r="L11" s="237"/>
-      <c r="M11" s="237"/>
-      <c r="N11" s="237"/>
-      <c r="O11" s="237"/>
-      <c r="P11" s="237"/>
-      <c r="Q11" s="237"/>
-      <c r="R11" s="237"/>
-      <c r="S11" s="237"/>
-      <c r="T11" s="237"/>
-      <c r="U11" s="237"/>
-      <c r="V11" s="237"/>
-      <c r="W11" s="237"/>
-      <c r="X11" s="237"/>
-      <c r="Y11" s="237"/>
-      <c r="Z11" s="237"/>
-      <c r="AA11" s="237"/>
-      <c r="AB11" s="237"/>
-      <c r="AC11" s="237"/>
-      <c r="AD11" s="237"/>
-      <c r="AE11" s="237"/>
-      <c r="AF11" s="237"/>
-      <c r="AG11" s="237"/>
+      <c r="A11" s="234"/>
+      <c r="B11" s="234"/>
+      <c r="C11" s="234"/>
+      <c r="D11" s="234"/>
+      <c r="E11" s="234"/>
+      <c r="F11" s="234"/>
+      <c r="G11" s="234"/>
+      <c r="H11" s="234"/>
+      <c r="I11" s="234"/>
+      <c r="J11" s="234"/>
+      <c r="K11" s="234"/>
+      <c r="L11" s="234"/>
+      <c r="M11" s="234"/>
+      <c r="N11" s="234"/>
+      <c r="O11" s="234"/>
+      <c r="P11" s="234"/>
+      <c r="Q11" s="234"/>
+      <c r="R11" s="234"/>
+      <c r="S11" s="234"/>
+      <c r="T11" s="234"/>
+      <c r="U11" s="234"/>
+      <c r="V11" s="234"/>
+      <c r="W11" s="234"/>
+      <c r="X11" s="234"/>
+      <c r="Y11" s="234"/>
+      <c r="Z11" s="234"/>
+      <c r="AA11" s="234"/>
+      <c r="AB11" s="234"/>
+      <c r="AC11" s="234"/>
+      <c r="AD11" s="234"/>
+      <c r="AE11" s="234"/>
+      <c r="AF11" s="234"/>
+      <c r="AG11" s="234"/>
     </row>
     <row r="12" spans="1:37" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="238" t="s">
+      <c r="A12" s="235" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="238"/>
-      <c r="C12" s="238"/>
-      <c r="D12" s="238"/>
-      <c r="E12" s="238"/>
-      <c r="F12" s="238"/>
-      <c r="G12" s="238"/>
-      <c r="H12" s="238"/>
-      <c r="I12" s="238"/>
-      <c r="J12" s="238"/>
-      <c r="K12" s="238"/>
-      <c r="L12" s="238"/>
-      <c r="M12" s="238"/>
-      <c r="N12" s="238"/>
-      <c r="O12" s="238"/>
-      <c r="P12" s="238"/>
-      <c r="Q12" s="238"/>
-      <c r="R12" s="238"/>
-      <c r="S12" s="238"/>
-      <c r="T12" s="238"/>
-      <c r="U12" s="238"/>
-      <c r="V12" s="238"/>
-      <c r="W12" s="238"/>
-      <c r="X12" s="238"/>
-      <c r="Y12" s="238"/>
-      <c r="Z12" s="238"/>
-      <c r="AA12" s="238"/>
-      <c r="AB12" s="238"/>
-      <c r="AC12" s="238"/>
-      <c r="AD12" s="238"/>
-      <c r="AE12" s="238"/>
-      <c r="AF12" s="238"/>
-      <c r="AG12" s="238"/>
+      <c r="B12" s="235"/>
+      <c r="C12" s="235"/>
+      <c r="D12" s="235"/>
+      <c r="E12" s="235"/>
+      <c r="F12" s="235"/>
+      <c r="G12" s="235"/>
+      <c r="H12" s="235"/>
+      <c r="I12" s="235"/>
+      <c r="J12" s="235"/>
+      <c r="K12" s="235"/>
+      <c r="L12" s="235"/>
+      <c r="M12" s="235"/>
+      <c r="N12" s="235"/>
+      <c r="O12" s="235"/>
+      <c r="P12" s="235"/>
+      <c r="Q12" s="235"/>
+      <c r="R12" s="235"/>
+      <c r="S12" s="235"/>
+      <c r="T12" s="235"/>
+      <c r="U12" s="235"/>
+      <c r="V12" s="235"/>
+      <c r="W12" s="235"/>
+      <c r="X12" s="235"/>
+      <c r="Y12" s="235"/>
+      <c r="Z12" s="235"/>
+      <c r="AA12" s="235"/>
+      <c r="AB12" s="235"/>
+      <c r="AC12" s="235"/>
+      <c r="AD12" s="235"/>
+      <c r="AE12" s="235"/>
+      <c r="AF12" s="235"/>
+      <c r="AG12" s="235"/>
     </row>
     <row r="13" spans="1:37" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="238"/>
-      <c r="B13" s="238"/>
-      <c r="C13" s="238"/>
-      <c r="D13" s="238"/>
-      <c r="E13" s="238"/>
-      <c r="F13" s="238"/>
-      <c r="G13" s="238"/>
-      <c r="H13" s="238"/>
-      <c r="I13" s="238"/>
-      <c r="J13" s="238"/>
-      <c r="K13" s="238"/>
-      <c r="L13" s="238"/>
-      <c r="M13" s="238"/>
-      <c r="N13" s="238"/>
-      <c r="O13" s="238"/>
-      <c r="P13" s="238"/>
-      <c r="Q13" s="238"/>
-      <c r="R13" s="238"/>
-      <c r="S13" s="238"/>
-      <c r="T13" s="238"/>
-      <c r="U13" s="238"/>
-      <c r="V13" s="238"/>
-      <c r="W13" s="238"/>
-      <c r="X13" s="238"/>
-      <c r="Y13" s="238"/>
-      <c r="Z13" s="238"/>
-      <c r="AA13" s="238"/>
-      <c r="AB13" s="238"/>
-      <c r="AC13" s="238"/>
-      <c r="AD13" s="238"/>
-      <c r="AE13" s="238"/>
-      <c r="AF13" s="238"/>
-      <c r="AG13" s="238"/>
+      <c r="A13" s="235"/>
+      <c r="B13" s="235"/>
+      <c r="C13" s="235"/>
+      <c r="D13" s="235"/>
+      <c r="E13" s="235"/>
+      <c r="F13" s="235"/>
+      <c r="G13" s="235"/>
+      <c r="H13" s="235"/>
+      <c r="I13" s="235"/>
+      <c r="J13" s="235"/>
+      <c r="K13" s="235"/>
+      <c r="L13" s="235"/>
+      <c r="M13" s="235"/>
+      <c r="N13" s="235"/>
+      <c r="O13" s="235"/>
+      <c r="P13" s="235"/>
+      <c r="Q13" s="235"/>
+      <c r="R13" s="235"/>
+      <c r="S13" s="235"/>
+      <c r="T13" s="235"/>
+      <c r="U13" s="235"/>
+      <c r="V13" s="235"/>
+      <c r="W13" s="235"/>
+      <c r="X13" s="235"/>
+      <c r="Y13" s="235"/>
+      <c r="Z13" s="235"/>
+      <c r="AA13" s="235"/>
+      <c r="AB13" s="235"/>
+      <c r="AC13" s="235"/>
+      <c r="AD13" s="235"/>
+      <c r="AE13" s="235"/>
+      <c r="AF13" s="235"/>
+      <c r="AG13" s="235"/>
     </row>
     <row r="14" spans="1:37" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A14" s="239" t="s">
+      <c r="A14" s="236" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="239"/>
-      <c r="C14" s="239"/>
-      <c r="D14" s="239"/>
-      <c r="E14" s="239"/>
-      <c r="F14" s="239"/>
-      <c r="G14" s="239"/>
-      <c r="H14" s="239"/>
-      <c r="I14" s="239"/>
-      <c r="J14" s="239"/>
-      <c r="K14" s="239"/>
-      <c r="L14" s="239"/>
-      <c r="M14" s="239"/>
-      <c r="N14" s="239"/>
-      <c r="O14" s="239"/>
-      <c r="P14" s="239"/>
-      <c r="Q14" s="239"/>
-      <c r="R14" s="239"/>
-      <c r="S14" s="239"/>
-      <c r="T14" s="239"/>
-      <c r="U14" s="239"/>
-      <c r="V14" s="239"/>
-      <c r="W14" s="239"/>
-      <c r="X14" s="239"/>
-      <c r="Y14" s="239"/>
-      <c r="Z14" s="239"/>
-      <c r="AA14" s="239"/>
-      <c r="AB14" s="239"/>
-      <c r="AC14" s="239"/>
-      <c r="AD14" s="239"/>
-      <c r="AE14" s="239"/>
-      <c r="AF14" s="239"/>
-      <c r="AG14" s="239"/>
+      <c r="B14" s="236"/>
+      <c r="C14" s="236"/>
+      <c r="D14" s="236"/>
+      <c r="E14" s="236"/>
+      <c r="F14" s="236"/>
+      <c r="G14" s="236"/>
+      <c r="H14" s="236"/>
+      <c r="I14" s="236"/>
+      <c r="J14" s="236"/>
+      <c r="K14" s="236"/>
+      <c r="L14" s="236"/>
+      <c r="M14" s="236"/>
+      <c r="N14" s="236"/>
+      <c r="O14" s="236"/>
+      <c r="P14" s="236"/>
+      <c r="Q14" s="236"/>
+      <c r="R14" s="236"/>
+      <c r="S14" s="236"/>
+      <c r="T14" s="236"/>
+      <c r="U14" s="236"/>
+      <c r="V14" s="236"/>
+      <c r="W14" s="236"/>
+      <c r="X14" s="236"/>
+      <c r="Y14" s="236"/>
+      <c r="Z14" s="236"/>
+      <c r="AA14" s="236"/>
+      <c r="AB14" s="236"/>
+      <c r="AC14" s="236"/>
+      <c r="AD14" s="236"/>
+      <c r="AE14" s="236"/>
+      <c r="AF14" s="236"/>
+      <c r="AG14" s="236"/>
     </row>
     <row r="15" spans="1:37" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A15" s="240" t="s">
+      <c r="A15" s="237" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="240"/>
-      <c r="C15" s="240"/>
-      <c r="D15" s="240"/>
-      <c r="E15" s="240"/>
-      <c r="F15" s="240"/>
-      <c r="G15" s="240"/>
-      <c r="H15" s="240"/>
-      <c r="I15" s="240"/>
-      <c r="J15" s="240"/>
-      <c r="K15" s="240"/>
-      <c r="L15" s="240"/>
-      <c r="M15" s="240"/>
-      <c r="N15" s="240"/>
-      <c r="O15" s="240"/>
-      <c r="P15" s="240"/>
-      <c r="Q15" s="240"/>
-      <c r="R15" s="240"/>
-      <c r="S15" s="240"/>
-      <c r="T15" s="240"/>
-      <c r="U15" s="240"/>
-      <c r="V15" s="240"/>
-      <c r="W15" s="240"/>
-      <c r="X15" s="240"/>
-      <c r="Y15" s="240"/>
-      <c r="Z15" s="240"/>
-      <c r="AA15" s="240"/>
-      <c r="AB15" s="240"/>
-      <c r="AC15" s="240"/>
-      <c r="AD15" s="240"/>
-      <c r="AE15" s="240"/>
-      <c r="AF15" s="240"/>
-      <c r="AG15" s="240"/>
+      <c r="B15" s="237"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="237"/>
+      <c r="E15" s="237"/>
+      <c r="F15" s="237"/>
+      <c r="G15" s="237"/>
+      <c r="H15" s="237"/>
+      <c r="I15" s="237"/>
+      <c r="J15" s="237"/>
+      <c r="K15" s="237"/>
+      <c r="L15" s="237"/>
+      <c r="M15" s="237"/>
+      <c r="N15" s="237"/>
+      <c r="O15" s="237"/>
+      <c r="P15" s="237"/>
+      <c r="Q15" s="237"/>
+      <c r="R15" s="237"/>
+      <c r="S15" s="237"/>
+      <c r="T15" s="237"/>
+      <c r="U15" s="237"/>
+      <c r="V15" s="237"/>
+      <c r="W15" s="237"/>
+      <c r="X15" s="237"/>
+      <c r="Y15" s="237"/>
+      <c r="Z15" s="237"/>
+      <c r="AA15" s="237"/>
+      <c r="AB15" s="237"/>
+      <c r="AC15" s="237"/>
+      <c r="AD15" s="237"/>
+      <c r="AE15" s="237"/>
+      <c r="AF15" s="237"/>
+      <c r="AG15" s="237"/>
     </row>
     <row r="16" spans="1:37" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A16" s="237" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="237"/>
+      <c r="C16" s="237"/>
+      <c r="D16" s="237"/>
+      <c r="E16" s="237"/>
+      <c r="F16" s="237"/>
+      <c r="G16" s="237"/>
+      <c r="H16" s="237"/>
+      <c r="I16" s="237"/>
+      <c r="J16" s="237"/>
+      <c r="K16" s="237"/>
+      <c r="L16" s="237"/>
+      <c r="M16" s="237"/>
+      <c r="N16" s="237"/>
+      <c r="O16" s="237"/>
+      <c r="P16" s="237"/>
+      <c r="Q16" s="237"/>
+      <c r="R16" s="237"/>
+      <c r="S16" s="237"/>
+      <c r="T16" s="237"/>
+      <c r="U16" s="237"/>
+      <c r="V16" s="237"/>
+      <c r="W16" s="237"/>
+      <c r="X16" s="237"/>
+      <c r="Y16" s="237"/>
+      <c r="Z16" s="237"/>
+      <c r="AA16" s="237"/>
+      <c r="AB16" s="237"/>
+      <c r="AC16" s="237"/>
+      <c r="AD16" s="237"/>
+      <c r="AE16" s="237"/>
+      <c r="AF16" s="237"/>
+      <c r="AG16" s="237"/>
+    </row>
+    <row r="17" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A17" s="238"/>
+      <c r="B17" s="238"/>
+      <c r="C17" s="238"/>
+      <c r="D17" s="238"/>
+      <c r="E17" s="238"/>
+      <c r="F17" s="238"/>
+      <c r="G17" s="238"/>
+      <c r="H17" s="238"/>
+      <c r="I17" s="238"/>
+      <c r="J17" s="238"/>
+      <c r="K17" s="238"/>
+      <c r="L17" s="238"/>
+      <c r="M17" s="238"/>
+      <c r="N17" s="238"/>
+      <c r="O17" s="238"/>
+      <c r="P17" s="238"/>
+      <c r="Q17" s="238"/>
+      <c r="R17" s="238"/>
+      <c r="S17" s="238"/>
+      <c r="T17" s="238"/>
+      <c r="U17" s="238"/>
+      <c r="V17" s="238"/>
+      <c r="W17" s="238"/>
+      <c r="X17" s="238"/>
+      <c r="Y17" s="238"/>
+      <c r="Z17" s="238"/>
+      <c r="AA17" s="238"/>
+      <c r="AB17" s="238"/>
+      <c r="AC17" s="238"/>
+      <c r="AD17" s="238"/>
+      <c r="AE17" s="238"/>
+      <c r="AF17" s="238"/>
+      <c r="AG17" s="238"/>
+      <c r="AH17" s="25"/>
+      <c r="AI17" s="25"/>
+    </row>
+    <row r="18" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A18" s="239" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="239"/>
+      <c r="C18" s="239"/>
+      <c r="D18" s="239"/>
+      <c r="E18" s="239"/>
+      <c r="F18" s="239"/>
+      <c r="G18" s="239"/>
+      <c r="H18" s="239"/>
+      <c r="I18" s="239"/>
+      <c r="J18" s="239"/>
+      <c r="K18" s="239"/>
+      <c r="L18" s="239"/>
+      <c r="M18" s="239"/>
+      <c r="N18" s="239"/>
+      <c r="O18" s="239"/>
+      <c r="P18" s="239"/>
+      <c r="Q18" s="239"/>
+      <c r="R18" s="239"/>
+      <c r="S18" s="239"/>
+      <c r="T18" s="239"/>
+      <c r="U18" s="239"/>
+      <c r="V18" s="239"/>
+      <c r="W18" s="239"/>
+      <c r="X18" s="239"/>
+      <c r="Y18" s="239"/>
+      <c r="Z18" s="239"/>
+      <c r="AA18" s="239"/>
+      <c r="AB18" s="239"/>
+      <c r="AC18" s="239"/>
+      <c r="AD18" s="239"/>
+      <c r="AE18" s="239"/>
+      <c r="AF18" s="239"/>
+      <c r="AG18" s="239"/>
+    </row>
+    <row r="19" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A19" s="240" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="240"/>
+      <c r="C19" s="240"/>
+      <c r="D19" s="240"/>
+      <c r="E19" s="240"/>
+      <c r="F19" s="240"/>
+      <c r="G19" s="240"/>
+      <c r="H19" s="240"/>
+      <c r="I19" s="240"/>
+      <c r="J19" s="240"/>
+      <c r="K19" s="240"/>
+      <c r="L19" s="240"/>
+      <c r="M19" s="240"/>
+      <c r="N19" s="240"/>
+      <c r="O19" s="240"/>
+      <c r="P19" s="240"/>
+      <c r="Q19" s="240"/>
+      <c r="R19" s="240"/>
+      <c r="S19" s="240"/>
+      <c r="T19" s="240"/>
+      <c r="U19" s="240"/>
+      <c r="V19" s="240"/>
+      <c r="W19" s="240"/>
+      <c r="X19" s="240"/>
+      <c r="Y19" s="240"/>
+      <c r="Z19" s="240"/>
+      <c r="AA19" s="240"/>
+      <c r="AB19" s="240"/>
+      <c r="AC19" s="240"/>
+      <c r="AD19" s="240"/>
+      <c r="AE19" s="240"/>
+      <c r="AF19" s="240"/>
+      <c r="AG19" s="240"/>
+    </row>
+    <row r="20" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A20" s="231" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="231"/>
+      <c r="C20" s="231"/>
+      <c r="D20" s="231"/>
+      <c r="E20" s="231"/>
+      <c r="F20" s="231"/>
+      <c r="G20" s="231"/>
+      <c r="H20" s="231"/>
+      <c r="I20" s="231"/>
+      <c r="J20" s="231"/>
+      <c r="K20" s="231"/>
+      <c r="L20" s="231"/>
+      <c r="M20" s="231"/>
+      <c r="N20" s="231"/>
+      <c r="O20" s="231"/>
+      <c r="P20" s="231"/>
+      <c r="Q20" s="231"/>
+      <c r="R20" s="231"/>
+      <c r="S20" s="231"/>
+      <c r="T20" s="231"/>
+      <c r="U20" s="231"/>
+      <c r="V20" s="231"/>
+      <c r="W20" s="231"/>
+      <c r="X20" s="231"/>
+      <c r="Y20" s="231"/>
+      <c r="Z20" s="231"/>
+      <c r="AA20" s="231"/>
+      <c r="AB20" s="231"/>
+      <c r="AC20" s="231"/>
+      <c r="AD20" s="231"/>
+      <c r="AE20" s="231"/>
+      <c r="AF20" s="231"/>
+      <c r="AG20" s="231"/>
+    </row>
+    <row r="21" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A21" s="242" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="242"/>
+      <c r="C21" s="242"/>
+      <c r="D21" s="242"/>
+      <c r="E21" s="242"/>
+      <c r="F21" s="242"/>
+      <c r="G21" s="242"/>
+      <c r="H21" s="242"/>
+      <c r="I21" s="242"/>
+      <c r="J21" s="242"/>
+      <c r="K21" s="242"/>
+      <c r="L21" s="242"/>
+      <c r="M21" s="242"/>
+      <c r="N21" s="242"/>
+      <c r="O21" s="242"/>
+      <c r="P21" s="242"/>
+      <c r="Q21" s="242"/>
+      <c r="R21" s="242"/>
+      <c r="S21" s="242"/>
+      <c r="T21" s="242"/>
+      <c r="U21" s="242"/>
+      <c r="V21" s="242"/>
+      <c r="W21" s="242"/>
+      <c r="X21" s="242"/>
+      <c r="Y21" s="242"/>
+      <c r="Z21" s="242"/>
+      <c r="AA21" s="242"/>
+      <c r="AB21" s="242"/>
+      <c r="AC21" s="242"/>
+      <c r="AD21" s="242"/>
+      <c r="AE21" s="242"/>
+      <c r="AF21" s="242"/>
+      <c r="AG21" s="242"/>
+    </row>
+    <row r="22" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A22" s="241" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="241"/>
+      <c r="C22" s="241"/>
+      <c r="D22" s="241"/>
+      <c r="E22" s="241"/>
+      <c r="F22" s="241"/>
+      <c r="G22" s="241"/>
+      <c r="H22" s="241"/>
+      <c r="I22" s="241"/>
+      <c r="J22" s="241"/>
+      <c r="K22" s="241"/>
+      <c r="L22" s="241"/>
+      <c r="M22" s="241"/>
+      <c r="N22" s="241"/>
+      <c r="O22" s="241"/>
+      <c r="P22" s="241"/>
+      <c r="Q22" s="241"/>
+      <c r="R22" s="241"/>
+      <c r="S22" s="241"/>
+      <c r="T22" s="241"/>
+      <c r="U22" s="241"/>
+      <c r="V22" s="241"/>
+      <c r="W22" s="241"/>
+      <c r="X22" s="241"/>
+      <c r="Y22" s="241"/>
+      <c r="Z22" s="241"/>
+      <c r="AA22" s="241"/>
+      <c r="AB22" s="241"/>
+      <c r="AC22" s="241"/>
+      <c r="AD22" s="241"/>
+      <c r="AE22" s="241"/>
+      <c r="AF22" s="241"/>
+      <c r="AG22" s="241"/>
+    </row>
+    <row r="23" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A23" s="241" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="241"/>
+      <c r="C23" s="241"/>
+      <c r="D23" s="241"/>
+      <c r="E23" s="241"/>
+      <c r="F23" s="241"/>
+      <c r="G23" s="241"/>
+      <c r="H23" s="241"/>
+      <c r="I23" s="241"/>
+      <c r="J23" s="241"/>
+      <c r="K23" s="241"/>
+      <c r="L23" s="241"/>
+      <c r="M23" s="241"/>
+      <c r="N23" s="241"/>
+      <c r="O23" s="241"/>
+      <c r="P23" s="241"/>
+      <c r="Q23" s="241"/>
+      <c r="R23" s="241"/>
+      <c r="S23" s="241"/>
+      <c r="T23" s="241"/>
+      <c r="U23" s="241"/>
+      <c r="V23" s="241"/>
+      <c r="W23" s="241"/>
+      <c r="X23" s="241"/>
+      <c r="Y23" s="241"/>
+      <c r="Z23" s="241"/>
+      <c r="AA23" s="241"/>
+      <c r="AB23" s="241"/>
+      <c r="AC23" s="241"/>
+      <c r="AD23" s="241"/>
+      <c r="AE23" s="241"/>
+      <c r="AF23" s="241"/>
+      <c r="AG23" s="241"/>
+    </row>
+    <row r="24" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A24" s="240" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="240"/>
+      <c r="C24" s="240"/>
+      <c r="D24" s="240"/>
+      <c r="E24" s="240"/>
+      <c r="F24" s="240"/>
+      <c r="G24" s="240"/>
+      <c r="H24" s="240"/>
+      <c r="I24" s="240"/>
+      <c r="J24" s="240"/>
+      <c r="K24" s="240"/>
+      <c r="L24" s="240"/>
+      <c r="M24" s="240"/>
+      <c r="N24" s="240"/>
+      <c r="O24" s="240"/>
+      <c r="P24" s="240"/>
+      <c r="Q24" s="240"/>
+      <c r="R24" s="240"/>
+      <c r="S24" s="240"/>
+      <c r="T24" s="240"/>
+      <c r="U24" s="240"/>
+      <c r="V24" s="240"/>
+      <c r="W24" s="240"/>
+      <c r="X24" s="240"/>
+      <c r="Y24" s="240"/>
+      <c r="Z24" s="240"/>
+      <c r="AA24" s="240"/>
+      <c r="AB24" s="240"/>
+      <c r="AC24" s="240"/>
+      <c r="AD24" s="240"/>
+      <c r="AE24" s="240"/>
+      <c r="AF24" s="240"/>
+      <c r="AG24" s="240"/>
+    </row>
+    <row r="25" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A25" s="241" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="241"/>
+      <c r="C25" s="241"/>
+      <c r="D25" s="241"/>
+      <c r="E25" s="241"/>
+      <c r="F25" s="241"/>
+      <c r="G25" s="241"/>
+      <c r="H25" s="241"/>
+      <c r="I25" s="241"/>
+      <c r="J25" s="241"/>
+      <c r="K25" s="241"/>
+      <c r="L25" s="241"/>
+      <c r="M25" s="241"/>
+      <c r="N25" s="241"/>
+      <c r="O25" s="241"/>
+      <c r="P25" s="241"/>
+      <c r="Q25" s="241"/>
+      <c r="R25" s="241"/>
+      <c r="S25" s="241"/>
+      <c r="T25" s="241"/>
+      <c r="U25" s="241"/>
+      <c r="V25" s="241"/>
+      <c r="W25" s="241"/>
+      <c r="X25" s="241"/>
+      <c r="Y25" s="241"/>
+      <c r="Z25" s="241"/>
+      <c r="AA25" s="241"/>
+      <c r="AB25" s="241"/>
+      <c r="AC25" s="241"/>
+      <c r="AD25" s="241"/>
+      <c r="AE25" s="241"/>
+      <c r="AF25" s="241"/>
+      <c r="AG25" s="241"/>
+    </row>
+    <row r="26" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A26" s="241" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="241"/>
+      <c r="C26" s="241"/>
+      <c r="D26" s="241"/>
+      <c r="E26" s="241"/>
+      <c r="F26" s="241"/>
+      <c r="G26" s="241"/>
+      <c r="H26" s="241"/>
+      <c r="I26" s="241"/>
+      <c r="J26" s="241"/>
+      <c r="K26" s="241"/>
+      <c r="L26" s="241"/>
+      <c r="M26" s="241"/>
+      <c r="N26" s="241"/>
+      <c r="O26" s="241"/>
+      <c r="P26" s="241"/>
+      <c r="Q26" s="241"/>
+      <c r="R26" s="241"/>
+      <c r="S26" s="241"/>
+      <c r="T26" s="241"/>
+      <c r="U26" s="241"/>
+      <c r="V26" s="241"/>
+      <c r="W26" s="241"/>
+      <c r="X26" s="241"/>
+      <c r="Y26" s="241"/>
+      <c r="Z26" s="241"/>
+      <c r="AA26" s="241"/>
+      <c r="AB26" s="241"/>
+      <c r="AC26" s="241"/>
+      <c r="AD26" s="241"/>
+      <c r="AE26" s="241"/>
+      <c r="AF26" s="241"/>
+      <c r="AG26" s="241"/>
+    </row>
+    <row r="27" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A27" s="241" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="241"/>
+      <c r="C27" s="241"/>
+      <c r="D27" s="241"/>
+      <c r="E27" s="241"/>
+      <c r="F27" s="241"/>
+      <c r="G27" s="241"/>
+      <c r="H27" s="241"/>
+      <c r="I27" s="241"/>
+      <c r="J27" s="241"/>
+      <c r="K27" s="241"/>
+      <c r="L27" s="241"/>
+      <c r="M27" s="241"/>
+      <c r="N27" s="241"/>
+      <c r="O27" s="241"/>
+      <c r="P27" s="241"/>
+      <c r="Q27" s="241"/>
+      <c r="R27" s="241"/>
+      <c r="S27" s="241"/>
+      <c r="T27" s="241"/>
+      <c r="U27" s="241"/>
+      <c r="V27" s="241"/>
+      <c r="W27" s="241"/>
+      <c r="X27" s="241"/>
+      <c r="Y27" s="241"/>
+      <c r="Z27" s="241"/>
+      <c r="AA27" s="241"/>
+      <c r="AB27" s="241"/>
+      <c r="AC27" s="241"/>
+      <c r="AD27" s="241"/>
+      <c r="AE27" s="241"/>
+      <c r="AF27" s="241"/>
+      <c r="AG27" s="241"/>
+    </row>
+    <row r="28" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A28" s="241" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="241"/>
+      <c r="C28" s="241"/>
+      <c r="D28" s="241"/>
+      <c r="E28" s="241"/>
+      <c r="F28" s="241"/>
+      <c r="G28" s="241"/>
+      <c r="H28" s="241"/>
+      <c r="I28" s="241"/>
+      <c r="J28" s="241"/>
+      <c r="K28" s="241"/>
+      <c r="L28" s="241"/>
+      <c r="M28" s="241"/>
+      <c r="N28" s="241"/>
+      <c r="O28" s="241"/>
+      <c r="P28" s="241"/>
+      <c r="Q28" s="241"/>
+      <c r="R28" s="241"/>
+      <c r="S28" s="241"/>
+      <c r="T28" s="241"/>
+      <c r="U28" s="241"/>
+      <c r="V28" s="241"/>
+      <c r="W28" s="241"/>
+      <c r="X28" s="241"/>
+      <c r="Y28" s="241"/>
+      <c r="Z28" s="241"/>
+      <c r="AA28" s="241"/>
+      <c r="AB28" s="241"/>
+      <c r="AC28" s="241"/>
+      <c r="AD28" s="241"/>
+      <c r="AE28" s="241"/>
+      <c r="AF28" s="241"/>
+      <c r="AG28" s="241"/>
+    </row>
+    <row r="29" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A29" s="240" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="240"/>
+      <c r="C29" s="240"/>
+      <c r="D29" s="240"/>
+      <c r="E29" s="240"/>
+      <c r="F29" s="240"/>
+      <c r="G29" s="240"/>
+      <c r="H29" s="240"/>
+      <c r="I29" s="240"/>
+      <c r="J29" s="240"/>
+      <c r="K29" s="240"/>
+      <c r="L29" s="240"/>
+      <c r="M29" s="240"/>
+      <c r="N29" s="240"/>
+      <c r="O29" s="240"/>
+      <c r="P29" s="240"/>
+      <c r="Q29" s="240"/>
+      <c r="R29" s="240"/>
+      <c r="S29" s="240"/>
+      <c r="T29" s="240"/>
+      <c r="U29" s="240"/>
+      <c r="V29" s="240"/>
+      <c r="W29" s="240"/>
+      <c r="X29" s="240"/>
+      <c r="Y29" s="240"/>
+      <c r="Z29" s="240"/>
+      <c r="AA29" s="240"/>
+      <c r="AB29" s="240"/>
+      <c r="AC29" s="240"/>
+      <c r="AD29" s="240"/>
+      <c r="AE29" s="240"/>
+      <c r="AF29" s="240"/>
+      <c r="AG29" s="240"/>
+    </row>
+    <row r="30" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A30" s="241" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="241"/>
+      <c r="C30" s="241"/>
+      <c r="D30" s="241"/>
+      <c r="E30" s="241"/>
+      <c r="F30" s="241"/>
+      <c r="G30" s="241"/>
+      <c r="H30" s="241"/>
+      <c r="I30" s="241"/>
+      <c r="J30" s="241"/>
+      <c r="K30" s="241"/>
+      <c r="L30" s="241"/>
+      <c r="M30" s="241"/>
+      <c r="N30" s="241"/>
+      <c r="O30" s="241"/>
+      <c r="P30" s="241"/>
+      <c r="Q30" s="241"/>
+      <c r="R30" s="241"/>
+      <c r="S30" s="241"/>
+      <c r="T30" s="241"/>
+      <c r="U30" s="241"/>
+      <c r="V30" s="241"/>
+      <c r="W30" s="241"/>
+      <c r="X30" s="241"/>
+      <c r="Y30" s="241"/>
+      <c r="Z30" s="241"/>
+      <c r="AA30" s="241"/>
+      <c r="AB30" s="241"/>
+      <c r="AC30" s="241"/>
+      <c r="AD30" s="241"/>
+      <c r="AE30" s="241"/>
+      <c r="AF30" s="241"/>
+      <c r="AG30" s="241"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="N31" s="26"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="30"/>
+      <c r="W33" s="30"/>
+      <c r="X33" s="30"/>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="30"/>
+      <c r="AA33" s="29"/>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="28"/>
+      <c r="AA34" s="28"/>
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="30"/>
+      <c r="V36" s="30"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="30"/>
+      <c r="AA36" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A27:AG27"/>
+    <mergeCell ref="A28:AG28"/>
+    <mergeCell ref="A29:AG29"/>
+    <mergeCell ref="A30:AG30"/>
+    <mergeCell ref="A21:AG21"/>
+    <mergeCell ref="A22:AG22"/>
+    <mergeCell ref="A23:AG23"/>
+    <mergeCell ref="A24:AG24"/>
+    <mergeCell ref="A25:AG25"/>
+    <mergeCell ref="A26:AG26"/>
+    <mergeCell ref="A20:AG20"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A10:AG10"/>
+    <mergeCell ref="A11:AG11"/>
+    <mergeCell ref="A12:AG12"/>
+    <mergeCell ref="A13:AG13"/>
+    <mergeCell ref="A14:AG14"/>
+    <mergeCell ref="A15:AG15"/>
+    <mergeCell ref="A16:AG16"/>
+    <mergeCell ref="A17:AG17"/>
+    <mergeCell ref="A18:AG18"/>
+    <mergeCell ref="A19:AG19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A434B60-83C1-4A6D-BC82-D6A36637EAE4}">
+  <dimension ref="A1:AL35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" style="26" customWidth="1"/>
+    <col min="2" max="30" width="6.7109375" style="26" customWidth="1"/>
+    <col min="31" max="36" width="9.7109375" style="26" customWidth="1"/>
+    <col min="37" max="38" width="6.7109375" style="26" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="243" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="243"/>
+      <c r="F1" s="243"/>
+      <c r="G1" s="243"/>
+      <c r="H1" s="243"/>
+      <c r="I1" s="243"/>
+      <c r="J1" s="243"/>
+      <c r="K1" s="243"/>
+      <c r="L1" s="243"/>
+      <c r="M1" s="243"/>
+      <c r="N1" s="243"/>
+      <c r="O1" s="243"/>
+      <c r="P1" s="243"/>
+      <c r="Q1" s="243"/>
+      <c r="R1" s="243"/>
+      <c r="S1" s="243"/>
+      <c r="T1" s="243"/>
+      <c r="U1" s="243"/>
+      <c r="V1" s="243"/>
+      <c r="W1" s="243"/>
+      <c r="X1" s="243"/>
+      <c r="Y1" s="243"/>
+      <c r="Z1" s="243"/>
+      <c r="AA1" s="243"/>
+      <c r="AB1" s="243"/>
+      <c r="AC1" s="243"/>
+      <c r="AD1" s="243"/>
+      <c r="AE1" s="243"/>
+      <c r="AF1" s="243"/>
+      <c r="AG1" s="243"/>
+      <c r="AH1" s="243"/>
+      <c r="AI1" s="243"/>
+      <c r="AJ1" s="243"/>
+      <c r="AK1" s="243"/>
+      <c r="AL1" s="243"/>
+    </row>
+    <row r="2" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="189"/>
+      <c r="B2" s="5">
+        <v>1960</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1965</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1970</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1975</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1980</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1985</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1990</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1991</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1992</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1993</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1994</v>
+      </c>
+      <c r="M2" s="5">
+        <v>1995</v>
+      </c>
+      <c r="N2" s="5">
+        <v>1996</v>
+      </c>
+      <c r="O2" s="5">
+        <v>1997</v>
+      </c>
+      <c r="P2" s="5">
+        <v>1998</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>1999</v>
+      </c>
+      <c r="R2" s="5">
+        <v>2000</v>
+      </c>
+      <c r="S2" s="5">
+        <v>2001</v>
+      </c>
+      <c r="T2" s="5">
+        <v>2002</v>
+      </c>
+      <c r="U2" s="5">
+        <v>2003</v>
+      </c>
+      <c r="V2" s="5">
+        <v>2004</v>
+      </c>
+      <c r="W2" s="5">
+        <v>2005</v>
+      </c>
+      <c r="X2" s="5">
+        <v>2006</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>2007</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>2008</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>2009</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>2010</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>2011</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>2012</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>2013</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>2014</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>2015</v>
+      </c>
+      <c r="AH2" s="5">
+        <v>2016</v>
+      </c>
+      <c r="AI2" s="5">
+        <v>2017</v>
+      </c>
+      <c r="AJ2" s="5">
+        <v>2018</v>
+      </c>
+      <c r="AK2" s="5">
+        <v>2019</v>
+      </c>
+      <c r="AL2" s="5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="190" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="191">
+        <v>33.01</v>
+      </c>
+      <c r="C3" s="191">
+        <v>34.130000000000003</v>
+      </c>
+      <c r="D3" s="191">
+        <v>40.65</v>
+      </c>
+      <c r="E3" s="191">
+        <v>53.64</v>
+      </c>
+      <c r="F3" s="191">
+        <v>84.6</v>
+      </c>
+      <c r="G3" s="191">
+        <v>92.53</v>
+      </c>
+      <c r="H3" s="191">
+        <v>107.95605383345789</v>
+      </c>
+      <c r="I3" s="191">
+        <v>106.82359925320584</v>
+      </c>
+      <c r="J3" s="191">
+        <v>103.96695716885564</v>
+      </c>
+      <c r="K3" s="191">
+        <v>110.30216410489288</v>
+      </c>
+      <c r="L3" s="191">
+        <v>103.71187200788872</v>
+      </c>
+      <c r="M3" s="191">
+        <v>292.18857508501458</v>
+      </c>
+      <c r="N3" s="191">
+        <v>276.6279861413596</v>
+      </c>
+      <c r="O3" s="191">
+        <v>287.22154413532138</v>
+      </c>
+      <c r="P3" s="191">
+        <v>309.17037540393335</v>
+      </c>
+      <c r="Q3" s="191">
+        <v>323.82594729367332</v>
+      </c>
+      <c r="R3" s="191">
+        <v>338.99637086858655</v>
+      </c>
+      <c r="S3" s="191">
+        <v>320.62432456238798</v>
+      </c>
+      <c r="T3" s="191">
+        <v>312.32934290453386</v>
+      </c>
+      <c r="U3" s="191">
+        <v>315.35521442000174</v>
+      </c>
+      <c r="V3" s="191">
+        <v>305.40959352583474</v>
+      </c>
+      <c r="W3" s="191">
+        <v>307.31062697583019</v>
+      </c>
+      <c r="X3" s="191">
+        <v>328.54794374827924</v>
+      </c>
+      <c r="Y3" s="191">
+        <v>325.26065137526251</v>
+      </c>
+      <c r="Z3" s="191">
+        <v>346.37773634629673</v>
+      </c>
+      <c r="AA3" s="191">
+        <v>310.34502019698289</v>
+      </c>
+      <c r="AB3" s="191">
+        <v>336.08909441198415</v>
+      </c>
+      <c r="AC3" s="191">
+        <v>363.85119844189529</v>
+      </c>
+      <c r="AD3" s="191">
+        <v>374.76958179972269</v>
+      </c>
+      <c r="AE3" s="192">
+        <v>382.00308300027064</v>
+      </c>
+      <c r="AF3" s="192">
+        <v>391.70146694796955</v>
+      </c>
+      <c r="AG3" s="192">
+        <v>376.95078761698812</v>
+      </c>
+      <c r="AH3" s="192">
+        <v>349.14614920276199</v>
+      </c>
+      <c r="AI3" s="192">
+        <v>347.62638485790745</v>
+      </c>
+      <c r="AJ3" s="192">
+        <v>349.6248953264697</v>
+      </c>
+      <c r="AK3" s="191">
+        <v>354.83334016198</v>
+      </c>
+      <c r="AL3" s="191">
+        <v>292.36611721851324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="190" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" s="193">
+        <v>2.46</v>
+      </c>
+      <c r="C4" s="193">
+        <v>2.73</v>
+      </c>
+      <c r="D4" s="193">
+        <v>3.81</v>
+      </c>
+      <c r="E4" s="193">
+        <v>5.46</v>
+      </c>
+      <c r="F4" s="193">
+        <v>10.57</v>
+      </c>
+      <c r="G4" s="193">
+        <v>11.98</v>
+      </c>
+      <c r="H4" s="193">
+        <v>20.22</v>
+      </c>
+      <c r="I4" s="193">
+        <v>21.86</v>
+      </c>
+      <c r="J4" s="193">
+        <v>21.15</v>
+      </c>
+      <c r="K4" s="193">
+        <v>21.32</v>
+      </c>
+      <c r="L4" s="193">
+        <v>19.77</v>
+      </c>
+      <c r="M4" s="193">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="N4" s="193">
+        <v>22.85</v>
+      </c>
+      <c r="O4" s="193">
+        <v>20.83</v>
+      </c>
+      <c r="P4" s="193">
+        <v>23.14</v>
+      </c>
+      <c r="Q4" s="193">
+        <v>26.16</v>
+      </c>
+      <c r="R4" s="193">
+        <v>29.458089000000001</v>
+      </c>
+      <c r="S4" s="193">
+        <v>30.268799999999999</v>
+      </c>
+      <c r="T4" s="193">
+        <v>30.1114</v>
+      </c>
+      <c r="U4" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="W4" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="X4" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB4" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC4" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD4" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE4" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF4" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG4" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH4" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI4" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ4" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK4" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL4" s="193" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="A5" s="190" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" s="193">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C5" s="193">
+        <v>0.16</v>
+      </c>
+      <c r="D5" s="193">
+        <v>0.22</v>
+      </c>
+      <c r="E5" s="193">
+        <v>0.27</v>
+      </c>
+      <c r="F5" s="193">
+        <v>0.3</v>
+      </c>
+      <c r="G5" s="193">
+        <v>0.53</v>
+      </c>
+      <c r="H5" s="193">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="I5" s="193">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="J5" s="193">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="K5" s="193">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="L5" s="193">
+        <v>0.85</v>
+      </c>
+      <c r="M5" s="193">
+        <v>0.88</v>
+      </c>
+      <c r="N5" s="193">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="O5" s="193">
+        <v>0.9</v>
+      </c>
+      <c r="P5" s="193">
+        <v>0.91</v>
+      </c>
+      <c r="Q5" s="193">
+        <v>0.9</v>
+      </c>
+      <c r="R5" s="193">
+        <v>0.93</v>
+      </c>
+      <c r="S5" s="193">
+        <v>0.92</v>
+      </c>
+      <c r="T5" s="193">
+        <v>0.93105492300110437</v>
+      </c>
+      <c r="U5" s="193">
+        <v>0.88134169907849358</v>
+      </c>
+      <c r="V5" s="193">
+        <v>1.0305121850001198</v>
+      </c>
+      <c r="W5" s="193">
+        <v>1.0478628209221583</v>
+      </c>
+      <c r="X5" s="193">
+        <v>1.2684974308327119</v>
+      </c>
+      <c r="Y5" s="193">
+        <v>1.0703264089454896</v>
+      </c>
+      <c r="Z5" s="193">
+        <v>1.1148894548651185</v>
+      </c>
+      <c r="AA5" s="193">
+        <v>1.1708832763949892</v>
+      </c>
+      <c r="AB5" s="193">
+        <v>1.2230470662195179</v>
+      </c>
+      <c r="AC5" s="193">
+        <v>1.3088691548436273</v>
+      </c>
+      <c r="AD5" s="193">
+        <v>1.3267645915434336</v>
+      </c>
+      <c r="AE5" s="193">
+        <v>1.4032474008300455</v>
+      </c>
+      <c r="AF5" s="193">
+        <v>1.4324953485868275</v>
+      </c>
+      <c r="AG5" s="193">
+        <v>1.4905354091049987</v>
+      </c>
+      <c r="AH5" s="193">
+        <v>1.5221571653450272</v>
+      </c>
+      <c r="AI5" s="193">
+        <v>1.5733096607655503</v>
+      </c>
+      <c r="AJ5" s="193">
+        <v>1.6105285886734684</v>
+      </c>
+      <c r="AK5" s="193">
+        <v>1.6257686952473935</v>
+      </c>
+      <c r="AL5" s="193" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="190" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="193">
+        <v>0.64</v>
+      </c>
+      <c r="C6" s="193">
+        <v>0.71</v>
+      </c>
+      <c r="D6" s="193">
+        <v>0.84</v>
+      </c>
+      <c r="E6" s="193">
+        <v>1.04</v>
+      </c>
+      <c r="F6" s="193">
+        <v>1.41</v>
+      </c>
+      <c r="G6" s="193">
+        <v>2.85</v>
+      </c>
+      <c r="H6" s="193">
+        <v>2.9</v>
+      </c>
+      <c r="I6" s="193">
+        <v>3.01</v>
+      </c>
+      <c r="J6" s="193">
+        <v>3.09</v>
+      </c>
+      <c r="K6" s="193">
+        <v>3.09</v>
+      </c>
+      <c r="L6" s="193">
+        <v>3.19</v>
+      </c>
+      <c r="M6" s="193">
+        <v>3.13</v>
+      </c>
+      <c r="N6" s="193">
+        <v>3.25</v>
+      </c>
+      <c r="O6" s="193">
+        <v>3.3</v>
+      </c>
+      <c r="P6" s="193">
+        <v>3.29</v>
+      </c>
+      <c r="Q6" s="193">
+        <v>3.3</v>
+      </c>
+      <c r="R6" s="193">
+        <v>3.33</v>
+      </c>
+      <c r="S6" s="193">
+        <v>3.43</v>
+      </c>
+      <c r="T6" s="193">
+        <v>3.4981570590620956</v>
+      </c>
+      <c r="U6" s="193">
+        <v>3.6212347491388974</v>
+      </c>
+      <c r="V6" s="193">
+        <v>3.9039090811770136</v>
+      </c>
+      <c r="W6" s="193">
+        <v>4.0882556808472987</v>
+      </c>
+      <c r="X6" s="193">
+        <v>4.2213727365578846</v>
+      </c>
+      <c r="Y6" s="193">
+        <v>4.3258640600896179</v>
+      </c>
+      <c r="Z6" s="193">
+        <v>4.5845720074559528</v>
+      </c>
+      <c r="AA6" s="193">
+        <v>4.690782584808594</v>
+      </c>
+      <c r="AB6" s="193">
+        <v>4.8536695209141634</v>
+      </c>
+      <c r="AC6" s="193">
+        <v>5.2769125478220937</v>
+      </c>
+      <c r="AD6" s="193">
+        <v>5.4378591402608825</v>
+      </c>
+      <c r="AE6" s="193">
+        <v>5.6473032107099552</v>
+      </c>
+      <c r="AF6" s="193">
+        <v>5.8403652256674254</v>
+      </c>
+      <c r="AG6" s="193">
+        <v>6.0808897992884008</v>
+      </c>
+      <c r="AH6" s="193">
+        <v>6.2056060036136858</v>
+      </c>
+      <c r="AI6" s="193">
+        <v>6.4299484917367282</v>
+      </c>
+      <c r="AJ6" s="193">
+        <v>6.464293683918191</v>
+      </c>
+      <c r="AK6" s="193">
+        <v>6.5317722647971062</v>
+      </c>
+      <c r="AL6" s="193" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="194" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" s="195">
+        <v>4.22</v>
+      </c>
+      <c r="C7" s="195">
+        <v>3.92</v>
+      </c>
+      <c r="D7" s="195">
+        <v>3.19</v>
+      </c>
+      <c r="E7" s="195">
+        <v>12.96</v>
+      </c>
+      <c r="F7" s="195">
+        <v>17.72</v>
+      </c>
+      <c r="G7" s="195">
+        <v>26.153846153846153</v>
+      </c>
+      <c r="H7" s="195">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="I7" s="195">
+        <v>41.19</v>
+      </c>
+      <c r="J7" s="195">
+        <v>40.78</v>
+      </c>
+      <c r="K7" s="195">
+        <v>40.11</v>
+      </c>
+      <c r="L7" s="195">
+        <v>39.1</v>
+      </c>
+      <c r="M7" s="195">
+        <v>39.92</v>
+      </c>
+      <c r="N7" s="195">
+        <v>43.31</v>
+      </c>
+      <c r="O7" s="195">
+        <v>45.26</v>
+      </c>
+      <c r="P7" s="195">
+        <v>44.75</v>
+      </c>
+      <c r="Q7" s="195">
+        <v>46.853099999999998</v>
+      </c>
+      <c r="R7" s="195">
+        <v>52.148904810459555</v>
+      </c>
+      <c r="S7" s="195">
+        <v>54.224515253465214</v>
+      </c>
+      <c r="T7" s="195">
+        <v>59.070718416230001</v>
+      </c>
+      <c r="U7" s="195">
+        <v>53.902265328985841</v>
+      </c>
+      <c r="V7" s="195">
+        <v>53.286809558934664</v>
+      </c>
+      <c r="W7" s="195">
+        <v>51.566228901880351</v>
+      </c>
+      <c r="X7" s="195">
+        <v>56.414770622329854</v>
+      </c>
+      <c r="Y7" s="195">
+        <v>58.772734734315627</v>
+      </c>
+      <c r="Z7" s="195">
+        <v>60.388795018819728</v>
+      </c>
+      <c r="AA7" s="195">
+        <v>58.87538100433121</v>
+      </c>
+      <c r="AB7" s="195">
+        <v>60.695748632937097</v>
+      </c>
+      <c r="AC7" s="195">
+        <v>62.665934302993307</v>
+      </c>
+      <c r="AD7" s="195">
+        <v>64.659674080798482</v>
+      </c>
+      <c r="AE7" s="195">
+        <v>68.222700251126682</v>
+      </c>
+      <c r="AF7" s="195">
+        <v>70.7815223266674</v>
+      </c>
+      <c r="AG7" s="195">
+        <v>70.770276330365689</v>
+      </c>
+      <c r="AH7" s="195">
+        <v>68.300996329313065</v>
+      </c>
+      <c r="AI7" s="195">
+        <v>68.711934791718519</v>
+      </c>
+      <c r="AJ7" s="195">
+        <v>69.58693006627027</v>
+      </c>
+      <c r="AK7" s="195">
+        <v>71.471848492798159</v>
+      </c>
+      <c r="AL7" s="195">
+        <v>70.772026078592035</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A8" s="244" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" s="244"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
+      <c r="E8" s="244"/>
+      <c r="F8" s="244"/>
+      <c r="G8" s="244"/>
+      <c r="H8" s="244"/>
+      <c r="I8" s="244"/>
+      <c r="J8" s="244"/>
+      <c r="K8" s="244"/>
+      <c r="L8" s="244"/>
+      <c r="M8" s="244"/>
+      <c r="N8" s="244"/>
+      <c r="O8" s="244"/>
+      <c r="P8" s="244"/>
+      <c r="Q8" s="244"/>
+      <c r="R8" s="244"/>
+      <c r="S8" s="244"/>
+      <c r="T8" s="244"/>
+      <c r="U8" s="244"/>
+      <c r="V8" s="244"/>
+      <c r="W8" s="244"/>
+      <c r="X8" s="244"/>
+      <c r="Y8" s="244"/>
+      <c r="Z8" s="244"/>
+      <c r="AA8" s="244"/>
+      <c r="AB8" s="244"/>
+      <c r="AC8" s="244"/>
+      <c r="AD8" s="244"/>
+      <c r="AE8" s="244"/>
+      <c r="AF8" s="244"/>
+      <c r="AG8" s="24"/>
+      <c r="AH8" s="24"/>
+      <c r="AI8" s="24"/>
+      <c r="AJ8" s="24"/>
+      <c r="AK8" s="24"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A9" s="245"/>
+      <c r="B9" s="245"/>
+      <c r="C9" s="245"/>
+      <c r="D9" s="245"/>
+      <c r="E9" s="245"/>
+      <c r="F9" s="245"/>
+      <c r="G9" s="245"/>
+      <c r="H9" s="245"/>
+      <c r="I9" s="245"/>
+      <c r="J9" s="245"/>
+      <c r="K9" s="245"/>
+      <c r="L9" s="245"/>
+      <c r="M9" s="245"/>
+      <c r="N9" s="245"/>
+      <c r="O9" s="245"/>
+      <c r="P9" s="245"/>
+      <c r="Q9" s="245"/>
+      <c r="R9" s="245"/>
+      <c r="S9" s="245"/>
+      <c r="T9" s="245"/>
+      <c r="U9" s="245"/>
+      <c r="V9" s="245"/>
+      <c r="W9" s="245"/>
+      <c r="X9" s="245"/>
+      <c r="Y9" s="245"/>
+      <c r="Z9" s="245"/>
+      <c r="AA9" s="245"/>
+      <c r="AB9" s="245"/>
+      <c r="AC9" s="245"/>
+      <c r="AD9" s="245"/>
+      <c r="AE9" s="245"/>
+      <c r="AF9" s="245"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="24"/>
+      <c r="AI9" s="24"/>
+      <c r="AJ9" s="24"/>
+      <c r="AK9" s="24"/>
+    </row>
+    <row r="10" spans="1:38" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="246" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" s="246"/>
+      <c r="C10" s="246"/>
+      <c r="D10" s="246"/>
+      <c r="E10" s="246"/>
+      <c r="F10" s="246"/>
+      <c r="G10" s="246"/>
+      <c r="H10" s="246"/>
+      <c r="I10" s="246"/>
+      <c r="J10" s="246"/>
+      <c r="K10" s="246"/>
+      <c r="L10" s="246"/>
+      <c r="M10" s="246"/>
+      <c r="N10" s="246"/>
+      <c r="O10" s="246"/>
+      <c r="P10" s="246"/>
+      <c r="Q10" s="246"/>
+      <c r="R10" s="246"/>
+      <c r="S10" s="246"/>
+      <c r="T10" s="246"/>
+      <c r="U10" s="246"/>
+      <c r="V10" s="246"/>
+      <c r="W10" s="246"/>
+      <c r="X10" s="246"/>
+      <c r="Y10" s="246"/>
+      <c r="Z10" s="246"/>
+      <c r="AA10" s="246"/>
+      <c r="AB10" s="246"/>
+      <c r="AC10" s="246"/>
+      <c r="AD10" s="246"/>
+      <c r="AE10" s="246"/>
+      <c r="AF10" s="246"/>
+      <c r="AG10" s="24"/>
+      <c r="AH10" s="24"/>
+      <c r="AI10" s="24"/>
+      <c r="AJ10" s="24"/>
+      <c r="AK10" s="24"/>
+    </row>
+    <row r="11" spans="1:38" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="246" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" s="246"/>
+      <c r="C11" s="246"/>
+      <c r="D11" s="246"/>
+      <c r="E11" s="246"/>
+      <c r="F11" s="246"/>
+      <c r="G11" s="246"/>
+      <c r="H11" s="246"/>
+      <c r="I11" s="246"/>
+      <c r="J11" s="246"/>
+      <c r="K11" s="246"/>
+      <c r="L11" s="246"/>
+      <c r="M11" s="246"/>
+      <c r="N11" s="246"/>
+      <c r="O11" s="246"/>
+      <c r="P11" s="246"/>
+      <c r="Q11" s="246"/>
+      <c r="R11" s="246"/>
+      <c r="S11" s="246"/>
+      <c r="T11" s="246"/>
+      <c r="U11" s="246"/>
+      <c r="V11" s="246"/>
+      <c r="W11" s="246"/>
+      <c r="X11" s="246"/>
+      <c r="Y11" s="246"/>
+      <c r="Z11" s="246"/>
+      <c r="AA11" s="246"/>
+      <c r="AB11" s="246"/>
+      <c r="AC11" s="246"/>
+      <c r="AD11" s="246"/>
+      <c r="AE11" s="246"/>
+      <c r="AF11" s="246"/>
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="24"/>
+      <c r="AI11" s="24"/>
+      <c r="AJ11" s="24"/>
+      <c r="AK11" s="24"/>
+    </row>
+    <row r="12" spans="1:38" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="246" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" s="246"/>
+      <c r="C12" s="246"/>
+      <c r="D12" s="246"/>
+      <c r="E12" s="246"/>
+      <c r="F12" s="246"/>
+      <c r="G12" s="246"/>
+      <c r="H12" s="246"/>
+      <c r="I12" s="246"/>
+      <c r="J12" s="246"/>
+      <c r="K12" s="246"/>
+      <c r="L12" s="246"/>
+      <c r="M12" s="246"/>
+      <c r="N12" s="246"/>
+      <c r="O12" s="246"/>
+      <c r="P12" s="246"/>
+      <c r="Q12" s="246"/>
+      <c r="R12" s="246"/>
+      <c r="S12" s="246"/>
+      <c r="T12" s="246"/>
+      <c r="U12" s="246"/>
+      <c r="V12" s="246"/>
+      <c r="W12" s="246"/>
+      <c r="X12" s="246"/>
+      <c r="Y12" s="246"/>
+      <c r="Z12" s="246"/>
+      <c r="AA12" s="246"/>
+      <c r="AB12" s="246"/>
+      <c r="AC12" s="246"/>
+      <c r="AD12" s="246"/>
+      <c r="AE12" s="246"/>
+      <c r="AF12" s="246"/>
+      <c r="AG12" s="24"/>
+      <c r="AH12" s="24"/>
+      <c r="AI12" s="24"/>
+      <c r="AJ12" s="24"/>
+      <c r="AK12" s="24"/>
+    </row>
+    <row r="13" spans="1:38" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="246" t="s">
+        <v>264</v>
+      </c>
+      <c r="B13" s="246"/>
+      <c r="C13" s="246"/>
+      <c r="D13" s="246"/>
+      <c r="E13" s="246"/>
+      <c r="F13" s="246"/>
+      <c r="G13" s="246"/>
+      <c r="H13" s="246"/>
+      <c r="I13" s="246"/>
+      <c r="J13" s="246"/>
+      <c r="K13" s="246"/>
+      <c r="L13" s="246"/>
+      <c r="M13" s="246"/>
+      <c r="N13" s="246"/>
+      <c r="O13" s="246"/>
+      <c r="P13" s="246"/>
+      <c r="Q13" s="246"/>
+      <c r="R13" s="246"/>
+      <c r="S13" s="246"/>
+      <c r="T13" s="246"/>
+      <c r="U13" s="246"/>
+      <c r="V13" s="246"/>
+      <c r="W13" s="246"/>
+      <c r="X13" s="246"/>
+      <c r="Y13" s="246"/>
+      <c r="Z13" s="246"/>
+      <c r="AA13" s="246"/>
+      <c r="AB13" s="246"/>
+      <c r="AC13" s="246"/>
+      <c r="AD13" s="246"/>
+      <c r="AE13" s="246"/>
+      <c r="AF13" s="246"/>
+      <c r="AG13" s="24"/>
+      <c r="AH13" s="24"/>
+      <c r="AI13" s="24"/>
+      <c r="AJ13" s="24"/>
+      <c r="AK13" s="24"/>
+    </row>
+    <row r="14" spans="1:38" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="246"/>
+      <c r="B14" s="246"/>
+      <c r="C14" s="246"/>
+      <c r="D14" s="246"/>
+      <c r="E14" s="246"/>
+      <c r="F14" s="246"/>
+      <c r="G14" s="246"/>
+      <c r="H14" s="246"/>
+      <c r="I14" s="246"/>
+      <c r="J14" s="246"/>
+      <c r="K14" s="246"/>
+      <c r="L14" s="246"/>
+      <c r="M14" s="246"/>
+      <c r="N14" s="246"/>
+      <c r="O14" s="246"/>
+      <c r="P14" s="246"/>
+      <c r="Q14" s="246"/>
+      <c r="R14" s="246"/>
+      <c r="S14" s="246"/>
+      <c r="T14" s="246"/>
+      <c r="U14" s="246"/>
+      <c r="V14" s="246"/>
+      <c r="W14" s="246"/>
+      <c r="X14" s="246"/>
+      <c r="Y14" s="246"/>
+      <c r="Z14" s="246"/>
+      <c r="AA14" s="246"/>
+      <c r="AB14" s="246"/>
+      <c r="AC14" s="246"/>
+      <c r="AD14" s="246"/>
+      <c r="AE14" s="246"/>
+      <c r="AF14" s="246"/>
+      <c r="AG14" s="24"/>
+      <c r="AH14" s="24"/>
+      <c r="AI14" s="24"/>
+      <c r="AJ14" s="24"/>
+      <c r="AK14" s="24"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A15" s="245" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="245"/>
+      <c r="C15" s="245"/>
+      <c r="D15" s="245"/>
+      <c r="E15" s="245"/>
+      <c r="F15" s="245"/>
+      <c r="G15" s="245"/>
+      <c r="H15" s="245"/>
+      <c r="I15" s="245"/>
+      <c r="J15" s="245"/>
+      <c r="K15" s="245"/>
+      <c r="L15" s="245"/>
+      <c r="M15" s="245"/>
+      <c r="N15" s="245"/>
+      <c r="O15" s="245"/>
+      <c r="P15" s="245"/>
+      <c r="Q15" s="245"/>
+      <c r="R15" s="245"/>
+      <c r="S15" s="245"/>
+      <c r="T15" s="245"/>
+      <c r="U15" s="245"/>
+      <c r="V15" s="245"/>
+      <c r="W15" s="245"/>
+      <c r="X15" s="245"/>
+      <c r="Y15" s="245"/>
+      <c r="Z15" s="245"/>
+      <c r="AA15" s="245"/>
+      <c r="AB15" s="245"/>
+      <c r="AC15" s="245"/>
+      <c r="AD15" s="245"/>
+      <c r="AE15" s="245"/>
+      <c r="AF15" s="245"/>
+      <c r="AG15" s="24"/>
+      <c r="AH15" s="24"/>
+      <c r="AI15" s="24"/>
+      <c r="AJ15" s="24"/>
+      <c r="AK15" s="24"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="240" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" s="240"/>
       <c r="C16" s="240"/>
@@ -10588,10 +12335,16 @@
       <c r="AD16" s="240"/>
       <c r="AE16" s="240"/>
       <c r="AF16" s="240"/>
-      <c r="AG16" s="240"/>
-    </row>
-    <row r="17" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A17" s="241"/>
+      <c r="AG16" s="24"/>
+      <c r="AH16" s="24"/>
+      <c r="AI16" s="24"/>
+      <c r="AJ16" s="24"/>
+      <c r="AK16" s="24"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A17" s="241" t="s">
+        <v>265</v>
+      </c>
       <c r="B17" s="241"/>
       <c r="C17" s="241"/>
       <c r="D17" s="241"/>
@@ -10623,161 +12376,179 @@
       <c r="AD17" s="241"/>
       <c r="AE17" s="241"/>
       <c r="AF17" s="241"/>
-      <c r="AG17" s="241"/>
-      <c r="AH17" s="25"/>
-      <c r="AI17" s="25"/>
-    </row>
-    <row r="18" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A18" s="242" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="242"/>
-      <c r="C18" s="242"/>
-      <c r="D18" s="242"/>
-      <c r="E18" s="242"/>
-      <c r="F18" s="242"/>
-      <c r="G18" s="242"/>
-      <c r="H18" s="242"/>
-      <c r="I18" s="242"/>
-      <c r="J18" s="242"/>
-      <c r="K18" s="242"/>
-      <c r="L18" s="242"/>
-      <c r="M18" s="242"/>
-      <c r="N18" s="242"/>
-      <c r="O18" s="242"/>
-      <c r="P18" s="242"/>
-      <c r="Q18" s="242"/>
-      <c r="R18" s="242"/>
-      <c r="S18" s="242"/>
-      <c r="T18" s="242"/>
-      <c r="U18" s="242"/>
-      <c r="V18" s="242"/>
-      <c r="W18" s="242"/>
-      <c r="X18" s="242"/>
-      <c r="Y18" s="242"/>
-      <c r="Z18" s="242"/>
-      <c r="AA18" s="242"/>
-      <c r="AB18" s="242"/>
-      <c r="AC18" s="242"/>
-      <c r="AD18" s="242"/>
-      <c r="AE18" s="242"/>
-      <c r="AF18" s="242"/>
-      <c r="AG18" s="242"/>
-    </row>
-    <row r="19" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A19" s="232" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="232"/>
-      <c r="C19" s="232"/>
-      <c r="D19" s="232"/>
-      <c r="E19" s="232"/>
-      <c r="F19" s="232"/>
-      <c r="G19" s="232"/>
-      <c r="H19" s="232"/>
-      <c r="I19" s="232"/>
-      <c r="J19" s="232"/>
-      <c r="K19" s="232"/>
-      <c r="L19" s="232"/>
-      <c r="M19" s="232"/>
-      <c r="N19" s="232"/>
-      <c r="O19" s="232"/>
-      <c r="P19" s="232"/>
-      <c r="Q19" s="232"/>
-      <c r="R19" s="232"/>
-      <c r="S19" s="232"/>
-      <c r="T19" s="232"/>
-      <c r="U19" s="232"/>
-      <c r="V19" s="232"/>
-      <c r="W19" s="232"/>
-      <c r="X19" s="232"/>
-      <c r="Y19" s="232"/>
-      <c r="Z19" s="232"/>
-      <c r="AA19" s="232"/>
-      <c r="AB19" s="232"/>
-      <c r="AC19" s="232"/>
-      <c r="AD19" s="232"/>
-      <c r="AE19" s="232"/>
-      <c r="AF19" s="232"/>
-      <c r="AG19" s="232"/>
-    </row>
-    <row r="20" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A20" s="234" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="234"/>
-      <c r="C20" s="234"/>
-      <c r="D20" s="234"/>
-      <c r="E20" s="234"/>
-      <c r="F20" s="234"/>
-      <c r="G20" s="234"/>
-      <c r="H20" s="234"/>
-      <c r="I20" s="234"/>
-      <c r="J20" s="234"/>
-      <c r="K20" s="234"/>
-      <c r="L20" s="234"/>
-      <c r="M20" s="234"/>
-      <c r="N20" s="234"/>
-      <c r="O20" s="234"/>
-      <c r="P20" s="234"/>
-      <c r="Q20" s="234"/>
-      <c r="R20" s="234"/>
-      <c r="S20" s="234"/>
-      <c r="T20" s="234"/>
-      <c r="U20" s="234"/>
-      <c r="V20" s="234"/>
-      <c r="W20" s="234"/>
-      <c r="X20" s="234"/>
-      <c r="Y20" s="234"/>
-      <c r="Z20" s="234"/>
-      <c r="AA20" s="234"/>
-      <c r="AB20" s="234"/>
-      <c r="AC20" s="234"/>
-      <c r="AD20" s="234"/>
-      <c r="AE20" s="234"/>
-      <c r="AF20" s="234"/>
-      <c r="AG20" s="234"/>
-    </row>
-    <row r="21" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A21" s="233" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="233"/>
-      <c r="C21" s="233"/>
-      <c r="D21" s="233"/>
-      <c r="E21" s="233"/>
-      <c r="F21" s="233"/>
-      <c r="G21" s="233"/>
-      <c r="H21" s="233"/>
-      <c r="I21" s="233"/>
-      <c r="J21" s="233"/>
-      <c r="K21" s="233"/>
-      <c r="L21" s="233"/>
-      <c r="M21" s="233"/>
-      <c r="N21" s="233"/>
-      <c r="O21" s="233"/>
-      <c r="P21" s="233"/>
-      <c r="Q21" s="233"/>
-      <c r="R21" s="233"/>
-      <c r="S21" s="233"/>
-      <c r="T21" s="233"/>
-      <c r="U21" s="233"/>
-      <c r="V21" s="233"/>
-      <c r="W21" s="233"/>
-      <c r="X21" s="233"/>
-      <c r="Y21" s="233"/>
-      <c r="Z21" s="233"/>
-      <c r="AA21" s="233"/>
-      <c r="AB21" s="233"/>
-      <c r="AC21" s="233"/>
-      <c r="AD21" s="233"/>
-      <c r="AE21" s="233"/>
-      <c r="AF21" s="233"/>
-      <c r="AG21" s="233"/>
-    </row>
-    <row r="22" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="AG17" s="24"/>
+      <c r="AH17" s="24"/>
+      <c r="AI17" s="24"/>
+      <c r="AJ17" s="24"/>
+      <c r="AK17" s="24"/>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A18" s="241" t="s">
+        <v>266</v>
+      </c>
+      <c r="B18" s="241"/>
+      <c r="C18" s="241"/>
+      <c r="D18" s="241"/>
+      <c r="E18" s="241"/>
+      <c r="F18" s="241"/>
+      <c r="G18" s="241"/>
+      <c r="H18" s="241"/>
+      <c r="I18" s="241"/>
+      <c r="J18" s="241"/>
+      <c r="K18" s="241"/>
+      <c r="L18" s="241"/>
+      <c r="M18" s="241"/>
+      <c r="N18" s="241"/>
+      <c r="O18" s="241"/>
+      <c r="P18" s="241"/>
+      <c r="Q18" s="241"/>
+      <c r="R18" s="241"/>
+      <c r="S18" s="241"/>
+      <c r="T18" s="241"/>
+      <c r="U18" s="241"/>
+      <c r="V18" s="241"/>
+      <c r="W18" s="241"/>
+      <c r="X18" s="241"/>
+      <c r="Y18" s="241"/>
+      <c r="Z18" s="241"/>
+      <c r="AA18" s="241"/>
+      <c r="AB18" s="241"/>
+      <c r="AC18" s="241"/>
+      <c r="AD18" s="241"/>
+      <c r="AE18" s="241"/>
+      <c r="AF18" s="241"/>
+      <c r="AG18" s="24"/>
+      <c r="AH18" s="24"/>
+      <c r="AI18" s="24"/>
+      <c r="AJ18" s="24"/>
+      <c r="AK18" s="24"/>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A19" s="231" t="s">
+        <v>267</v>
+      </c>
+      <c r="B19" s="231"/>
+      <c r="C19" s="231"/>
+      <c r="D19" s="231"/>
+      <c r="E19" s="231"/>
+      <c r="F19" s="231"/>
+      <c r="G19" s="231"/>
+      <c r="H19" s="231"/>
+      <c r="I19" s="231"/>
+      <c r="J19" s="231"/>
+      <c r="K19" s="231"/>
+      <c r="L19" s="231"/>
+      <c r="M19" s="231"/>
+      <c r="N19" s="231"/>
+      <c r="O19" s="231"/>
+      <c r="P19" s="231"/>
+      <c r="Q19" s="231"/>
+      <c r="R19" s="231"/>
+      <c r="S19" s="231"/>
+      <c r="T19" s="231"/>
+      <c r="U19" s="231"/>
+      <c r="V19" s="231"/>
+      <c r="W19" s="231"/>
+      <c r="X19" s="231"/>
+      <c r="Y19" s="231"/>
+      <c r="Z19" s="231"/>
+      <c r="AA19" s="231"/>
+      <c r="AB19" s="231"/>
+      <c r="AC19" s="231"/>
+      <c r="AD19" s="231"/>
+      <c r="AE19" s="231"/>
+      <c r="AF19" s="231"/>
+      <c r="AG19" s="24"/>
+      <c r="AH19" s="24"/>
+      <c r="AI19" s="24"/>
+      <c r="AJ19" s="24"/>
+      <c r="AK19" s="24"/>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A20" s="231" t="s">
+        <v>268</v>
+      </c>
+      <c r="B20" s="231"/>
+      <c r="C20" s="231"/>
+      <c r="D20" s="231"/>
+      <c r="E20" s="231"/>
+      <c r="F20" s="231"/>
+      <c r="G20" s="231"/>
+      <c r="H20" s="231"/>
+      <c r="I20" s="231"/>
+      <c r="J20" s="231"/>
+      <c r="K20" s="231"/>
+      <c r="L20" s="231"/>
+      <c r="M20" s="231"/>
+      <c r="N20" s="231"/>
+      <c r="O20" s="231"/>
+      <c r="P20" s="231"/>
+      <c r="Q20" s="231"/>
+      <c r="R20" s="231"/>
+      <c r="S20" s="231"/>
+      <c r="T20" s="231"/>
+      <c r="U20" s="231"/>
+      <c r="V20" s="231"/>
+      <c r="W20" s="231"/>
+      <c r="X20" s="231"/>
+      <c r="Y20" s="231"/>
+      <c r="Z20" s="231"/>
+      <c r="AA20" s="231"/>
+      <c r="AB20" s="231"/>
+      <c r="AC20" s="231"/>
+      <c r="AD20" s="231"/>
+      <c r="AE20" s="231"/>
+      <c r="AF20" s="231"/>
+      <c r="AG20" s="24"/>
+      <c r="AH20" s="24"/>
+      <c r="AI20" s="24"/>
+      <c r="AJ20" s="24"/>
+      <c r="AK20" s="24"/>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A21" s="231" t="s">
+        <v>269</v>
+      </c>
+      <c r="B21" s="231"/>
+      <c r="C21" s="231"/>
+      <c r="D21" s="231"/>
+      <c r="E21" s="231"/>
+      <c r="F21" s="231"/>
+      <c r="G21" s="231"/>
+      <c r="H21" s="231"/>
+      <c r="I21" s="231"/>
+      <c r="J21" s="231"/>
+      <c r="K21" s="231"/>
+      <c r="L21" s="231"/>
+      <c r="M21" s="231"/>
+      <c r="N21" s="231"/>
+      <c r="O21" s="231"/>
+      <c r="P21" s="231"/>
+      <c r="Q21" s="231"/>
+      <c r="R21" s="231"/>
+      <c r="S21" s="231"/>
+      <c r="T21" s="231"/>
+      <c r="U21" s="231"/>
+      <c r="V21" s="231"/>
+      <c r="W21" s="231"/>
+      <c r="X21" s="231"/>
+      <c r="Y21" s="231"/>
+      <c r="Z21" s="231"/>
+      <c r="AA21" s="231"/>
+      <c r="AB21" s="231"/>
+      <c r="AC21" s="231"/>
+      <c r="AD21" s="231"/>
+      <c r="AE21" s="231"/>
+      <c r="AF21" s="231"/>
+      <c r="AG21" s="24"/>
+      <c r="AH21" s="24"/>
+      <c r="AI21" s="24"/>
+      <c r="AJ21" s="24"/>
+      <c r="AK21" s="24"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="231" t="s">
-        <v>25</v>
+        <v>270</v>
       </c>
       <c r="B22" s="231"/>
       <c r="C22" s="231"/>
@@ -10810,1777 +12581,6 @@
       <c r="AD22" s="231"/>
       <c r="AE22" s="231"/>
       <c r="AF22" s="231"/>
-      <c r="AG22" s="231"/>
-    </row>
-    <row r="23" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A23" s="231" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="231"/>
-      <c r="C23" s="231"/>
-      <c r="D23" s="231"/>
-      <c r="E23" s="231"/>
-      <c r="F23" s="231"/>
-      <c r="G23" s="231"/>
-      <c r="H23" s="231"/>
-      <c r="I23" s="231"/>
-      <c r="J23" s="231"/>
-      <c r="K23" s="231"/>
-      <c r="L23" s="231"/>
-      <c r="M23" s="231"/>
-      <c r="N23" s="231"/>
-      <c r="O23" s="231"/>
-      <c r="P23" s="231"/>
-      <c r="Q23" s="231"/>
-      <c r="R23" s="231"/>
-      <c r="S23" s="231"/>
-      <c r="T23" s="231"/>
-      <c r="U23" s="231"/>
-      <c r="V23" s="231"/>
-      <c r="W23" s="231"/>
-      <c r="X23" s="231"/>
-      <c r="Y23" s="231"/>
-      <c r="Z23" s="231"/>
-      <c r="AA23" s="231"/>
-      <c r="AB23" s="231"/>
-      <c r="AC23" s="231"/>
-      <c r="AD23" s="231"/>
-      <c r="AE23" s="231"/>
-      <c r="AF23" s="231"/>
-      <c r="AG23" s="231"/>
-    </row>
-    <row r="24" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A24" s="232" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="232"/>
-      <c r="C24" s="232"/>
-      <c r="D24" s="232"/>
-      <c r="E24" s="232"/>
-      <c r="F24" s="232"/>
-      <c r="G24" s="232"/>
-      <c r="H24" s="232"/>
-      <c r="I24" s="232"/>
-      <c r="J24" s="232"/>
-      <c r="K24" s="232"/>
-      <c r="L24" s="232"/>
-      <c r="M24" s="232"/>
-      <c r="N24" s="232"/>
-      <c r="O24" s="232"/>
-      <c r="P24" s="232"/>
-      <c r="Q24" s="232"/>
-      <c r="R24" s="232"/>
-      <c r="S24" s="232"/>
-      <c r="T24" s="232"/>
-      <c r="U24" s="232"/>
-      <c r="V24" s="232"/>
-      <c r="W24" s="232"/>
-      <c r="X24" s="232"/>
-      <c r="Y24" s="232"/>
-      <c r="Z24" s="232"/>
-      <c r="AA24" s="232"/>
-      <c r="AB24" s="232"/>
-      <c r="AC24" s="232"/>
-      <c r="AD24" s="232"/>
-      <c r="AE24" s="232"/>
-      <c r="AF24" s="232"/>
-      <c r="AG24" s="232"/>
-    </row>
-    <row r="25" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A25" s="231" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="231"/>
-      <c r="C25" s="231"/>
-      <c r="D25" s="231"/>
-      <c r="E25" s="231"/>
-      <c r="F25" s="231"/>
-      <c r="G25" s="231"/>
-      <c r="H25" s="231"/>
-      <c r="I25" s="231"/>
-      <c r="J25" s="231"/>
-      <c r="K25" s="231"/>
-      <c r="L25" s="231"/>
-      <c r="M25" s="231"/>
-      <c r="N25" s="231"/>
-      <c r="O25" s="231"/>
-      <c r="P25" s="231"/>
-      <c r="Q25" s="231"/>
-      <c r="R25" s="231"/>
-      <c r="S25" s="231"/>
-      <c r="T25" s="231"/>
-      <c r="U25" s="231"/>
-      <c r="V25" s="231"/>
-      <c r="W25" s="231"/>
-      <c r="X25" s="231"/>
-      <c r="Y25" s="231"/>
-      <c r="Z25" s="231"/>
-      <c r="AA25" s="231"/>
-      <c r="AB25" s="231"/>
-      <c r="AC25" s="231"/>
-      <c r="AD25" s="231"/>
-      <c r="AE25" s="231"/>
-      <c r="AF25" s="231"/>
-      <c r="AG25" s="231"/>
-    </row>
-    <row r="26" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A26" s="231" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="231"/>
-      <c r="C26" s="231"/>
-      <c r="D26" s="231"/>
-      <c r="E26" s="231"/>
-      <c r="F26" s="231"/>
-      <c r="G26" s="231"/>
-      <c r="H26" s="231"/>
-      <c r="I26" s="231"/>
-      <c r="J26" s="231"/>
-      <c r="K26" s="231"/>
-      <c r="L26" s="231"/>
-      <c r="M26" s="231"/>
-      <c r="N26" s="231"/>
-      <c r="O26" s="231"/>
-      <c r="P26" s="231"/>
-      <c r="Q26" s="231"/>
-      <c r="R26" s="231"/>
-      <c r="S26" s="231"/>
-      <c r="T26" s="231"/>
-      <c r="U26" s="231"/>
-      <c r="V26" s="231"/>
-      <c r="W26" s="231"/>
-      <c r="X26" s="231"/>
-      <c r="Y26" s="231"/>
-      <c r="Z26" s="231"/>
-      <c r="AA26" s="231"/>
-      <c r="AB26" s="231"/>
-      <c r="AC26" s="231"/>
-      <c r="AD26" s="231"/>
-      <c r="AE26" s="231"/>
-      <c r="AF26" s="231"/>
-      <c r="AG26" s="231"/>
-    </row>
-    <row r="27" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A27" s="231" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="231"/>
-      <c r="C27" s="231"/>
-      <c r="D27" s="231"/>
-      <c r="E27" s="231"/>
-      <c r="F27" s="231"/>
-      <c r="G27" s="231"/>
-      <c r="H27" s="231"/>
-      <c r="I27" s="231"/>
-      <c r="J27" s="231"/>
-      <c r="K27" s="231"/>
-      <c r="L27" s="231"/>
-      <c r="M27" s="231"/>
-      <c r="N27" s="231"/>
-      <c r="O27" s="231"/>
-      <c r="P27" s="231"/>
-      <c r="Q27" s="231"/>
-      <c r="R27" s="231"/>
-      <c r="S27" s="231"/>
-      <c r="T27" s="231"/>
-      <c r="U27" s="231"/>
-      <c r="V27" s="231"/>
-      <c r="W27" s="231"/>
-      <c r="X27" s="231"/>
-      <c r="Y27" s="231"/>
-      <c r="Z27" s="231"/>
-      <c r="AA27" s="231"/>
-      <c r="AB27" s="231"/>
-      <c r="AC27" s="231"/>
-      <c r="AD27" s="231"/>
-      <c r="AE27" s="231"/>
-      <c r="AF27" s="231"/>
-      <c r="AG27" s="231"/>
-    </row>
-    <row r="28" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A28" s="231" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="231"/>
-      <c r="C28" s="231"/>
-      <c r="D28" s="231"/>
-      <c r="E28" s="231"/>
-      <c r="F28" s="231"/>
-      <c r="G28" s="231"/>
-      <c r="H28" s="231"/>
-      <c r="I28" s="231"/>
-      <c r="J28" s="231"/>
-      <c r="K28" s="231"/>
-      <c r="L28" s="231"/>
-      <c r="M28" s="231"/>
-      <c r="N28" s="231"/>
-      <c r="O28" s="231"/>
-      <c r="P28" s="231"/>
-      <c r="Q28" s="231"/>
-      <c r="R28" s="231"/>
-      <c r="S28" s="231"/>
-      <c r="T28" s="231"/>
-      <c r="U28" s="231"/>
-      <c r="V28" s="231"/>
-      <c r="W28" s="231"/>
-      <c r="X28" s="231"/>
-      <c r="Y28" s="231"/>
-      <c r="Z28" s="231"/>
-      <c r="AA28" s="231"/>
-      <c r="AB28" s="231"/>
-      <c r="AC28" s="231"/>
-      <c r="AD28" s="231"/>
-      <c r="AE28" s="231"/>
-      <c r="AF28" s="231"/>
-      <c r="AG28" s="231"/>
-    </row>
-    <row r="29" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A29" s="232" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="232"/>
-      <c r="C29" s="232"/>
-      <c r="D29" s="232"/>
-      <c r="E29" s="232"/>
-      <c r="F29" s="232"/>
-      <c r="G29" s="232"/>
-      <c r="H29" s="232"/>
-      <c r="I29" s="232"/>
-      <c r="J29" s="232"/>
-      <c r="K29" s="232"/>
-      <c r="L29" s="232"/>
-      <c r="M29" s="232"/>
-      <c r="N29" s="232"/>
-      <c r="O29" s="232"/>
-      <c r="P29" s="232"/>
-      <c r="Q29" s="232"/>
-      <c r="R29" s="232"/>
-      <c r="S29" s="232"/>
-      <c r="T29" s="232"/>
-      <c r="U29" s="232"/>
-      <c r="V29" s="232"/>
-      <c r="W29" s="232"/>
-      <c r="X29" s="232"/>
-      <c r="Y29" s="232"/>
-      <c r="Z29" s="232"/>
-      <c r="AA29" s="232"/>
-      <c r="AB29" s="232"/>
-      <c r="AC29" s="232"/>
-      <c r="AD29" s="232"/>
-      <c r="AE29" s="232"/>
-      <c r="AF29" s="232"/>
-      <c r="AG29" s="232"/>
-    </row>
-    <row r="30" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A30" s="231" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="231"/>
-      <c r="C30" s="231"/>
-      <c r="D30" s="231"/>
-      <c r="E30" s="231"/>
-      <c r="F30" s="231"/>
-      <c r="G30" s="231"/>
-      <c r="H30" s="231"/>
-      <c r="I30" s="231"/>
-      <c r="J30" s="231"/>
-      <c r="K30" s="231"/>
-      <c r="L30" s="231"/>
-      <c r="M30" s="231"/>
-      <c r="N30" s="231"/>
-      <c r="O30" s="231"/>
-      <c r="P30" s="231"/>
-      <c r="Q30" s="231"/>
-      <c r="R30" s="231"/>
-      <c r="S30" s="231"/>
-      <c r="T30" s="231"/>
-      <c r="U30" s="231"/>
-      <c r="V30" s="231"/>
-      <c r="W30" s="231"/>
-      <c r="X30" s="231"/>
-      <c r="Y30" s="231"/>
-      <c r="Z30" s="231"/>
-      <c r="AA30" s="231"/>
-      <c r="AB30" s="231"/>
-      <c r="AC30" s="231"/>
-      <c r="AD30" s="231"/>
-      <c r="AE30" s="231"/>
-      <c r="AF30" s="231"/>
-      <c r="AG30" s="231"/>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="N31" s="26"/>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="28"/>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="30"/>
-      <c r="AA33" s="29"/>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="28"/>
-      <c r="AA34" s="28"/>
-    </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="30"/>
-      <c r="AA36" s="30"/>
-    </row>
-  </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A20:AG20"/>
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="A10:AG10"/>
-    <mergeCell ref="A11:AG11"/>
-    <mergeCell ref="A12:AG12"/>
-    <mergeCell ref="A13:AG13"/>
-    <mergeCell ref="A14:AG14"/>
-    <mergeCell ref="A15:AG15"/>
-    <mergeCell ref="A16:AG16"/>
-    <mergeCell ref="A17:AG17"/>
-    <mergeCell ref="A18:AG18"/>
-    <mergeCell ref="A19:AG19"/>
-    <mergeCell ref="A27:AG27"/>
-    <mergeCell ref="A28:AG28"/>
-    <mergeCell ref="A29:AG29"/>
-    <mergeCell ref="A30:AG30"/>
-    <mergeCell ref="A21:AG21"/>
-    <mergeCell ref="A22:AG22"/>
-    <mergeCell ref="A23:AG23"/>
-    <mergeCell ref="A24:AG24"/>
-    <mergeCell ref="A25:AG25"/>
-    <mergeCell ref="A26:AG26"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A434B60-83C1-4A6D-BC82-D6A36637EAE4}">
-  <dimension ref="A1:AL35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="32.7109375" style="26" customWidth="1"/>
-    <col min="2" max="30" width="6.7109375" style="26" customWidth="1"/>
-    <col min="31" max="36" width="9.7109375" style="26" customWidth="1"/>
-    <col min="37" max="38" width="6.7109375" style="26" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="26"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="244" t="s">
-        <v>255</v>
-      </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="244"/>
-      <c r="H1" s="244"/>
-      <c r="I1" s="244"/>
-      <c r="J1" s="244"/>
-      <c r="K1" s="244"/>
-      <c r="L1" s="244"/>
-      <c r="M1" s="244"/>
-      <c r="N1" s="244"/>
-      <c r="O1" s="244"/>
-      <c r="P1" s="244"/>
-      <c r="Q1" s="244"/>
-      <c r="R1" s="244"/>
-      <c r="S1" s="244"/>
-      <c r="T1" s="244"/>
-      <c r="U1" s="244"/>
-      <c r="V1" s="244"/>
-      <c r="W1" s="244"/>
-      <c r="X1" s="244"/>
-      <c r="Y1" s="244"/>
-      <c r="Z1" s="244"/>
-      <c r="AA1" s="244"/>
-      <c r="AB1" s="244"/>
-      <c r="AC1" s="244"/>
-      <c r="AD1" s="244"/>
-      <c r="AE1" s="244"/>
-      <c r="AF1" s="244"/>
-      <c r="AG1" s="244"/>
-      <c r="AH1" s="244"/>
-      <c r="AI1" s="244"/>
-      <c r="AJ1" s="244"/>
-      <c r="AK1" s="244"/>
-      <c r="AL1" s="244"/>
-    </row>
-    <row r="2" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="189"/>
-      <c r="B2" s="5">
-        <v>1960</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1965</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1970</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1975</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1980</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1985</v>
-      </c>
-      <c r="H2" s="5">
-        <v>1990</v>
-      </c>
-      <c r="I2" s="5">
-        <v>1991</v>
-      </c>
-      <c r="J2" s="5">
-        <v>1992</v>
-      </c>
-      <c r="K2" s="5">
-        <v>1993</v>
-      </c>
-      <c r="L2" s="5">
-        <v>1994</v>
-      </c>
-      <c r="M2" s="5">
-        <v>1995</v>
-      </c>
-      <c r="N2" s="5">
-        <v>1996</v>
-      </c>
-      <c r="O2" s="5">
-        <v>1997</v>
-      </c>
-      <c r="P2" s="5">
-        <v>1998</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>1999</v>
-      </c>
-      <c r="R2" s="5">
-        <v>2000</v>
-      </c>
-      <c r="S2" s="5">
-        <v>2001</v>
-      </c>
-      <c r="T2" s="5">
-        <v>2002</v>
-      </c>
-      <c r="U2" s="5">
-        <v>2003</v>
-      </c>
-      <c r="V2" s="5">
-        <v>2004</v>
-      </c>
-      <c r="W2" s="5">
-        <v>2005</v>
-      </c>
-      <c r="X2" s="5">
-        <v>2006</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>2007</v>
-      </c>
-      <c r="Z2" s="5">
-        <v>2008</v>
-      </c>
-      <c r="AA2" s="5">
-        <v>2009</v>
-      </c>
-      <c r="AB2" s="5">
-        <v>2010</v>
-      </c>
-      <c r="AC2" s="5">
-        <v>2011</v>
-      </c>
-      <c r="AD2" s="5">
-        <v>2012</v>
-      </c>
-      <c r="AE2" s="5">
-        <v>2013</v>
-      </c>
-      <c r="AF2" s="5">
-        <v>2014</v>
-      </c>
-      <c r="AG2" s="5">
-        <v>2015</v>
-      </c>
-      <c r="AH2" s="5">
-        <v>2016</v>
-      </c>
-      <c r="AI2" s="5">
-        <v>2017</v>
-      </c>
-      <c r="AJ2" s="5">
-        <v>2018</v>
-      </c>
-      <c r="AK2" s="5">
-        <v>2019</v>
-      </c>
-      <c r="AL2" s="5">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="190" t="s">
-        <v>256</v>
-      </c>
-      <c r="B3" s="191">
-        <v>33.01</v>
-      </c>
-      <c r="C3" s="191">
-        <v>34.130000000000003</v>
-      </c>
-      <c r="D3" s="191">
-        <v>40.65</v>
-      </c>
-      <c r="E3" s="191">
-        <v>53.64</v>
-      </c>
-      <c r="F3" s="191">
-        <v>84.6</v>
-      </c>
-      <c r="G3" s="191">
-        <v>92.53</v>
-      </c>
-      <c r="H3" s="191">
-        <v>107.95605383345789</v>
-      </c>
-      <c r="I3" s="191">
-        <v>106.82359925320584</v>
-      </c>
-      <c r="J3" s="191">
-        <v>103.96695716885564</v>
-      </c>
-      <c r="K3" s="191">
-        <v>110.30216410489288</v>
-      </c>
-      <c r="L3" s="191">
-        <v>103.71187200788872</v>
-      </c>
-      <c r="M3" s="191">
-        <v>292.18857508501458</v>
-      </c>
-      <c r="N3" s="191">
-        <v>276.6279861413596</v>
-      </c>
-      <c r="O3" s="191">
-        <v>287.22154413532138</v>
-      </c>
-      <c r="P3" s="191">
-        <v>309.17037540393335</v>
-      </c>
-      <c r="Q3" s="191">
-        <v>323.82594729367332</v>
-      </c>
-      <c r="R3" s="191">
-        <v>338.99637086858655</v>
-      </c>
-      <c r="S3" s="191">
-        <v>320.62432456238798</v>
-      </c>
-      <c r="T3" s="191">
-        <v>312.32934290453386</v>
-      </c>
-      <c r="U3" s="191">
-        <v>315.35521442000174</v>
-      </c>
-      <c r="V3" s="191">
-        <v>305.40959352583474</v>
-      </c>
-      <c r="W3" s="191">
-        <v>307.31062697583019</v>
-      </c>
-      <c r="X3" s="191">
-        <v>328.54794374827924</v>
-      </c>
-      <c r="Y3" s="191">
-        <v>325.26065137526251</v>
-      </c>
-      <c r="Z3" s="191">
-        <v>346.37773634629673</v>
-      </c>
-      <c r="AA3" s="191">
-        <v>310.34502019698289</v>
-      </c>
-      <c r="AB3" s="191">
-        <v>336.08909441198415</v>
-      </c>
-      <c r="AC3" s="191">
-        <v>363.85119844189529</v>
-      </c>
-      <c r="AD3" s="191">
-        <v>374.76958179972269</v>
-      </c>
-      <c r="AE3" s="192">
-        <v>382.00308300027064</v>
-      </c>
-      <c r="AF3" s="192">
-        <v>391.70146694796955</v>
-      </c>
-      <c r="AG3" s="192">
-        <v>376.95078761698812</v>
-      </c>
-      <c r="AH3" s="192">
-        <v>349.14614920276199</v>
-      </c>
-      <c r="AI3" s="192">
-        <v>347.62638485790745</v>
-      </c>
-      <c r="AJ3" s="192">
-        <v>349.6248953264697</v>
-      </c>
-      <c r="AK3" s="191">
-        <v>354.83334016198</v>
-      </c>
-      <c r="AL3" s="191">
-        <v>292.36611721851324</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="190" t="s">
-        <v>257</v>
-      </c>
-      <c r="B4" s="193">
-        <v>2.46</v>
-      </c>
-      <c r="C4" s="193">
-        <v>2.73</v>
-      </c>
-      <c r="D4" s="193">
-        <v>3.81</v>
-      </c>
-      <c r="E4" s="193">
-        <v>5.46</v>
-      </c>
-      <c r="F4" s="193">
-        <v>10.57</v>
-      </c>
-      <c r="G4" s="193">
-        <v>11.98</v>
-      </c>
-      <c r="H4" s="193">
-        <v>20.22</v>
-      </c>
-      <c r="I4" s="193">
-        <v>21.86</v>
-      </c>
-      <c r="J4" s="193">
-        <v>21.15</v>
-      </c>
-      <c r="K4" s="193">
-        <v>21.32</v>
-      </c>
-      <c r="L4" s="193">
-        <v>19.77</v>
-      </c>
-      <c r="M4" s="193">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="N4" s="193">
-        <v>22.85</v>
-      </c>
-      <c r="O4" s="193">
-        <v>20.83</v>
-      </c>
-      <c r="P4" s="193">
-        <v>23.14</v>
-      </c>
-      <c r="Q4" s="193">
-        <v>26.16</v>
-      </c>
-      <c r="R4" s="193">
-        <v>29.458089000000001</v>
-      </c>
-      <c r="S4" s="193">
-        <v>30.268799999999999</v>
-      </c>
-      <c r="T4" s="193">
-        <v>30.1114</v>
-      </c>
-      <c r="U4" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="V4" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="W4" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="X4" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y4" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z4" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA4" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB4" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC4" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD4" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE4" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF4" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG4" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH4" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI4" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ4" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK4" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL4" s="193" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" ht="18" x14ac:dyDescent="0.3">
-      <c r="A5" s="190" t="s">
-        <v>258</v>
-      </c>
-      <c r="B5" s="193">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C5" s="193">
-        <v>0.16</v>
-      </c>
-      <c r="D5" s="193">
-        <v>0.22</v>
-      </c>
-      <c r="E5" s="193">
-        <v>0.27</v>
-      </c>
-      <c r="F5" s="193">
-        <v>0.3</v>
-      </c>
-      <c r="G5" s="193">
-        <v>0.53</v>
-      </c>
-      <c r="H5" s="193">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="I5" s="193">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="J5" s="193">
-        <v>0.72399999999999998</v>
-      </c>
-      <c r="K5" s="193">
-        <v>0.77300000000000002</v>
-      </c>
-      <c r="L5" s="193">
-        <v>0.85</v>
-      </c>
-      <c r="M5" s="193">
-        <v>0.88</v>
-      </c>
-      <c r="N5" s="193">
-        <v>0.93300000000000005</v>
-      </c>
-      <c r="O5" s="193">
-        <v>0.9</v>
-      </c>
-      <c r="P5" s="193">
-        <v>0.91</v>
-      </c>
-      <c r="Q5" s="193">
-        <v>0.9</v>
-      </c>
-      <c r="R5" s="193">
-        <v>0.93</v>
-      </c>
-      <c r="S5" s="193">
-        <v>0.92</v>
-      </c>
-      <c r="T5" s="193">
-        <v>0.93105492300110437</v>
-      </c>
-      <c r="U5" s="193">
-        <v>0.88134169907849358</v>
-      </c>
-      <c r="V5" s="193">
-        <v>1.0305121850001198</v>
-      </c>
-      <c r="W5" s="193">
-        <v>1.0478628209221583</v>
-      </c>
-      <c r="X5" s="193">
-        <v>1.2684974308327119</v>
-      </c>
-      <c r="Y5" s="193">
-        <v>1.0703264089454896</v>
-      </c>
-      <c r="Z5" s="193">
-        <v>1.1148894548651185</v>
-      </c>
-      <c r="AA5" s="193">
-        <v>1.1708832763949892</v>
-      </c>
-      <c r="AB5" s="193">
-        <v>1.2230470662195179</v>
-      </c>
-      <c r="AC5" s="193">
-        <v>1.3088691548436273</v>
-      </c>
-      <c r="AD5" s="193">
-        <v>1.3267645915434336</v>
-      </c>
-      <c r="AE5" s="193">
-        <v>1.4032474008300455</v>
-      </c>
-      <c r="AF5" s="193">
-        <v>1.4324953485868275</v>
-      </c>
-      <c r="AG5" s="193">
-        <v>1.4905354091049987</v>
-      </c>
-      <c r="AH5" s="193">
-        <v>1.5221571653450272</v>
-      </c>
-      <c r="AI5" s="193">
-        <v>1.5733096607655503</v>
-      </c>
-      <c r="AJ5" s="193">
-        <v>1.6105285886734684</v>
-      </c>
-      <c r="AK5" s="193">
-        <v>1.6257686952473935</v>
-      </c>
-      <c r="AL5" s="193" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="190" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="193">
-        <v>0.64</v>
-      </c>
-      <c r="C6" s="193">
-        <v>0.71</v>
-      </c>
-      <c r="D6" s="193">
-        <v>0.84</v>
-      </c>
-      <c r="E6" s="193">
-        <v>1.04</v>
-      </c>
-      <c r="F6" s="193">
-        <v>1.41</v>
-      </c>
-      <c r="G6" s="193">
-        <v>2.85</v>
-      </c>
-      <c r="H6" s="193">
-        <v>2.9</v>
-      </c>
-      <c r="I6" s="193">
-        <v>3.01</v>
-      </c>
-      <c r="J6" s="193">
-        <v>3.09</v>
-      </c>
-      <c r="K6" s="193">
-        <v>3.09</v>
-      </c>
-      <c r="L6" s="193">
-        <v>3.19</v>
-      </c>
-      <c r="M6" s="193">
-        <v>3.13</v>
-      </c>
-      <c r="N6" s="193">
-        <v>3.25</v>
-      </c>
-      <c r="O6" s="193">
-        <v>3.3</v>
-      </c>
-      <c r="P6" s="193">
-        <v>3.29</v>
-      </c>
-      <c r="Q6" s="193">
-        <v>3.3</v>
-      </c>
-      <c r="R6" s="193">
-        <v>3.33</v>
-      </c>
-      <c r="S6" s="193">
-        <v>3.43</v>
-      </c>
-      <c r="T6" s="193">
-        <v>3.4981570590620956</v>
-      </c>
-      <c r="U6" s="193">
-        <v>3.6212347491388974</v>
-      </c>
-      <c r="V6" s="193">
-        <v>3.9039090811770136</v>
-      </c>
-      <c r="W6" s="193">
-        <v>4.0882556808472987</v>
-      </c>
-      <c r="X6" s="193">
-        <v>4.2213727365578846</v>
-      </c>
-      <c r="Y6" s="193">
-        <v>4.3258640600896179</v>
-      </c>
-      <c r="Z6" s="193">
-        <v>4.5845720074559528</v>
-      </c>
-      <c r="AA6" s="193">
-        <v>4.690782584808594</v>
-      </c>
-      <c r="AB6" s="193">
-        <v>4.8536695209141634</v>
-      </c>
-      <c r="AC6" s="193">
-        <v>5.2769125478220937</v>
-      </c>
-      <c r="AD6" s="193">
-        <v>5.4378591402608825</v>
-      </c>
-      <c r="AE6" s="193">
-        <v>5.6473032107099552</v>
-      </c>
-      <c r="AF6" s="193">
-        <v>5.8403652256674254</v>
-      </c>
-      <c r="AG6" s="193">
-        <v>6.0808897992884008</v>
-      </c>
-      <c r="AH6" s="193">
-        <v>6.2056060036136858</v>
-      </c>
-      <c r="AI6" s="193">
-        <v>6.4299484917367282</v>
-      </c>
-      <c r="AJ6" s="193">
-        <v>6.464293683918191</v>
-      </c>
-      <c r="AK6" s="193">
-        <v>6.5317722647971062</v>
-      </c>
-      <c r="AL6" s="193" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="194" t="s">
-        <v>259</v>
-      </c>
-      <c r="B7" s="195">
-        <v>4.22</v>
-      </c>
-      <c r="C7" s="195">
-        <v>3.92</v>
-      </c>
-      <c r="D7" s="195">
-        <v>3.19</v>
-      </c>
-      <c r="E7" s="195">
-        <v>12.96</v>
-      </c>
-      <c r="F7" s="195">
-        <v>17.72</v>
-      </c>
-      <c r="G7" s="195">
-        <v>26.153846153846153</v>
-      </c>
-      <c r="H7" s="195">
-        <v>39.590000000000003</v>
-      </c>
-      <c r="I7" s="195">
-        <v>41.19</v>
-      </c>
-      <c r="J7" s="195">
-        <v>40.78</v>
-      </c>
-      <c r="K7" s="195">
-        <v>40.11</v>
-      </c>
-      <c r="L7" s="195">
-        <v>39.1</v>
-      </c>
-      <c r="M7" s="195">
-        <v>39.92</v>
-      </c>
-      <c r="N7" s="195">
-        <v>43.31</v>
-      </c>
-      <c r="O7" s="195">
-        <v>45.26</v>
-      </c>
-      <c r="P7" s="195">
-        <v>44.75</v>
-      </c>
-      <c r="Q7" s="195">
-        <v>46.853099999999998</v>
-      </c>
-      <c r="R7" s="195">
-        <v>52.148904810459555</v>
-      </c>
-      <c r="S7" s="195">
-        <v>54.224515253465214</v>
-      </c>
-      <c r="T7" s="195">
-        <v>59.070718416230001</v>
-      </c>
-      <c r="U7" s="195">
-        <v>53.902265328985841</v>
-      </c>
-      <c r="V7" s="195">
-        <v>53.286809558934664</v>
-      </c>
-      <c r="W7" s="195">
-        <v>51.566228901880351</v>
-      </c>
-      <c r="X7" s="195">
-        <v>56.414770622329854</v>
-      </c>
-      <c r="Y7" s="195">
-        <v>58.772734734315627</v>
-      </c>
-      <c r="Z7" s="195">
-        <v>60.388795018819728</v>
-      </c>
-      <c r="AA7" s="195">
-        <v>58.87538100433121</v>
-      </c>
-      <c r="AB7" s="195">
-        <v>60.695748632937097</v>
-      </c>
-      <c r="AC7" s="195">
-        <v>62.665934302993307</v>
-      </c>
-      <c r="AD7" s="195">
-        <v>64.659674080798482</v>
-      </c>
-      <c r="AE7" s="195">
-        <v>68.222700251126682</v>
-      </c>
-      <c r="AF7" s="195">
-        <v>70.7815223266674</v>
-      </c>
-      <c r="AG7" s="195">
-        <v>70.770276330365689</v>
-      </c>
-      <c r="AH7" s="195">
-        <v>68.300996329313065</v>
-      </c>
-      <c r="AI7" s="195">
-        <v>68.711934791718519</v>
-      </c>
-      <c r="AJ7" s="195">
-        <v>69.58693006627027</v>
-      </c>
-      <c r="AK7" s="195">
-        <v>71.471848492798159</v>
-      </c>
-      <c r="AL7" s="195">
-        <v>70.772026078592035</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A8" s="245" t="s">
-        <v>260</v>
-      </c>
-      <c r="B8" s="245"/>
-      <c r="C8" s="245"/>
-      <c r="D8" s="245"/>
-      <c r="E8" s="245"/>
-      <c r="F8" s="245"/>
-      <c r="G8" s="245"/>
-      <c r="H8" s="245"/>
-      <c r="I8" s="245"/>
-      <c r="J8" s="245"/>
-      <c r="K8" s="245"/>
-      <c r="L8" s="245"/>
-      <c r="M8" s="245"/>
-      <c r="N8" s="245"/>
-      <c r="O8" s="245"/>
-      <c r="P8" s="245"/>
-      <c r="Q8" s="245"/>
-      <c r="R8" s="245"/>
-      <c r="S8" s="245"/>
-      <c r="T8" s="245"/>
-      <c r="U8" s="245"/>
-      <c r="V8" s="245"/>
-      <c r="W8" s="245"/>
-      <c r="X8" s="245"/>
-      <c r="Y8" s="245"/>
-      <c r="Z8" s="245"/>
-      <c r="AA8" s="245"/>
-      <c r="AB8" s="245"/>
-      <c r="AC8" s="245"/>
-      <c r="AD8" s="245"/>
-      <c r="AE8" s="245"/>
-      <c r="AF8" s="245"/>
-      <c r="AG8" s="24"/>
-      <c r="AH8" s="24"/>
-      <c r="AI8" s="24"/>
-      <c r="AJ8" s="24"/>
-      <c r="AK8" s="24"/>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A9" s="246"/>
-      <c r="B9" s="246"/>
-      <c r="C9" s="246"/>
-      <c r="D9" s="246"/>
-      <c r="E9" s="246"/>
-      <c r="F9" s="246"/>
-      <c r="G9" s="246"/>
-      <c r="H9" s="246"/>
-      <c r="I9" s="246"/>
-      <c r="J9" s="246"/>
-      <c r="K9" s="246"/>
-      <c r="L9" s="246"/>
-      <c r="M9" s="246"/>
-      <c r="N9" s="246"/>
-      <c r="O9" s="246"/>
-      <c r="P9" s="246"/>
-      <c r="Q9" s="246"/>
-      <c r="R9" s="246"/>
-      <c r="S9" s="246"/>
-      <c r="T9" s="246"/>
-      <c r="U9" s="246"/>
-      <c r="V9" s="246"/>
-      <c r="W9" s="246"/>
-      <c r="X9" s="246"/>
-      <c r="Y9" s="246"/>
-      <c r="Z9" s="246"/>
-      <c r="AA9" s="246"/>
-      <c r="AB9" s="246"/>
-      <c r="AC9" s="246"/>
-      <c r="AD9" s="246"/>
-      <c r="AE9" s="246"/>
-      <c r="AF9" s="246"/>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="24"/>
-      <c r="AI9" s="24"/>
-      <c r="AJ9" s="24"/>
-      <c r="AK9" s="24"/>
-    </row>
-    <row r="10" spans="1:38" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="247" t="s">
-        <v>261</v>
-      </c>
-      <c r="B10" s="247"/>
-      <c r="C10" s="247"/>
-      <c r="D10" s="247"/>
-      <c r="E10" s="247"/>
-      <c r="F10" s="247"/>
-      <c r="G10" s="247"/>
-      <c r="H10" s="247"/>
-      <c r="I10" s="247"/>
-      <c r="J10" s="247"/>
-      <c r="K10" s="247"/>
-      <c r="L10" s="247"/>
-      <c r="M10" s="247"/>
-      <c r="N10" s="247"/>
-      <c r="O10" s="247"/>
-      <c r="P10" s="247"/>
-      <c r="Q10" s="247"/>
-      <c r="R10" s="247"/>
-      <c r="S10" s="247"/>
-      <c r="T10" s="247"/>
-      <c r="U10" s="247"/>
-      <c r="V10" s="247"/>
-      <c r="W10" s="247"/>
-      <c r="X10" s="247"/>
-      <c r="Y10" s="247"/>
-      <c r="Z10" s="247"/>
-      <c r="AA10" s="247"/>
-      <c r="AB10" s="247"/>
-      <c r="AC10" s="247"/>
-      <c r="AD10" s="247"/>
-      <c r="AE10" s="247"/>
-      <c r="AF10" s="247"/>
-      <c r="AG10" s="24"/>
-      <c r="AH10" s="24"/>
-      <c r="AI10" s="24"/>
-      <c r="AJ10" s="24"/>
-      <c r="AK10" s="24"/>
-    </row>
-    <row r="11" spans="1:38" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="247" t="s">
-        <v>262</v>
-      </c>
-      <c r="B11" s="247"/>
-      <c r="C11" s="247"/>
-      <c r="D11" s="247"/>
-      <c r="E11" s="247"/>
-      <c r="F11" s="247"/>
-      <c r="G11" s="247"/>
-      <c r="H11" s="247"/>
-      <c r="I11" s="247"/>
-      <c r="J11" s="247"/>
-      <c r="K11" s="247"/>
-      <c r="L11" s="247"/>
-      <c r="M11" s="247"/>
-      <c r="N11" s="247"/>
-      <c r="O11" s="247"/>
-      <c r="P11" s="247"/>
-      <c r="Q11" s="247"/>
-      <c r="R11" s="247"/>
-      <c r="S11" s="247"/>
-      <c r="T11" s="247"/>
-      <c r="U11" s="247"/>
-      <c r="V11" s="247"/>
-      <c r="W11" s="247"/>
-      <c r="X11" s="247"/>
-      <c r="Y11" s="247"/>
-      <c r="Z11" s="247"/>
-      <c r="AA11" s="247"/>
-      <c r="AB11" s="247"/>
-      <c r="AC11" s="247"/>
-      <c r="AD11" s="247"/>
-      <c r="AE11" s="247"/>
-      <c r="AF11" s="247"/>
-      <c r="AG11" s="24"/>
-      <c r="AH11" s="24"/>
-      <c r="AI11" s="24"/>
-      <c r="AJ11" s="24"/>
-      <c r="AK11" s="24"/>
-    </row>
-    <row r="12" spans="1:38" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="247" t="s">
-        <v>263</v>
-      </c>
-      <c r="B12" s="247"/>
-      <c r="C12" s="247"/>
-      <c r="D12" s="247"/>
-      <c r="E12" s="247"/>
-      <c r="F12" s="247"/>
-      <c r="G12" s="247"/>
-      <c r="H12" s="247"/>
-      <c r="I12" s="247"/>
-      <c r="J12" s="247"/>
-      <c r="K12" s="247"/>
-      <c r="L12" s="247"/>
-      <c r="M12" s="247"/>
-      <c r="N12" s="247"/>
-      <c r="O12" s="247"/>
-      <c r="P12" s="247"/>
-      <c r="Q12" s="247"/>
-      <c r="R12" s="247"/>
-      <c r="S12" s="247"/>
-      <c r="T12" s="247"/>
-      <c r="U12" s="247"/>
-      <c r="V12" s="247"/>
-      <c r="W12" s="247"/>
-      <c r="X12" s="247"/>
-      <c r="Y12" s="247"/>
-      <c r="Z12" s="247"/>
-      <c r="AA12" s="247"/>
-      <c r="AB12" s="247"/>
-      <c r="AC12" s="247"/>
-      <c r="AD12" s="247"/>
-      <c r="AE12" s="247"/>
-      <c r="AF12" s="247"/>
-      <c r="AG12" s="24"/>
-      <c r="AH12" s="24"/>
-      <c r="AI12" s="24"/>
-      <c r="AJ12" s="24"/>
-      <c r="AK12" s="24"/>
-    </row>
-    <row r="13" spans="1:38" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="247" t="s">
-        <v>264</v>
-      </c>
-      <c r="B13" s="247"/>
-      <c r="C13" s="247"/>
-      <c r="D13" s="247"/>
-      <c r="E13" s="247"/>
-      <c r="F13" s="247"/>
-      <c r="G13" s="247"/>
-      <c r="H13" s="247"/>
-      <c r="I13" s="247"/>
-      <c r="J13" s="247"/>
-      <c r="K13" s="247"/>
-      <c r="L13" s="247"/>
-      <c r="M13" s="247"/>
-      <c r="N13" s="247"/>
-      <c r="O13" s="247"/>
-      <c r="P13" s="247"/>
-      <c r="Q13" s="247"/>
-      <c r="R13" s="247"/>
-      <c r="S13" s="247"/>
-      <c r="T13" s="247"/>
-      <c r="U13" s="247"/>
-      <c r="V13" s="247"/>
-      <c r="W13" s="247"/>
-      <c r="X13" s="247"/>
-      <c r="Y13" s="247"/>
-      <c r="Z13" s="247"/>
-      <c r="AA13" s="247"/>
-      <c r="AB13" s="247"/>
-      <c r="AC13" s="247"/>
-      <c r="AD13" s="247"/>
-      <c r="AE13" s="247"/>
-      <c r="AF13" s="247"/>
-      <c r="AG13" s="24"/>
-      <c r="AH13" s="24"/>
-      <c r="AI13" s="24"/>
-      <c r="AJ13" s="24"/>
-      <c r="AK13" s="24"/>
-    </row>
-    <row r="14" spans="1:38" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="247"/>
-      <c r="B14" s="247"/>
-      <c r="C14" s="247"/>
-      <c r="D14" s="247"/>
-      <c r="E14" s="247"/>
-      <c r="F14" s="247"/>
-      <c r="G14" s="247"/>
-      <c r="H14" s="247"/>
-      <c r="I14" s="247"/>
-      <c r="J14" s="247"/>
-      <c r="K14" s="247"/>
-      <c r="L14" s="247"/>
-      <c r="M14" s="247"/>
-      <c r="N14" s="247"/>
-      <c r="O14" s="247"/>
-      <c r="P14" s="247"/>
-      <c r="Q14" s="247"/>
-      <c r="R14" s="247"/>
-      <c r="S14" s="247"/>
-      <c r="T14" s="247"/>
-      <c r="U14" s="247"/>
-      <c r="V14" s="247"/>
-      <c r="W14" s="247"/>
-      <c r="X14" s="247"/>
-      <c r="Y14" s="247"/>
-      <c r="Z14" s="247"/>
-      <c r="AA14" s="247"/>
-      <c r="AB14" s="247"/>
-      <c r="AC14" s="247"/>
-      <c r="AD14" s="247"/>
-      <c r="AE14" s="247"/>
-      <c r="AF14" s="247"/>
-      <c r="AG14" s="24"/>
-      <c r="AH14" s="24"/>
-      <c r="AI14" s="24"/>
-      <c r="AJ14" s="24"/>
-      <c r="AK14" s="24"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A15" s="246" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="246"/>
-      <c r="C15" s="246"/>
-      <c r="D15" s="246"/>
-      <c r="E15" s="246"/>
-      <c r="F15" s="246"/>
-      <c r="G15" s="246"/>
-      <c r="H15" s="246"/>
-      <c r="I15" s="246"/>
-      <c r="J15" s="246"/>
-      <c r="K15" s="246"/>
-      <c r="L15" s="246"/>
-      <c r="M15" s="246"/>
-      <c r="N15" s="246"/>
-      <c r="O15" s="246"/>
-      <c r="P15" s="246"/>
-      <c r="Q15" s="246"/>
-      <c r="R15" s="246"/>
-      <c r="S15" s="246"/>
-      <c r="T15" s="246"/>
-      <c r="U15" s="246"/>
-      <c r="V15" s="246"/>
-      <c r="W15" s="246"/>
-      <c r="X15" s="246"/>
-      <c r="Y15" s="246"/>
-      <c r="Z15" s="246"/>
-      <c r="AA15" s="246"/>
-      <c r="AB15" s="246"/>
-      <c r="AC15" s="246"/>
-      <c r="AD15" s="246"/>
-      <c r="AE15" s="246"/>
-      <c r="AF15" s="246"/>
-      <c r="AG15" s="24"/>
-      <c r="AH15" s="24"/>
-      <c r="AI15" s="24"/>
-      <c r="AJ15" s="24"/>
-      <c r="AK15" s="24"/>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A16" s="232" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="232"/>
-      <c r="C16" s="232"/>
-      <c r="D16" s="232"/>
-      <c r="E16" s="232"/>
-      <c r="F16" s="232"/>
-      <c r="G16" s="232"/>
-      <c r="H16" s="232"/>
-      <c r="I16" s="232"/>
-      <c r="J16" s="232"/>
-      <c r="K16" s="232"/>
-      <c r="L16" s="232"/>
-      <c r="M16" s="232"/>
-      <c r="N16" s="232"/>
-      <c r="O16" s="232"/>
-      <c r="P16" s="232"/>
-      <c r="Q16" s="232"/>
-      <c r="R16" s="232"/>
-      <c r="S16" s="232"/>
-      <c r="T16" s="232"/>
-      <c r="U16" s="232"/>
-      <c r="V16" s="232"/>
-      <c r="W16" s="232"/>
-      <c r="X16" s="232"/>
-      <c r="Y16" s="232"/>
-      <c r="Z16" s="232"/>
-      <c r="AA16" s="232"/>
-      <c r="AB16" s="232"/>
-      <c r="AC16" s="232"/>
-      <c r="AD16" s="232"/>
-      <c r="AE16" s="232"/>
-      <c r="AF16" s="232"/>
-      <c r="AG16" s="24"/>
-      <c r="AH16" s="24"/>
-      <c r="AI16" s="24"/>
-      <c r="AJ16" s="24"/>
-      <c r="AK16" s="24"/>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A17" s="231" t="s">
-        <v>265</v>
-      </c>
-      <c r="B17" s="231"/>
-      <c r="C17" s="231"/>
-      <c r="D17" s="231"/>
-      <c r="E17" s="231"/>
-      <c r="F17" s="231"/>
-      <c r="G17" s="231"/>
-      <c r="H17" s="231"/>
-      <c r="I17" s="231"/>
-      <c r="J17" s="231"/>
-      <c r="K17" s="231"/>
-      <c r="L17" s="231"/>
-      <c r="M17" s="231"/>
-      <c r="N17" s="231"/>
-      <c r="O17" s="231"/>
-      <c r="P17" s="231"/>
-      <c r="Q17" s="231"/>
-      <c r="R17" s="231"/>
-      <c r="S17" s="231"/>
-      <c r="T17" s="231"/>
-      <c r="U17" s="231"/>
-      <c r="V17" s="231"/>
-      <c r="W17" s="231"/>
-      <c r="X17" s="231"/>
-      <c r="Y17" s="231"/>
-      <c r="Z17" s="231"/>
-      <c r="AA17" s="231"/>
-      <c r="AB17" s="231"/>
-      <c r="AC17" s="231"/>
-      <c r="AD17" s="231"/>
-      <c r="AE17" s="231"/>
-      <c r="AF17" s="231"/>
-      <c r="AG17" s="24"/>
-      <c r="AH17" s="24"/>
-      <c r="AI17" s="24"/>
-      <c r="AJ17" s="24"/>
-      <c r="AK17" s="24"/>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A18" s="231" t="s">
-        <v>266</v>
-      </c>
-      <c r="B18" s="231"/>
-      <c r="C18" s="231"/>
-      <c r="D18" s="231"/>
-      <c r="E18" s="231"/>
-      <c r="F18" s="231"/>
-      <c r="G18" s="231"/>
-      <c r="H18" s="231"/>
-      <c r="I18" s="231"/>
-      <c r="J18" s="231"/>
-      <c r="K18" s="231"/>
-      <c r="L18" s="231"/>
-      <c r="M18" s="231"/>
-      <c r="N18" s="231"/>
-      <c r="O18" s="231"/>
-      <c r="P18" s="231"/>
-      <c r="Q18" s="231"/>
-      <c r="R18" s="231"/>
-      <c r="S18" s="231"/>
-      <c r="T18" s="231"/>
-      <c r="U18" s="231"/>
-      <c r="V18" s="231"/>
-      <c r="W18" s="231"/>
-      <c r="X18" s="231"/>
-      <c r="Y18" s="231"/>
-      <c r="Z18" s="231"/>
-      <c r="AA18" s="231"/>
-      <c r="AB18" s="231"/>
-      <c r="AC18" s="231"/>
-      <c r="AD18" s="231"/>
-      <c r="AE18" s="231"/>
-      <c r="AF18" s="231"/>
-      <c r="AG18" s="24"/>
-      <c r="AH18" s="24"/>
-      <c r="AI18" s="24"/>
-      <c r="AJ18" s="24"/>
-      <c r="AK18" s="24"/>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A19" s="234" t="s">
-        <v>267</v>
-      </c>
-      <c r="B19" s="234"/>
-      <c r="C19" s="234"/>
-      <c r="D19" s="234"/>
-      <c r="E19" s="234"/>
-      <c r="F19" s="234"/>
-      <c r="G19" s="234"/>
-      <c r="H19" s="234"/>
-      <c r="I19" s="234"/>
-      <c r="J19" s="234"/>
-      <c r="K19" s="234"/>
-      <c r="L19" s="234"/>
-      <c r="M19" s="234"/>
-      <c r="N19" s="234"/>
-      <c r="O19" s="234"/>
-      <c r="P19" s="234"/>
-      <c r="Q19" s="234"/>
-      <c r="R19" s="234"/>
-      <c r="S19" s="234"/>
-      <c r="T19" s="234"/>
-      <c r="U19" s="234"/>
-      <c r="V19" s="234"/>
-      <c r="W19" s="234"/>
-      <c r="X19" s="234"/>
-      <c r="Y19" s="234"/>
-      <c r="Z19" s="234"/>
-      <c r="AA19" s="234"/>
-      <c r="AB19" s="234"/>
-      <c r="AC19" s="234"/>
-      <c r="AD19" s="234"/>
-      <c r="AE19" s="234"/>
-      <c r="AF19" s="234"/>
-      <c r="AG19" s="24"/>
-      <c r="AH19" s="24"/>
-      <c r="AI19" s="24"/>
-      <c r="AJ19" s="24"/>
-      <c r="AK19" s="24"/>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A20" s="234" t="s">
-        <v>268</v>
-      </c>
-      <c r="B20" s="234"/>
-      <c r="C20" s="234"/>
-      <c r="D20" s="234"/>
-      <c r="E20" s="234"/>
-      <c r="F20" s="234"/>
-      <c r="G20" s="234"/>
-      <c r="H20" s="234"/>
-      <c r="I20" s="234"/>
-      <c r="J20" s="234"/>
-      <c r="K20" s="234"/>
-      <c r="L20" s="234"/>
-      <c r="M20" s="234"/>
-      <c r="N20" s="234"/>
-      <c r="O20" s="234"/>
-      <c r="P20" s="234"/>
-      <c r="Q20" s="234"/>
-      <c r="R20" s="234"/>
-      <c r="S20" s="234"/>
-      <c r="T20" s="234"/>
-      <c r="U20" s="234"/>
-      <c r="V20" s="234"/>
-      <c r="W20" s="234"/>
-      <c r="X20" s="234"/>
-      <c r="Y20" s="234"/>
-      <c r="Z20" s="234"/>
-      <c r="AA20" s="234"/>
-      <c r="AB20" s="234"/>
-      <c r="AC20" s="234"/>
-      <c r="AD20" s="234"/>
-      <c r="AE20" s="234"/>
-      <c r="AF20" s="234"/>
-      <c r="AG20" s="24"/>
-      <c r="AH20" s="24"/>
-      <c r="AI20" s="24"/>
-      <c r="AJ20" s="24"/>
-      <c r="AK20" s="24"/>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A21" s="234" t="s">
-        <v>269</v>
-      </c>
-      <c r="B21" s="234"/>
-      <c r="C21" s="234"/>
-      <c r="D21" s="234"/>
-      <c r="E21" s="234"/>
-      <c r="F21" s="234"/>
-      <c r="G21" s="234"/>
-      <c r="H21" s="234"/>
-      <c r="I21" s="234"/>
-      <c r="J21" s="234"/>
-      <c r="K21" s="234"/>
-      <c r="L21" s="234"/>
-      <c r="M21" s="234"/>
-      <c r="N21" s="234"/>
-      <c r="O21" s="234"/>
-      <c r="P21" s="234"/>
-      <c r="Q21" s="234"/>
-      <c r="R21" s="234"/>
-      <c r="S21" s="234"/>
-      <c r="T21" s="234"/>
-      <c r="U21" s="234"/>
-      <c r="V21" s="234"/>
-      <c r="W21" s="234"/>
-      <c r="X21" s="234"/>
-      <c r="Y21" s="234"/>
-      <c r="Z21" s="234"/>
-      <c r="AA21" s="234"/>
-      <c r="AB21" s="234"/>
-      <c r="AC21" s="234"/>
-      <c r="AD21" s="234"/>
-      <c r="AE21" s="234"/>
-      <c r="AF21" s="234"/>
-      <c r="AG21" s="24"/>
-      <c r="AH21" s="24"/>
-      <c r="AI21" s="24"/>
-      <c r="AJ21" s="24"/>
-      <c r="AK21" s="24"/>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A22" s="234" t="s">
-        <v>270</v>
-      </c>
-      <c r="B22" s="234"/>
-      <c r="C22" s="234"/>
-      <c r="D22" s="234"/>
-      <c r="E22" s="234"/>
-      <c r="F22" s="234"/>
-      <c r="G22" s="234"/>
-      <c r="H22" s="234"/>
-      <c r="I22" s="234"/>
-      <c r="J22" s="234"/>
-      <c r="K22" s="234"/>
-      <c r="L22" s="234"/>
-      <c r="M22" s="234"/>
-      <c r="N22" s="234"/>
-      <c r="O22" s="234"/>
-      <c r="P22" s="234"/>
-      <c r="Q22" s="234"/>
-      <c r="R22" s="234"/>
-      <c r="S22" s="234"/>
-      <c r="T22" s="234"/>
-      <c r="U22" s="234"/>
-      <c r="V22" s="234"/>
-      <c r="W22" s="234"/>
-      <c r="X22" s="234"/>
-      <c r="Y22" s="234"/>
-      <c r="Z22" s="234"/>
-      <c r="AA22" s="234"/>
-      <c r="AB22" s="234"/>
-      <c r="AC22" s="234"/>
-      <c r="AD22" s="234"/>
-      <c r="AE22" s="234"/>
-      <c r="AF22" s="234"/>
       <c r="AG22" s="24"/>
       <c r="AH22" s="24"/>
       <c r="AI22" s="24"/>
@@ -12588,40 +12588,40 @@
       <c r="AK22" s="24"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A23" s="233" t="s">
+      <c r="A23" s="242" t="s">
         <v>271</v>
       </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
-      <c r="D23" s="233"/>
-      <c r="E23" s="233"/>
-      <c r="F23" s="233"/>
-      <c r="G23" s="233"/>
-      <c r="H23" s="233"/>
-      <c r="I23" s="233"/>
-      <c r="J23" s="233"/>
-      <c r="K23" s="233"/>
-      <c r="L23" s="233"/>
-      <c r="M23" s="233"/>
-      <c r="N23" s="233"/>
-      <c r="O23" s="233"/>
-      <c r="P23" s="233"/>
-      <c r="Q23" s="233"/>
-      <c r="R23" s="233"/>
-      <c r="S23" s="233"/>
-      <c r="T23" s="233"/>
-      <c r="U23" s="233"/>
-      <c r="V23" s="233"/>
-      <c r="W23" s="233"/>
-      <c r="X23" s="233"/>
-      <c r="Y23" s="233"/>
-      <c r="Z23" s="233"/>
-      <c r="AA23" s="233"/>
-      <c r="AB23" s="233"/>
-      <c r="AC23" s="233"/>
-      <c r="AD23" s="233"/>
-      <c r="AE23" s="233"/>
-      <c r="AF23" s="233"/>
+      <c r="B23" s="242"/>
+      <c r="C23" s="242"/>
+      <c r="D23" s="242"/>
+      <c r="E23" s="242"/>
+      <c r="F23" s="242"/>
+      <c r="G23" s="242"/>
+      <c r="H23" s="242"/>
+      <c r="I23" s="242"/>
+      <c r="J23" s="242"/>
+      <c r="K23" s="242"/>
+      <c r="L23" s="242"/>
+      <c r="M23" s="242"/>
+      <c r="N23" s="242"/>
+      <c r="O23" s="242"/>
+      <c r="P23" s="242"/>
+      <c r="Q23" s="242"/>
+      <c r="R23" s="242"/>
+      <c r="S23" s="242"/>
+      <c r="T23" s="242"/>
+      <c r="U23" s="242"/>
+      <c r="V23" s="242"/>
+      <c r="W23" s="242"/>
+      <c r="X23" s="242"/>
+      <c r="Y23" s="242"/>
+      <c r="Z23" s="242"/>
+      <c r="AA23" s="242"/>
+      <c r="AB23" s="242"/>
+      <c r="AC23" s="242"/>
+      <c r="AD23" s="242"/>
+      <c r="AE23" s="242"/>
+      <c r="AF23" s="242"/>
       <c r="AG23" s="24"/>
       <c r="AH23" s="24"/>
       <c r="AI23" s="24"/>
@@ -12629,40 +12629,40 @@
       <c r="AK23" s="24"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A24" s="231" t="s">
+      <c r="A24" s="241" t="s">
         <v>272</v>
       </c>
-      <c r="B24" s="231"/>
-      <c r="C24" s="231"/>
-      <c r="D24" s="231"/>
-      <c r="E24" s="231"/>
-      <c r="F24" s="231"/>
-      <c r="G24" s="231"/>
-      <c r="H24" s="231"/>
-      <c r="I24" s="231"/>
-      <c r="J24" s="231"/>
-      <c r="K24" s="231"/>
-      <c r="L24" s="231"/>
-      <c r="M24" s="231"/>
-      <c r="N24" s="231"/>
-      <c r="O24" s="231"/>
-      <c r="P24" s="231"/>
-      <c r="Q24" s="231"/>
-      <c r="R24" s="231"/>
-      <c r="S24" s="231"/>
-      <c r="T24" s="231"/>
-      <c r="U24" s="231"/>
-      <c r="V24" s="231"/>
-      <c r="W24" s="231"/>
-      <c r="X24" s="231"/>
-      <c r="Y24" s="231"/>
-      <c r="Z24" s="231"/>
-      <c r="AA24" s="231"/>
-      <c r="AB24" s="231"/>
-      <c r="AC24" s="231"/>
-      <c r="AD24" s="231"/>
-      <c r="AE24" s="231"/>
-      <c r="AF24" s="231"/>
+      <c r="B24" s="241"/>
+      <c r="C24" s="241"/>
+      <c r="D24" s="241"/>
+      <c r="E24" s="241"/>
+      <c r="F24" s="241"/>
+      <c r="G24" s="241"/>
+      <c r="H24" s="241"/>
+      <c r="I24" s="241"/>
+      <c r="J24" s="241"/>
+      <c r="K24" s="241"/>
+      <c r="L24" s="241"/>
+      <c r="M24" s="241"/>
+      <c r="N24" s="241"/>
+      <c r="O24" s="241"/>
+      <c r="P24" s="241"/>
+      <c r="Q24" s="241"/>
+      <c r="R24" s="241"/>
+      <c r="S24" s="241"/>
+      <c r="T24" s="241"/>
+      <c r="U24" s="241"/>
+      <c r="V24" s="241"/>
+      <c r="W24" s="241"/>
+      <c r="X24" s="241"/>
+      <c r="Y24" s="241"/>
+      <c r="Z24" s="241"/>
+      <c r="AA24" s="241"/>
+      <c r="AB24" s="241"/>
+      <c r="AC24" s="241"/>
+      <c r="AD24" s="241"/>
+      <c r="AE24" s="241"/>
+      <c r="AF24" s="241"/>
       <c r="AG24" s="24"/>
       <c r="AH24" s="24"/>
       <c r="AI24" s="24"/>
@@ -12670,40 +12670,40 @@
       <c r="AK24" s="24"/>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A25" s="231" t="s">
+      <c r="A25" s="241" t="s">
         <v>273</v>
       </c>
-      <c r="B25" s="231"/>
-      <c r="C25" s="231"/>
-      <c r="D25" s="231"/>
-      <c r="E25" s="231"/>
-      <c r="F25" s="231"/>
-      <c r="G25" s="231"/>
-      <c r="H25" s="231"/>
-      <c r="I25" s="231"/>
-      <c r="J25" s="231"/>
-      <c r="K25" s="231"/>
-      <c r="L25" s="231"/>
-      <c r="M25" s="231"/>
-      <c r="N25" s="231"/>
-      <c r="O25" s="231"/>
-      <c r="P25" s="231"/>
-      <c r="Q25" s="231"/>
-      <c r="R25" s="231"/>
-      <c r="S25" s="231"/>
-      <c r="T25" s="231"/>
-      <c r="U25" s="231"/>
-      <c r="V25" s="231"/>
-      <c r="W25" s="231"/>
-      <c r="X25" s="231"/>
-      <c r="Y25" s="231"/>
-      <c r="Z25" s="231"/>
-      <c r="AA25" s="231"/>
-      <c r="AB25" s="231"/>
-      <c r="AC25" s="231"/>
-      <c r="AD25" s="231"/>
-      <c r="AE25" s="231"/>
-      <c r="AF25" s="231"/>
+      <c r="B25" s="241"/>
+      <c r="C25" s="241"/>
+      <c r="D25" s="241"/>
+      <c r="E25" s="241"/>
+      <c r="F25" s="241"/>
+      <c r="G25" s="241"/>
+      <c r="H25" s="241"/>
+      <c r="I25" s="241"/>
+      <c r="J25" s="241"/>
+      <c r="K25" s="241"/>
+      <c r="L25" s="241"/>
+      <c r="M25" s="241"/>
+      <c r="N25" s="241"/>
+      <c r="O25" s="241"/>
+      <c r="P25" s="241"/>
+      <c r="Q25" s="241"/>
+      <c r="R25" s="241"/>
+      <c r="S25" s="241"/>
+      <c r="T25" s="241"/>
+      <c r="U25" s="241"/>
+      <c r="V25" s="241"/>
+      <c r="W25" s="241"/>
+      <c r="X25" s="241"/>
+      <c r="Y25" s="241"/>
+      <c r="Z25" s="241"/>
+      <c r="AA25" s="241"/>
+      <c r="AB25" s="241"/>
+      <c r="AC25" s="241"/>
+      <c r="AD25" s="241"/>
+      <c r="AE25" s="241"/>
+      <c r="AF25" s="241"/>
       <c r="AG25" s="24"/>
       <c r="AH25" s="24"/>
       <c r="AI25" s="24"/>
@@ -12711,40 +12711,40 @@
       <c r="AK25" s="24"/>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A26" s="233" t="s">
+      <c r="A26" s="242" t="s">
         <v>274</v>
       </c>
-      <c r="B26" s="233"/>
-      <c r="C26" s="233"/>
-      <c r="D26" s="233"/>
-      <c r="E26" s="233"/>
-      <c r="F26" s="233"/>
-      <c r="G26" s="233"/>
-      <c r="H26" s="233"/>
-      <c r="I26" s="233"/>
-      <c r="J26" s="233"/>
-      <c r="K26" s="233"/>
-      <c r="L26" s="233"/>
-      <c r="M26" s="233"/>
-      <c r="N26" s="233"/>
-      <c r="O26" s="233"/>
-      <c r="P26" s="233"/>
-      <c r="Q26" s="233"/>
-      <c r="R26" s="233"/>
-      <c r="S26" s="233"/>
-      <c r="T26" s="233"/>
-      <c r="U26" s="233"/>
-      <c r="V26" s="233"/>
-      <c r="W26" s="233"/>
-      <c r="X26" s="233"/>
-      <c r="Y26" s="233"/>
-      <c r="Z26" s="233"/>
-      <c r="AA26" s="233"/>
-      <c r="AB26" s="233"/>
-      <c r="AC26" s="233"/>
-      <c r="AD26" s="233"/>
-      <c r="AE26" s="233"/>
-      <c r="AF26" s="233"/>
+      <c r="B26" s="242"/>
+      <c r="C26" s="242"/>
+      <c r="D26" s="242"/>
+      <c r="E26" s="242"/>
+      <c r="F26" s="242"/>
+      <c r="G26" s="242"/>
+      <c r="H26" s="242"/>
+      <c r="I26" s="242"/>
+      <c r="J26" s="242"/>
+      <c r="K26" s="242"/>
+      <c r="L26" s="242"/>
+      <c r="M26" s="242"/>
+      <c r="N26" s="242"/>
+      <c r="O26" s="242"/>
+      <c r="P26" s="242"/>
+      <c r="Q26" s="242"/>
+      <c r="R26" s="242"/>
+      <c r="S26" s="242"/>
+      <c r="T26" s="242"/>
+      <c r="U26" s="242"/>
+      <c r="V26" s="242"/>
+      <c r="W26" s="242"/>
+      <c r="X26" s="242"/>
+      <c r="Y26" s="242"/>
+      <c r="Z26" s="242"/>
+      <c r="AA26" s="242"/>
+      <c r="AB26" s="242"/>
+      <c r="AC26" s="242"/>
+      <c r="AD26" s="242"/>
+      <c r="AE26" s="242"/>
+      <c r="AF26" s="242"/>
       <c r="AG26" s="24"/>
       <c r="AH26" s="24"/>
       <c r="AI26" s="24"/>
@@ -12752,40 +12752,40 @@
       <c r="AK26" s="24"/>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A27" s="231" t="s">
+      <c r="A27" s="241" t="s">
         <v>275</v>
       </c>
-      <c r="B27" s="231"/>
-      <c r="C27" s="231"/>
-      <c r="D27" s="231"/>
-      <c r="E27" s="231"/>
-      <c r="F27" s="231"/>
-      <c r="G27" s="231"/>
-      <c r="H27" s="231"/>
-      <c r="I27" s="231"/>
-      <c r="J27" s="231"/>
-      <c r="K27" s="231"/>
-      <c r="L27" s="231"/>
-      <c r="M27" s="231"/>
-      <c r="N27" s="231"/>
-      <c r="O27" s="231"/>
-      <c r="P27" s="231"/>
-      <c r="Q27" s="231"/>
-      <c r="R27" s="231"/>
-      <c r="S27" s="231"/>
-      <c r="T27" s="231"/>
-      <c r="U27" s="231"/>
-      <c r="V27" s="231"/>
-      <c r="W27" s="231"/>
-      <c r="X27" s="231"/>
-      <c r="Y27" s="231"/>
-      <c r="Z27" s="231"/>
-      <c r="AA27" s="231"/>
-      <c r="AB27" s="231"/>
-      <c r="AC27" s="231"/>
-      <c r="AD27" s="231"/>
-      <c r="AE27" s="231"/>
-      <c r="AF27" s="231"/>
+      <c r="B27" s="241"/>
+      <c r="C27" s="241"/>
+      <c r="D27" s="241"/>
+      <c r="E27" s="241"/>
+      <c r="F27" s="241"/>
+      <c r="G27" s="241"/>
+      <c r="H27" s="241"/>
+      <c r="I27" s="241"/>
+      <c r="J27" s="241"/>
+      <c r="K27" s="241"/>
+      <c r="L27" s="241"/>
+      <c r="M27" s="241"/>
+      <c r="N27" s="241"/>
+      <c r="O27" s="241"/>
+      <c r="P27" s="241"/>
+      <c r="Q27" s="241"/>
+      <c r="R27" s="241"/>
+      <c r="S27" s="241"/>
+      <c r="T27" s="241"/>
+      <c r="U27" s="241"/>
+      <c r="V27" s="241"/>
+      <c r="W27" s="241"/>
+      <c r="X27" s="241"/>
+      <c r="Y27" s="241"/>
+      <c r="Z27" s="241"/>
+      <c r="AA27" s="241"/>
+      <c r="AB27" s="241"/>
+      <c r="AC27" s="241"/>
+      <c r="AD27" s="241"/>
+      <c r="AE27" s="241"/>
+      <c r="AF27" s="241"/>
       <c r="AG27" s="24"/>
       <c r="AH27" s="24"/>
       <c r="AI27" s="24"/>
@@ -12793,40 +12793,40 @@
       <c r="AK27" s="24"/>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A28" s="231" t="s">
+      <c r="A28" s="241" t="s">
         <v>276</v>
       </c>
-      <c r="B28" s="231"/>
-      <c r="C28" s="231"/>
-      <c r="D28" s="231"/>
-      <c r="E28" s="231"/>
-      <c r="F28" s="231"/>
-      <c r="G28" s="231"/>
-      <c r="H28" s="231"/>
-      <c r="I28" s="231"/>
-      <c r="J28" s="231"/>
-      <c r="K28" s="231"/>
-      <c r="L28" s="231"/>
-      <c r="M28" s="231"/>
-      <c r="N28" s="231"/>
-      <c r="O28" s="231"/>
-      <c r="P28" s="231"/>
-      <c r="Q28" s="231"/>
-      <c r="R28" s="231"/>
-      <c r="S28" s="231"/>
-      <c r="T28" s="231"/>
-      <c r="U28" s="231"/>
-      <c r="V28" s="231"/>
-      <c r="W28" s="231"/>
-      <c r="X28" s="231"/>
-      <c r="Y28" s="231"/>
-      <c r="Z28" s="231"/>
-      <c r="AA28" s="231"/>
-      <c r="AB28" s="231"/>
-      <c r="AC28" s="231"/>
-      <c r="AD28" s="231"/>
-      <c r="AE28" s="231"/>
-      <c r="AF28" s="231"/>
+      <c r="B28" s="241"/>
+      <c r="C28" s="241"/>
+      <c r="D28" s="241"/>
+      <c r="E28" s="241"/>
+      <c r="F28" s="241"/>
+      <c r="G28" s="241"/>
+      <c r="H28" s="241"/>
+      <c r="I28" s="241"/>
+      <c r="J28" s="241"/>
+      <c r="K28" s="241"/>
+      <c r="L28" s="241"/>
+      <c r="M28" s="241"/>
+      <c r="N28" s="241"/>
+      <c r="O28" s="241"/>
+      <c r="P28" s="241"/>
+      <c r="Q28" s="241"/>
+      <c r="R28" s="241"/>
+      <c r="S28" s="241"/>
+      <c r="T28" s="241"/>
+      <c r="U28" s="241"/>
+      <c r="V28" s="241"/>
+      <c r="W28" s="241"/>
+      <c r="X28" s="241"/>
+      <c r="Y28" s="241"/>
+      <c r="Z28" s="241"/>
+      <c r="AA28" s="241"/>
+      <c r="AB28" s="241"/>
+      <c r="AC28" s="241"/>
+      <c r="AD28" s="241"/>
+      <c r="AE28" s="241"/>
+      <c r="AF28" s="241"/>
       <c r="AG28" s="24"/>
       <c r="AH28" s="24"/>
       <c r="AI28" s="24"/>
@@ -12834,40 +12834,40 @@
       <c r="AK28" s="24"/>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A29" s="233" t="s">
+      <c r="A29" s="242" t="s">
         <v>277</v>
       </c>
-      <c r="B29" s="233"/>
-      <c r="C29" s="233"/>
-      <c r="D29" s="233"/>
-      <c r="E29" s="233"/>
-      <c r="F29" s="233"/>
-      <c r="G29" s="233"/>
-      <c r="H29" s="233"/>
-      <c r="I29" s="233"/>
-      <c r="J29" s="233"/>
-      <c r="K29" s="233"/>
-      <c r="L29" s="233"/>
-      <c r="M29" s="233"/>
-      <c r="N29" s="233"/>
-      <c r="O29" s="233"/>
-      <c r="P29" s="233"/>
-      <c r="Q29" s="233"/>
-      <c r="R29" s="233"/>
-      <c r="S29" s="233"/>
-      <c r="T29" s="233"/>
-      <c r="U29" s="233"/>
-      <c r="V29" s="233"/>
-      <c r="W29" s="233"/>
-      <c r="X29" s="233"/>
-      <c r="Y29" s="233"/>
-      <c r="Z29" s="233"/>
-      <c r="AA29" s="233"/>
-      <c r="AB29" s="233"/>
-      <c r="AC29" s="233"/>
-      <c r="AD29" s="233"/>
-      <c r="AE29" s="233"/>
-      <c r="AF29" s="233"/>
+      <c r="B29" s="242"/>
+      <c r="C29" s="242"/>
+      <c r="D29" s="242"/>
+      <c r="E29" s="242"/>
+      <c r="F29" s="242"/>
+      <c r="G29" s="242"/>
+      <c r="H29" s="242"/>
+      <c r="I29" s="242"/>
+      <c r="J29" s="242"/>
+      <c r="K29" s="242"/>
+      <c r="L29" s="242"/>
+      <c r="M29" s="242"/>
+      <c r="N29" s="242"/>
+      <c r="O29" s="242"/>
+      <c r="P29" s="242"/>
+      <c r="Q29" s="242"/>
+      <c r="R29" s="242"/>
+      <c r="S29" s="242"/>
+      <c r="T29" s="242"/>
+      <c r="U29" s="242"/>
+      <c r="V29" s="242"/>
+      <c r="W29" s="242"/>
+      <c r="X29" s="242"/>
+      <c r="Y29" s="242"/>
+      <c r="Z29" s="242"/>
+      <c r="AA29" s="242"/>
+      <c r="AB29" s="242"/>
+      <c r="AC29" s="242"/>
+      <c r="AD29" s="242"/>
+      <c r="AE29" s="242"/>
+      <c r="AF29" s="242"/>
       <c r="AG29" s="24"/>
       <c r="AH29" s="24"/>
       <c r="AI29" s="24"/>
@@ -12875,40 +12875,40 @@
       <c r="AK29" s="24"/>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A30" s="231" t="s">
+      <c r="A30" s="241" t="s">
         <v>278</v>
       </c>
-      <c r="B30" s="231"/>
-      <c r="C30" s="231"/>
-      <c r="D30" s="231"/>
-      <c r="E30" s="231"/>
-      <c r="F30" s="231"/>
-      <c r="G30" s="231"/>
-      <c r="H30" s="231"/>
-      <c r="I30" s="231"/>
-      <c r="J30" s="231"/>
-      <c r="K30" s="231"/>
-      <c r="L30" s="231"/>
-      <c r="M30" s="231"/>
-      <c r="N30" s="231"/>
-      <c r="O30" s="231"/>
-      <c r="P30" s="231"/>
-      <c r="Q30" s="231"/>
-      <c r="R30" s="231"/>
-      <c r="S30" s="231"/>
-      <c r="T30" s="231"/>
-      <c r="U30" s="231"/>
-      <c r="V30" s="231"/>
-      <c r="W30" s="231"/>
-      <c r="X30" s="231"/>
-      <c r="Y30" s="231"/>
-      <c r="Z30" s="231"/>
-      <c r="AA30" s="231"/>
-      <c r="AB30" s="231"/>
-      <c r="AC30" s="231"/>
-      <c r="AD30" s="231"/>
-      <c r="AE30" s="231"/>
-      <c r="AF30" s="231"/>
+      <c r="B30" s="241"/>
+      <c r="C30" s="241"/>
+      <c r="D30" s="241"/>
+      <c r="E30" s="241"/>
+      <c r="F30" s="241"/>
+      <c r="G30" s="241"/>
+      <c r="H30" s="241"/>
+      <c r="I30" s="241"/>
+      <c r="J30" s="241"/>
+      <c r="K30" s="241"/>
+      <c r="L30" s="241"/>
+      <c r="M30" s="241"/>
+      <c r="N30" s="241"/>
+      <c r="O30" s="241"/>
+      <c r="P30" s="241"/>
+      <c r="Q30" s="241"/>
+      <c r="R30" s="241"/>
+      <c r="S30" s="241"/>
+      <c r="T30" s="241"/>
+      <c r="U30" s="241"/>
+      <c r="V30" s="241"/>
+      <c r="W30" s="241"/>
+      <c r="X30" s="241"/>
+      <c r="Y30" s="241"/>
+      <c r="Z30" s="241"/>
+      <c r="AA30" s="241"/>
+      <c r="AB30" s="241"/>
+      <c r="AC30" s="241"/>
+      <c r="AD30" s="241"/>
+      <c r="AE30" s="241"/>
+      <c r="AF30" s="241"/>
       <c r="AG30" s="24"/>
       <c r="AH30" s="24"/>
       <c r="AI30" s="24"/>
@@ -12916,40 +12916,40 @@
       <c r="AK30" s="24"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A31" s="231" t="s">
+      <c r="A31" s="241" t="s">
         <v>279</v>
       </c>
-      <c r="B31" s="231"/>
-      <c r="C31" s="231"/>
-      <c r="D31" s="231"/>
-      <c r="E31" s="231"/>
-      <c r="F31" s="231"/>
-      <c r="G31" s="231"/>
-      <c r="H31" s="231"/>
-      <c r="I31" s="231"/>
-      <c r="J31" s="231"/>
-      <c r="K31" s="231"/>
-      <c r="L31" s="231"/>
-      <c r="M31" s="231"/>
-      <c r="N31" s="231"/>
-      <c r="O31" s="231"/>
-      <c r="P31" s="231"/>
-      <c r="Q31" s="231"/>
-      <c r="R31" s="231"/>
-      <c r="S31" s="231"/>
-      <c r="T31" s="231"/>
-      <c r="U31" s="231"/>
-      <c r="V31" s="231"/>
-      <c r="W31" s="231"/>
-      <c r="X31" s="231"/>
-      <c r="Y31" s="231"/>
-      <c r="Z31" s="231"/>
-      <c r="AA31" s="231"/>
-      <c r="AB31" s="231"/>
-      <c r="AC31" s="231"/>
-      <c r="AD31" s="231"/>
-      <c r="AE31" s="231"/>
-      <c r="AF31" s="231"/>
+      <c r="B31" s="241"/>
+      <c r="C31" s="241"/>
+      <c r="D31" s="241"/>
+      <c r="E31" s="241"/>
+      <c r="F31" s="241"/>
+      <c r="G31" s="241"/>
+      <c r="H31" s="241"/>
+      <c r="I31" s="241"/>
+      <c r="J31" s="241"/>
+      <c r="K31" s="241"/>
+      <c r="L31" s="241"/>
+      <c r="M31" s="241"/>
+      <c r="N31" s="241"/>
+      <c r="O31" s="241"/>
+      <c r="P31" s="241"/>
+      <c r="Q31" s="241"/>
+      <c r="R31" s="241"/>
+      <c r="S31" s="241"/>
+      <c r="T31" s="241"/>
+      <c r="U31" s="241"/>
+      <c r="V31" s="241"/>
+      <c r="W31" s="241"/>
+      <c r="X31" s="241"/>
+      <c r="Y31" s="241"/>
+      <c r="Z31" s="241"/>
+      <c r="AA31" s="241"/>
+      <c r="AB31" s="241"/>
+      <c r="AC31" s="241"/>
+      <c r="AD31" s="241"/>
+      <c r="AE31" s="241"/>
+      <c r="AF31" s="241"/>
       <c r="AG31" s="24"/>
       <c r="AH31" s="24"/>
       <c r="AI31" s="24"/>
@@ -12957,40 +12957,40 @@
       <c r="AK31" s="24"/>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A32" s="231" t="s">
+      <c r="A32" s="241" t="s">
         <v>280</v>
       </c>
-      <c r="B32" s="231"/>
-      <c r="C32" s="231"/>
-      <c r="D32" s="231"/>
-      <c r="E32" s="231"/>
-      <c r="F32" s="231"/>
-      <c r="G32" s="231"/>
-      <c r="H32" s="231"/>
-      <c r="I32" s="231"/>
-      <c r="J32" s="231"/>
-      <c r="K32" s="231"/>
-      <c r="L32" s="231"/>
-      <c r="M32" s="231"/>
-      <c r="N32" s="231"/>
-      <c r="O32" s="231"/>
-      <c r="P32" s="231"/>
-      <c r="Q32" s="231"/>
-      <c r="R32" s="231"/>
-      <c r="S32" s="231"/>
-      <c r="T32" s="231"/>
-      <c r="U32" s="231"/>
-      <c r="V32" s="231"/>
-      <c r="W32" s="231"/>
-      <c r="X32" s="231"/>
-      <c r="Y32" s="231"/>
-      <c r="Z32" s="231"/>
-      <c r="AA32" s="231"/>
-      <c r="AB32" s="231"/>
-      <c r="AC32" s="231"/>
-      <c r="AD32" s="231"/>
-      <c r="AE32" s="231"/>
-      <c r="AF32" s="231"/>
+      <c r="B32" s="241"/>
+      <c r="C32" s="241"/>
+      <c r="D32" s="241"/>
+      <c r="E32" s="241"/>
+      <c r="F32" s="241"/>
+      <c r="G32" s="241"/>
+      <c r="H32" s="241"/>
+      <c r="I32" s="241"/>
+      <c r="J32" s="241"/>
+      <c r="K32" s="241"/>
+      <c r="L32" s="241"/>
+      <c r="M32" s="241"/>
+      <c r="N32" s="241"/>
+      <c r="O32" s="241"/>
+      <c r="P32" s="241"/>
+      <c r="Q32" s="241"/>
+      <c r="R32" s="241"/>
+      <c r="S32" s="241"/>
+      <c r="T32" s="241"/>
+      <c r="U32" s="241"/>
+      <c r="V32" s="241"/>
+      <c r="W32" s="241"/>
+      <c r="X32" s="241"/>
+      <c r="Y32" s="241"/>
+      <c r="Z32" s="241"/>
+      <c r="AA32" s="241"/>
+      <c r="AB32" s="241"/>
+      <c r="AC32" s="241"/>
+      <c r="AD32" s="241"/>
+      <c r="AE32" s="241"/>
+      <c r="AF32" s="241"/>
       <c r="AG32" s="24"/>
       <c r="AH32" s="24"/>
       <c r="AI32" s="24"/>
@@ -12998,40 +12998,40 @@
       <c r="AK32" s="24"/>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A33" s="243" t="s">
+      <c r="A33" s="247" t="s">
         <v>281</v>
       </c>
-      <c r="B33" s="243"/>
-      <c r="C33" s="243"/>
-      <c r="D33" s="243"/>
-      <c r="E33" s="243"/>
-      <c r="F33" s="243"/>
-      <c r="G33" s="243"/>
-      <c r="H33" s="243"/>
-      <c r="I33" s="243"/>
-      <c r="J33" s="243"/>
-      <c r="K33" s="243"/>
-      <c r="L33" s="243"/>
-      <c r="M33" s="243"/>
-      <c r="N33" s="243"/>
-      <c r="O33" s="243"/>
-      <c r="P33" s="243"/>
-      <c r="Q33" s="243"/>
-      <c r="R33" s="243"/>
-      <c r="S33" s="243"/>
-      <c r="T33" s="243"/>
-      <c r="U33" s="243"/>
-      <c r="V33" s="243"/>
-      <c r="W33" s="243"/>
-      <c r="X33" s="243"/>
-      <c r="Y33" s="243"/>
-      <c r="Z33" s="243"/>
-      <c r="AA33" s="243"/>
-      <c r="AB33" s="243"/>
-      <c r="AC33" s="243"/>
-      <c r="AD33" s="243"/>
-      <c r="AE33" s="243"/>
-      <c r="AF33" s="243"/>
+      <c r="B33" s="247"/>
+      <c r="C33" s="247"/>
+      <c r="D33" s="247"/>
+      <c r="E33" s="247"/>
+      <c r="F33" s="247"/>
+      <c r="G33" s="247"/>
+      <c r="H33" s="247"/>
+      <c r="I33" s="247"/>
+      <c r="J33" s="247"/>
+      <c r="K33" s="247"/>
+      <c r="L33" s="247"/>
+      <c r="M33" s="247"/>
+      <c r="N33" s="247"/>
+      <c r="O33" s="247"/>
+      <c r="P33" s="247"/>
+      <c r="Q33" s="247"/>
+      <c r="R33" s="247"/>
+      <c r="S33" s="247"/>
+      <c r="T33" s="247"/>
+      <c r="U33" s="247"/>
+      <c r="V33" s="247"/>
+      <c r="W33" s="247"/>
+      <c r="X33" s="247"/>
+      <c r="Y33" s="247"/>
+      <c r="Z33" s="247"/>
+      <c r="AA33" s="247"/>
+      <c r="AB33" s="247"/>
+      <c r="AC33" s="247"/>
+      <c r="AD33" s="247"/>
+      <c r="AE33" s="247"/>
+      <c r="AF33" s="247"/>
       <c r="AG33" s="196"/>
       <c r="AH33" s="196"/>
       <c r="AI33" s="196"/>
@@ -13039,40 +13039,40 @@
       <c r="AK33" s="196"/>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A34" s="234" t="s">
+      <c r="A34" s="231" t="s">
         <v>282</v>
       </c>
-      <c r="B34" s="234"/>
-      <c r="C34" s="234"/>
-      <c r="D34" s="234"/>
-      <c r="E34" s="234"/>
-      <c r="F34" s="234"/>
-      <c r="G34" s="234"/>
-      <c r="H34" s="234"/>
-      <c r="I34" s="234"/>
-      <c r="J34" s="234"/>
-      <c r="K34" s="234"/>
-      <c r="L34" s="234"/>
-      <c r="M34" s="234"/>
-      <c r="N34" s="234"/>
-      <c r="O34" s="234"/>
-      <c r="P34" s="234"/>
-      <c r="Q34" s="234"/>
-      <c r="R34" s="234"/>
-      <c r="S34" s="234"/>
-      <c r="T34" s="234"/>
-      <c r="U34" s="234"/>
-      <c r="V34" s="234"/>
-      <c r="W34" s="234"/>
-      <c r="X34" s="234"/>
-      <c r="Y34" s="234"/>
-      <c r="Z34" s="234"/>
-      <c r="AA34" s="234"/>
-      <c r="AB34" s="234"/>
-      <c r="AC34" s="234"/>
-      <c r="AD34" s="234"/>
-      <c r="AE34" s="234"/>
-      <c r="AF34" s="234"/>
+      <c r="B34" s="231"/>
+      <c r="C34" s="231"/>
+      <c r="D34" s="231"/>
+      <c r="E34" s="231"/>
+      <c r="F34" s="231"/>
+      <c r="G34" s="231"/>
+      <c r="H34" s="231"/>
+      <c r="I34" s="231"/>
+      <c r="J34" s="231"/>
+      <c r="K34" s="231"/>
+      <c r="L34" s="231"/>
+      <c r="M34" s="231"/>
+      <c r="N34" s="231"/>
+      <c r="O34" s="231"/>
+      <c r="P34" s="231"/>
+      <c r="Q34" s="231"/>
+      <c r="R34" s="231"/>
+      <c r="S34" s="231"/>
+      <c r="T34" s="231"/>
+      <c r="U34" s="231"/>
+      <c r="V34" s="231"/>
+      <c r="W34" s="231"/>
+      <c r="X34" s="231"/>
+      <c r="Y34" s="231"/>
+      <c r="Z34" s="231"/>
+      <c r="AA34" s="231"/>
+      <c r="AB34" s="231"/>
+      <c r="AC34" s="231"/>
+      <c r="AD34" s="231"/>
+      <c r="AE34" s="231"/>
+      <c r="AF34" s="231"/>
       <c r="AG34" s="24"/>
       <c r="AH34" s="24"/>
       <c r="AI34" s="24"/>
@@ -13080,40 +13080,40 @@
       <c r="AK34" s="24"/>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A35" s="234" t="s">
+      <c r="A35" s="231" t="s">
         <v>283</v>
       </c>
-      <c r="B35" s="234"/>
-      <c r="C35" s="234"/>
-      <c r="D35" s="234"/>
-      <c r="E35" s="234"/>
-      <c r="F35" s="234"/>
-      <c r="G35" s="234"/>
-      <c r="H35" s="234"/>
-      <c r="I35" s="234"/>
-      <c r="J35" s="234"/>
-      <c r="K35" s="234"/>
-      <c r="L35" s="234"/>
-      <c r="M35" s="234"/>
-      <c r="N35" s="234"/>
-      <c r="O35" s="234"/>
-      <c r="P35" s="234"/>
-      <c r="Q35" s="234"/>
-      <c r="R35" s="234"/>
-      <c r="S35" s="234"/>
-      <c r="T35" s="234"/>
-      <c r="U35" s="234"/>
-      <c r="V35" s="234"/>
-      <c r="W35" s="234"/>
-      <c r="X35" s="234"/>
-      <c r="Y35" s="234"/>
-      <c r="Z35" s="234"/>
-      <c r="AA35" s="234"/>
-      <c r="AB35" s="234"/>
-      <c r="AC35" s="234"/>
-      <c r="AD35" s="234"/>
-      <c r="AE35" s="234"/>
-      <c r="AF35" s="234"/>
+      <c r="B35" s="231"/>
+      <c r="C35" s="231"/>
+      <c r="D35" s="231"/>
+      <c r="E35" s="231"/>
+      <c r="F35" s="231"/>
+      <c r="G35" s="231"/>
+      <c r="H35" s="231"/>
+      <c r="I35" s="231"/>
+      <c r="J35" s="231"/>
+      <c r="K35" s="231"/>
+      <c r="L35" s="231"/>
+      <c r="M35" s="231"/>
+      <c r="N35" s="231"/>
+      <c r="O35" s="231"/>
+      <c r="P35" s="231"/>
+      <c r="Q35" s="231"/>
+      <c r="R35" s="231"/>
+      <c r="S35" s="231"/>
+      <c r="T35" s="231"/>
+      <c r="U35" s="231"/>
+      <c r="V35" s="231"/>
+      <c r="W35" s="231"/>
+      <c r="X35" s="231"/>
+      <c r="Y35" s="231"/>
+      <c r="Z35" s="231"/>
+      <c r="AA35" s="231"/>
+      <c r="AB35" s="231"/>
+      <c r="AC35" s="231"/>
+      <c r="AD35" s="231"/>
+      <c r="AE35" s="231"/>
+      <c r="AF35" s="231"/>
       <c r="AG35" s="24"/>
       <c r="AH35" s="24"/>
       <c r="AI35" s="24"/>
@@ -13122,6 +13122,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A31:AF31"/>
+    <mergeCell ref="A32:AF32"/>
+    <mergeCell ref="A33:AF33"/>
+    <mergeCell ref="A34:AF34"/>
+    <mergeCell ref="A35:AF35"/>
+    <mergeCell ref="A30:AF30"/>
+    <mergeCell ref="A19:AF19"/>
+    <mergeCell ref="A20:AF20"/>
+    <mergeCell ref="A21:AF21"/>
+    <mergeCell ref="A22:AF22"/>
+    <mergeCell ref="A23:AF23"/>
+    <mergeCell ref="A24:AF24"/>
+    <mergeCell ref="A25:AF25"/>
+    <mergeCell ref="A26:AF26"/>
+    <mergeCell ref="A27:AF27"/>
+    <mergeCell ref="A28:AF28"/>
+    <mergeCell ref="A29:AF29"/>
     <mergeCell ref="A18:AF18"/>
     <mergeCell ref="A1:AL1"/>
     <mergeCell ref="A8:AF8"/>
@@ -13134,23 +13151,6 @@
     <mergeCell ref="A15:AF15"/>
     <mergeCell ref="A16:AF16"/>
     <mergeCell ref="A17:AF17"/>
-    <mergeCell ref="A30:AF30"/>
-    <mergeCell ref="A19:AF19"/>
-    <mergeCell ref="A20:AF20"/>
-    <mergeCell ref="A21:AF21"/>
-    <mergeCell ref="A22:AF22"/>
-    <mergeCell ref="A23:AF23"/>
-    <mergeCell ref="A24:AF24"/>
-    <mergeCell ref="A25:AF25"/>
-    <mergeCell ref="A26:AF26"/>
-    <mergeCell ref="A27:AF27"/>
-    <mergeCell ref="A28:AF28"/>
-    <mergeCell ref="A29:AF29"/>
-    <mergeCell ref="A31:AF31"/>
-    <mergeCell ref="A32:AF32"/>
-    <mergeCell ref="A33:AF33"/>
-    <mergeCell ref="A34:AF34"/>
-    <mergeCell ref="A35:AF35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24249,173 +24249,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="248" t="s">
+      <c r="A1" s="265" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="248"/>
-      <c r="E1" s="248"/>
-      <c r="F1" s="248"/>
-      <c r="G1" s="248"/>
-      <c r="H1" s="248"/>
-      <c r="I1" s="248"/>
-      <c r="J1" s="248"/>
-      <c r="K1" s="248" t="s">
+      <c r="B1" s="265"/>
+      <c r="C1" s="265"/>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="265"/>
+      <c r="G1" s="265"/>
+      <c r="H1" s="265"/>
+      <c r="I1" s="265"/>
+      <c r="J1" s="265"/>
+      <c r="K1" s="265" t="s">
         <v>288</v>
       </c>
-      <c r="L1" s="248"/>
-      <c r="M1" s="248"/>
-      <c r="N1" s="248"/>
-      <c r="O1" s="248"/>
-      <c r="P1" s="248"/>
-      <c r="Q1" s="248"/>
-      <c r="R1" s="248"/>
-      <c r="S1" s="248"/>
-      <c r="T1" s="248"/>
-      <c r="U1" s="248"/>
-      <c r="V1" s="248"/>
+      <c r="L1" s="265"/>
+      <c r="M1" s="265"/>
+      <c r="N1" s="265"/>
+      <c r="O1" s="265"/>
+      <c r="P1" s="265"/>
+      <c r="Q1" s="265"/>
+      <c r="R1" s="265"/>
+      <c r="S1" s="265"/>
+      <c r="T1" s="265"/>
+      <c r="U1" s="265"/>
+      <c r="V1" s="265"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="249" t="s">
+      <c r="A2" s="266" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="249"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="249"/>
-      <c r="G2" s="249"/>
-      <c r="H2" s="249"/>
-      <c r="I2" s="249"/>
-      <c r="J2" s="249"/>
-      <c r="K2" s="249" t="s">
+      <c r="B2" s="266"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="266"/>
+      <c r="E2" s="266"/>
+      <c r="F2" s="266"/>
+      <c r="G2" s="266"/>
+      <c r="H2" s="266"/>
+      <c r="I2" s="266"/>
+      <c r="J2" s="266"/>
+      <c r="K2" s="266" t="s">
         <v>289</v>
       </c>
-      <c r="L2" s="249"/>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="249"/>
-      <c r="S2" s="249"/>
-      <c r="T2" s="249"/>
-      <c r="U2" s="249"/>
-      <c r="V2" s="249"/>
+      <c r="L2" s="266"/>
+      <c r="M2" s="266"/>
+      <c r="N2" s="266"/>
+      <c r="O2" s="266"/>
+      <c r="P2" s="266"/>
+      <c r="Q2" s="266"/>
+      <c r="R2" s="266"/>
+      <c r="S2" s="266"/>
+      <c r="T2" s="266"/>
+      <c r="U2" s="266"/>
+      <c r="V2" s="266"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="250" t="s">
+      <c r="A3" s="267" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="251"/>
-      <c r="C3" s="251"/>
-      <c r="D3" s="251"/>
-      <c r="E3" s="251"/>
-      <c r="F3" s="251"/>
-      <c r="G3" s="251"/>
-      <c r="H3" s="251"/>
-      <c r="I3" s="251"/>
-      <c r="J3" s="252"/>
-      <c r="K3" s="253" t="s">
+      <c r="B3" s="268"/>
+      <c r="C3" s="268"/>
+      <c r="D3" s="268"/>
+      <c r="E3" s="268"/>
+      <c r="F3" s="268"/>
+      <c r="G3" s="268"/>
+      <c r="H3" s="268"/>
+      <c r="I3" s="268"/>
+      <c r="J3" s="269"/>
+      <c r="K3" s="270" t="s">
         <v>290</v>
       </c>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
-      <c r="O3" s="254"/>
-      <c r="P3" s="254"/>
-      <c r="Q3" s="254"/>
-      <c r="R3" s="254"/>
-      <c r="S3" s="254"/>
-      <c r="T3" s="254"/>
-      <c r="U3" s="254"/>
-      <c r="V3" s="255"/>
+      <c r="L3" s="271"/>
+      <c r="M3" s="271"/>
+      <c r="N3" s="271"/>
+      <c r="O3" s="271"/>
+      <c r="P3" s="271"/>
+      <c r="Q3" s="271"/>
+      <c r="R3" s="271"/>
+      <c r="S3" s="271"/>
+      <c r="T3" s="271"/>
+      <c r="U3" s="271"/>
+      <c r="V3" s="272"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="256" t="s">
+      <c r="A4" s="250" t="s">
         <v>291</v>
       </c>
-      <c r="B4" s="257"/>
-      <c r="C4" s="257"/>
-      <c r="D4" s="257"/>
-      <c r="E4" s="257"/>
-      <c r="F4" s="257"/>
-      <c r="G4" s="257"/>
-      <c r="H4" s="257"/>
-      <c r="I4" s="257"/>
-      <c r="J4" s="258"/>
-      <c r="K4" s="259" t="s">
+      <c r="B4" s="251"/>
+      <c r="C4" s="251"/>
+      <c r="D4" s="251"/>
+      <c r="E4" s="251"/>
+      <c r="F4" s="251"/>
+      <c r="G4" s="251"/>
+      <c r="H4" s="251"/>
+      <c r="I4" s="251"/>
+      <c r="J4" s="252"/>
+      <c r="K4" s="253" t="s">
         <v>292</v>
       </c>
-      <c r="L4" s="260"/>
-      <c r="M4" s="260"/>
-      <c r="N4" s="260"/>
-      <c r="O4" s="260"/>
-      <c r="P4" s="260"/>
-      <c r="Q4" s="260"/>
-      <c r="R4" s="260"/>
-      <c r="S4" s="260"/>
-      <c r="T4" s="260"/>
-      <c r="U4" s="260"/>
-      <c r="V4" s="261"/>
+      <c r="L4" s="254"/>
+      <c r="M4" s="254"/>
+      <c r="N4" s="254"/>
+      <c r="O4" s="254"/>
+      <c r="P4" s="254"/>
+      <c r="Q4" s="254"/>
+      <c r="R4" s="254"/>
+      <c r="S4" s="254"/>
+      <c r="T4" s="254"/>
+      <c r="U4" s="254"/>
+      <c r="V4" s="255"/>
     </row>
     <row r="5" spans="1:23" s="199" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="262" t="s">
+      <c r="A5" s="248" t="s">
         <v>293</v>
       </c>
-      <c r="B5" s="264" t="s">
+      <c r="B5" s="256" t="s">
         <v>294</v>
       </c>
-      <c r="C5" s="265"/>
-      <c r="D5" s="265"/>
-      <c r="E5" s="266"/>
-      <c r="F5" s="262" t="s">
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="258"/>
+      <c r="F5" s="248" t="s">
         <v>295</v>
       </c>
-      <c r="G5" s="262" t="s">
+      <c r="G5" s="248" t="s">
         <v>296</v>
       </c>
-      <c r="H5" s="262" t="s">
+      <c r="H5" s="248" t="s">
         <v>297</v>
       </c>
-      <c r="I5" s="262" t="s">
+      <c r="I5" s="248" t="s">
         <v>298</v>
       </c>
-      <c r="J5" s="262" t="s">
+      <c r="J5" s="248" t="s">
         <v>299</v>
       </c>
-      <c r="K5" s="262" t="s">
+      <c r="K5" s="248" t="s">
         <v>293</v>
       </c>
-      <c r="L5" s="264" t="s">
+      <c r="L5" s="256" t="s">
         <v>300</v>
       </c>
-      <c r="M5" s="265"/>
-      <c r="N5" s="266"/>
-      <c r="O5" s="267" t="s">
+      <c r="M5" s="257"/>
+      <c r="N5" s="258"/>
+      <c r="O5" s="259" t="s">
         <v>301</v>
       </c>
-      <c r="P5" s="269" t="s">
+      <c r="P5" s="261" t="s">
         <v>302</v>
       </c>
-      <c r="Q5" s="265"/>
-      <c r="R5" s="270"/>
-      <c r="S5" s="271" t="s">
+      <c r="Q5" s="257"/>
+      <c r="R5" s="262"/>
+      <c r="S5" s="263" t="s">
         <v>303</v>
       </c>
-      <c r="T5" s="262" t="s">
+      <c r="T5" s="248" t="s">
         <v>304</v>
       </c>
-      <c r="U5" s="262" t="s">
+      <c r="U5" s="248" t="s">
         <v>305</v>
       </c>
-      <c r="V5" s="262" t="s">
+      <c r="V5" s="248" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="263"/>
+      <c r="A6" s="249"/>
       <c r="B6" s="200" t="s">
         <v>307</v>
       </c>
@@ -24428,12 +24428,12 @@
       <c r="E6" s="200" t="s">
         <v>310</v>
       </c>
-      <c r="F6" s="263"/>
-      <c r="G6" s="263"/>
-      <c r="H6" s="263"/>
-      <c r="I6" s="263"/>
-      <c r="J6" s="263"/>
-      <c r="K6" s="263"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="249"/>
+      <c r="I6" s="249"/>
+      <c r="J6" s="249"/>
+      <c r="K6" s="249"/>
       <c r="L6" s="200" t="s">
         <v>311</v>
       </c>
@@ -24443,7 +24443,7 @@
       <c r="N6" s="200" t="s">
         <v>313</v>
       </c>
-      <c r="O6" s="268"/>
+      <c r="O6" s="260"/>
       <c r="P6" s="200" t="s">
         <v>314</v>
       </c>
@@ -24453,10 +24453,10 @@
       <c r="R6" s="200" t="s">
         <v>316</v>
       </c>
-      <c r="S6" s="272"/>
-      <c r="T6" s="263"/>
-      <c r="U6" s="263"/>
-      <c r="V6" s="263"/>
+      <c r="S6" s="264"/>
+      <c r="T6" s="249"/>
+      <c r="U6" s="249"/>
+      <c r="V6" s="249"/>
       <c r="W6" s="201" t="s">
         <v>317</v>
       </c>
@@ -28577,6 +28577,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K1:V1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="K2:V2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="K3:V3"/>
     <mergeCell ref="U5:U6"/>
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="K4:V4"/>
@@ -28593,13 +28600,6 @@
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="P5:R5"/>
     <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K1:V1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="K2:V2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="K3:V3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="W6" location="TOC!A1" display="RETURN TO TABLE OF CONTENTS" xr:uid="{15849D88-5BED-4E10-A2CF-89F1D9F52D67}"/>
@@ -28622,201 +28622,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="273" t="s">
+      <c r="A1" s="286" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="273"/>
-      <c r="C1" s="273"/>
-      <c r="D1" s="273"/>
-      <c r="E1" s="273"/>
-      <c r="F1" s="273"/>
-      <c r="G1" s="273"/>
-      <c r="H1" s="273"/>
-      <c r="I1" s="273"/>
-      <c r="J1" s="273"/>
-      <c r="K1" s="274" t="s">
+      <c r="B1" s="286"/>
+      <c r="C1" s="286"/>
+      <c r="D1" s="286"/>
+      <c r="E1" s="286"/>
+      <c r="F1" s="286"/>
+      <c r="G1" s="286"/>
+      <c r="H1" s="286"/>
+      <c r="I1" s="286"/>
+      <c r="J1" s="286"/>
+      <c r="K1" s="287" t="s">
         <v>334</v>
       </c>
-      <c r="L1" s="274"/>
-      <c r="M1" s="274"/>
-      <c r="N1" s="274"/>
-      <c r="O1" s="274"/>
-      <c r="P1" s="274"/>
-      <c r="Q1" s="274"/>
-      <c r="R1" s="274"/>
-      <c r="S1" s="274"/>
-      <c r="T1" s="274"/>
-      <c r="U1" s="274"/>
-      <c r="V1" s="274"/>
+      <c r="L1" s="287"/>
+      <c r="M1" s="287"/>
+      <c r="N1" s="287"/>
+      <c r="O1" s="287"/>
+      <c r="P1" s="287"/>
+      <c r="Q1" s="287"/>
+      <c r="R1" s="287"/>
+      <c r="S1" s="287"/>
+      <c r="T1" s="287"/>
+      <c r="U1" s="287"/>
+      <c r="V1" s="287"/>
     </row>
     <row r="2" spans="1:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="249" t="s">
+      <c r="A2" s="266" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="249"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="249"/>
-      <c r="G2" s="249"/>
-      <c r="H2" s="249"/>
-      <c r="I2" s="249"/>
-      <c r="J2" s="249"/>
-      <c r="K2" s="249" t="s">
+      <c r="B2" s="266"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="266"/>
+      <c r="E2" s="266"/>
+      <c r="F2" s="266"/>
+      <c r="G2" s="266"/>
+      <c r="H2" s="266"/>
+      <c r="I2" s="266"/>
+      <c r="J2" s="266"/>
+      <c r="K2" s="266" t="s">
         <v>289</v>
       </c>
-      <c r="L2" s="249"/>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="249"/>
-      <c r="S2" s="249"/>
-      <c r="T2" s="249"/>
-      <c r="U2" s="249"/>
-      <c r="V2" s="249"/>
+      <c r="L2" s="266"/>
+      <c r="M2" s="266"/>
+      <c r="N2" s="266"/>
+      <c r="O2" s="266"/>
+      <c r="P2" s="266"/>
+      <c r="Q2" s="266"/>
+      <c r="R2" s="266"/>
+      <c r="S2" s="266"/>
+      <c r="T2" s="266"/>
+      <c r="U2" s="266"/>
+      <c r="V2" s="266"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="253" t="s">
+      <c r="A3" s="270" t="s">
         <v>335</v>
       </c>
-      <c r="B3" s="254"/>
-      <c r="C3" s="254"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="254"/>
-      <c r="G3" s="254"/>
-      <c r="H3" s="254"/>
-      <c r="I3" s="254"/>
-      <c r="J3" s="275"/>
-      <c r="K3" s="276" t="s">
+      <c r="B3" s="271"/>
+      <c r="C3" s="271"/>
+      <c r="D3" s="271"/>
+      <c r="E3" s="271"/>
+      <c r="F3" s="271"/>
+      <c r="G3" s="271"/>
+      <c r="H3" s="271"/>
+      <c r="I3" s="271"/>
+      <c r="J3" s="288"/>
+      <c r="K3" s="289" t="s">
         <v>335</v>
       </c>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
-      <c r="O3" s="254"/>
-      <c r="P3" s="254"/>
-      <c r="Q3" s="254"/>
-      <c r="R3" s="254"/>
-      <c r="S3" s="254"/>
-      <c r="T3" s="254"/>
-      <c r="U3" s="254"/>
-      <c r="V3" s="275"/>
+      <c r="L3" s="271"/>
+      <c r="M3" s="271"/>
+      <c r="N3" s="271"/>
+      <c r="O3" s="271"/>
+      <c r="P3" s="271"/>
+      <c r="Q3" s="271"/>
+      <c r="R3" s="271"/>
+      <c r="S3" s="271"/>
+      <c r="T3" s="271"/>
+      <c r="U3" s="271"/>
+      <c r="V3" s="288"/>
     </row>
     <row r="4" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="256" t="s">
+      <c r="A4" s="250" t="s">
         <v>336</v>
       </c>
-      <c r="B4" s="257"/>
-      <c r="C4" s="257"/>
-      <c r="D4" s="257"/>
-      <c r="E4" s="257"/>
-      <c r="F4" s="257"/>
-      <c r="G4" s="257"/>
-      <c r="H4" s="257"/>
-      <c r="I4" s="257"/>
-      <c r="J4" s="258"/>
-      <c r="K4" s="277" t="s">
+      <c r="B4" s="251"/>
+      <c r="C4" s="251"/>
+      <c r="D4" s="251"/>
+      <c r="E4" s="251"/>
+      <c r="F4" s="251"/>
+      <c r="G4" s="251"/>
+      <c r="H4" s="251"/>
+      <c r="I4" s="251"/>
+      <c r="J4" s="252"/>
+      <c r="K4" s="280" t="s">
         <v>336</v>
       </c>
-      <c r="L4" s="257"/>
-      <c r="M4" s="257"/>
-      <c r="N4" s="257"/>
-      <c r="O4" s="257"/>
-      <c r="P4" s="257"/>
-      <c r="Q4" s="257"/>
-      <c r="R4" s="257"/>
-      <c r="S4" s="257"/>
-      <c r="T4" s="257"/>
-      <c r="U4" s="257"/>
-      <c r="V4" s="258"/>
+      <c r="L4" s="251"/>
+      <c r="M4" s="251"/>
+      <c r="N4" s="251"/>
+      <c r="O4" s="251"/>
+      <c r="P4" s="251"/>
+      <c r="Q4" s="251"/>
+      <c r="R4" s="251"/>
+      <c r="S4" s="251"/>
+      <c r="T4" s="251"/>
+      <c r="U4" s="251"/>
+      <c r="V4" s="252"/>
     </row>
     <row r="5" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="278" t="s">
+      <c r="A5" s="281" t="s">
         <v>291</v>
       </c>
-      <c r="B5" s="279"/>
-      <c r="C5" s="279"/>
-      <c r="D5" s="279"/>
-      <c r="E5" s="279"/>
-      <c r="F5" s="279"/>
-      <c r="G5" s="279"/>
-      <c r="H5" s="279"/>
-      <c r="I5" s="279"/>
-      <c r="J5" s="280"/>
-      <c r="K5" s="278" t="s">
+      <c r="B5" s="282"/>
+      <c r="C5" s="282"/>
+      <c r="D5" s="282"/>
+      <c r="E5" s="282"/>
+      <c r="F5" s="282"/>
+      <c r="G5" s="282"/>
+      <c r="H5" s="282"/>
+      <c r="I5" s="282"/>
+      <c r="J5" s="283"/>
+      <c r="K5" s="281" t="s">
         <v>337</v>
       </c>
-      <c r="L5" s="279"/>
-      <c r="M5" s="279"/>
-      <c r="N5" s="279"/>
-      <c r="O5" s="279"/>
-      <c r="P5" s="279"/>
-      <c r="Q5" s="279"/>
-      <c r="R5" s="279"/>
-      <c r="S5" s="279"/>
-      <c r="T5" s="279"/>
-      <c r="U5" s="279"/>
-      <c r="V5" s="280"/>
+      <c r="L5" s="282"/>
+      <c r="M5" s="282"/>
+      <c r="N5" s="282"/>
+      <c r="O5" s="282"/>
+      <c r="P5" s="282"/>
+      <c r="Q5" s="282"/>
+      <c r="R5" s="282"/>
+      <c r="S5" s="282"/>
+      <c r="T5" s="282"/>
+      <c r="U5" s="282"/>
+      <c r="V5" s="283"/>
     </row>
     <row r="6" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="262" t="s">
+      <c r="A6" s="248" t="s">
         <v>293</v>
       </c>
-      <c r="B6" s="264" t="s">
+      <c r="B6" s="256" t="s">
         <v>294</v>
       </c>
-      <c r="C6" s="265"/>
-      <c r="D6" s="265"/>
-      <c r="E6" s="266"/>
-      <c r="F6" s="262" t="s">
+      <c r="C6" s="257"/>
+      <c r="D6" s="257"/>
+      <c r="E6" s="258"/>
+      <c r="F6" s="248" t="s">
         <v>295</v>
       </c>
-      <c r="G6" s="262" t="s">
+      <c r="G6" s="248" t="s">
         <v>296</v>
       </c>
-      <c r="H6" s="262" t="s">
+      <c r="H6" s="248" t="s">
         <v>297</v>
       </c>
-      <c r="I6" s="262" t="s">
+      <c r="I6" s="248" t="s">
         <v>298</v>
       </c>
-      <c r="J6" s="262" t="s">
+      <c r="J6" s="248" t="s">
         <v>299</v>
       </c>
-      <c r="K6" s="262" t="s">
+      <c r="K6" s="248" t="s">
         <v>293</v>
       </c>
-      <c r="L6" s="264" t="s">
+      <c r="L6" s="256" t="s">
         <v>300</v>
       </c>
-      <c r="M6" s="265"/>
-      <c r="N6" s="266"/>
-      <c r="O6" s="283" t="s">
+      <c r="M6" s="257"/>
+      <c r="N6" s="258"/>
+      <c r="O6" s="273" t="s">
         <v>301</v>
       </c>
-      <c r="P6" s="285" t="s">
+      <c r="P6" s="275" t="s">
         <v>302</v>
       </c>
-      <c r="Q6" s="286"/>
-      <c r="R6" s="287"/>
-      <c r="S6" s="288" t="s">
+      <c r="Q6" s="276"/>
+      <c r="R6" s="277"/>
+      <c r="S6" s="278" t="s">
         <v>303</v>
       </c>
-      <c r="T6" s="262" t="s">
+      <c r="T6" s="248" t="s">
         <v>304</v>
       </c>
-      <c r="U6" s="262" t="s">
+      <c r="U6" s="248" t="s">
         <v>305</v>
       </c>
-      <c r="V6" s="281" t="s">
+      <c r="V6" s="284" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="263"/>
+      <c r="A7" s="249"/>
       <c r="B7" s="200" t="s">
         <v>307</v>
       </c>
@@ -28829,12 +28829,12 @@
       <c r="E7" s="200" t="s">
         <v>310</v>
       </c>
-      <c r="F7" s="263"/>
-      <c r="G7" s="263"/>
-      <c r="H7" s="263"/>
-      <c r="I7" s="263"/>
-      <c r="J7" s="263"/>
-      <c r="K7" s="263"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="249"/>
+      <c r="I7" s="249"/>
+      <c r="J7" s="249"/>
+      <c r="K7" s="249"/>
       <c r="L7" s="200" t="s">
         <v>311</v>
       </c>
@@ -28844,7 +28844,7 @@
       <c r="N7" s="200" t="s">
         <v>313</v>
       </c>
-      <c r="O7" s="284"/>
+      <c r="O7" s="274"/>
       <c r="P7" s="223" t="s">
         <v>314</v>
       </c>
@@ -28854,10 +28854,10 @@
       <c r="R7" s="223" t="s">
         <v>316</v>
       </c>
-      <c r="S7" s="289"/>
-      <c r="T7" s="263"/>
-      <c r="U7" s="263"/>
-      <c r="V7" s="282"/>
+      <c r="S7" s="279"/>
+      <c r="T7" s="249"/>
+      <c r="U7" s="249"/>
+      <c r="V7" s="285"/>
       <c r="X7" s="201" t="s">
         <v>317</v>
       </c>
@@ -30881,6 +30881,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K1:V1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="K2:V2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="K3:V3"/>
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="P6:R6"/>
     <mergeCell ref="S6:S7"/>
@@ -30897,15 +30906,6 @@
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="V6:V7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K1:V1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="K2:V2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="K3:V3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="X7" location="TOC!A1" display="RETURN TO TABLE OF CONTENTS" xr:uid="{FECAC6BC-AB2B-43DA-BBC9-66BD70E07738}"/>
@@ -31006,124 +31006,128 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AG7"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AG7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" customWidth="1"/>
+    <col min="1" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>286</v>
       </c>
       <c r="B1">
+        <v>2018</v>
+      </c>
+      <c r="C1">
         <v>2019</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>2020</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>2021</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>2022</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>2023</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>2024</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>2025</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>2026</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>2027</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>2028</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>2029</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>2030</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>2031</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>2032</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>2033</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>2034</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>2035</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>2036</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>2037</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="2">
         <v>2038</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="2">
         <v>2039</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X1" s="2">
         <v>2040</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Y1" s="2">
         <v>2041</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Z1" s="2">
         <v>2042</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="AA1" s="2">
         <v>2043</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AB1" s="2">
         <v>2044</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AC1" s="2">
         <v>2045</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AD1" s="2">
         <v>2046</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AE1" s="2">
         <v>2047</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AF1" s="2">
         <v>2048</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AG1" s="2">
         <v>2049</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AH1" s="2">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
+        <f>C2</f>
         <v>0</v>
       </c>
       <c r="C2">
@@ -31219,12 +31223,16 @@
       <c r="AG2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
+        <f t="shared" ref="B3:B7" si="0">C3</f>
         <v>0</v>
       </c>
       <c r="C3">
@@ -31320,12 +31328,16 @@
       <c r="AG3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C4">
@@ -31421,12 +31433,16 @@
       <c r="AG4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C5">
@@ -31522,12 +31538,16 @@
       <c r="AG5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C6">
@@ -31623,12 +31643,16 @@
       <c r="AG6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C7">
@@ -31722,6 +31746,9 @@
         <v>0</v>
       </c>
       <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
         <v>0</v>
       </c>
     </row>
@@ -31735,124 +31762,128 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AG7"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AG7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="1" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>287</v>
       </c>
       <c r="B1">
+        <v>2018</v>
+      </c>
+      <c r="C1">
         <v>2019</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>2020</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>2021</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>2022</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>2023</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>2024</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>2025</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>2026</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>2027</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>2028</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>2029</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>2030</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>2031</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>2032</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>2033</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>2034</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>2035</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>2036</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>2037</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="2">
         <v>2038</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="2">
         <v>2039</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X1" s="2">
         <v>2040</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Y1" s="2">
         <v>2041</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Z1" s="2">
         <v>2042</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="AA1" s="2">
         <v>2043</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AB1" s="2">
         <v>2044</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AC1" s="2">
         <v>2045</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AD1" s="2">
         <v>2046</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AE1" s="2">
         <v>2047</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AF1" s="2">
         <v>2048</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AG1" s="2">
         <v>2049</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AH1" s="2">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
+        <f>C2</f>
         <v>0</v>
       </c>
       <c r="C2">
@@ -31948,12 +31979,16 @@
       <c r="AG2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
+        <f t="shared" ref="B3:B7" si="0">C3</f>
         <v>0</v>
       </c>
       <c r="C3">
@@ -32049,12 +32084,16 @@
       <c r="AG3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C4">
@@ -32150,12 +32189,16 @@
       <c r="AG4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C5">
@@ -32251,12 +32294,16 @@
       <c r="AG5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C6">
@@ -32352,12 +32399,16 @@
       <c r="AG6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C7">
@@ -32451,6 +32502,9 @@
         <v>0</v>
       </c>
       <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
         <v>0</v>
       </c>
     </row>
